--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="拆借" sheetId="8" r:id="rId10"/>
     <sheet name="仓" sheetId="14" r:id="rId11"/>
-    <sheet name="201609交易复盘" sheetId="15" r:id="rId12"/>
-    <sheet name="纪律" sheetId="9" r:id="rId13"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId14"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId15"/>
+    <sheet name="权益" sheetId="17" r:id="rId12"/>
+    <sheet name="201609交易复盘" sheetId="15" r:id="rId13"/>
+    <sheet name="纪律" sheetId="9" r:id="rId14"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId15"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="268">
   <si>
     <t>时间</t>
   </si>
@@ -1425,12 +1426,90 @@
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>rand</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <rPh sb="0" eb="1">
+      <t>jing'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>份数</t>
+    <rPh sb="0" eb="1">
+      <t>fen'shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值</t>
+    <rPh sb="0" eb="1">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>19W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏比例</t>
+    <rPh sb="0" eb="1">
+      <t>ying'kui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏金额</t>
+    <rPh sb="0" eb="1">
+      <t>ying'kui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'e</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>lei'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1487,6 +1566,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1508,7 +1592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1583,6 +1667,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1845,7 +1942,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2011,6 +2108,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,7 +2126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2835,7 +2941,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="60" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2864,7 +2970,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="60"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3950,14 +4056,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="57" t="s">
+      <c r="K48" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4010,12 +4116,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4068,12 +4174,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="57"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4502,7 +4608,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="58" t="s">
+      <c r="I69" s="59" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4528,7 +4634,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="58"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4613,12 +4719,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="57"/>
-      <c r="L73" s="58"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5237,10 +5343,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5251,14 +5357,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5756,9 +5862,36 @@
         <v>7.5</v>
       </c>
       <c r="H26" s="19">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>20161105</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="20">
+        <v>91000</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19">
+        <v>153477</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="19">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5773,10 +5906,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5892,7 +6025,7 @@
         <v>100000</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" ref="L3:M20" si="2">C3/K3</f>
+        <f t="shared" ref="L3:L20" si="2">C3/K3</f>
         <v>1.00115</v>
       </c>
     </row>
@@ -6467,7 +6600,7 @@
         <v>25</v>
       </c>
       <c r="J17" s="19">
-        <f>C17/I17</f>
+        <f t="shared" ref="J17:J22" si="17">C17/I17</f>
         <v>4057.48</v>
       </c>
       <c r="K17" s="19">
@@ -6499,18 +6632,18 @@
         <v>39194</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" ref="G18" si="17">C18*(10-H18)/10</f>
+        <f t="shared" ref="G18" si="18">C18*(10-H18)/10</f>
         <v>61693</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" ref="H18" si="18">F18/C18*10</f>
+        <f t="shared" ref="H18" si="19">F18/C18*10</f>
         <v>3.8849405770812888</v>
       </c>
       <c r="I18" s="19">
         <v>25</v>
       </c>
       <c r="J18" s="19">
-        <f>C18/I18</f>
+        <f t="shared" si="17"/>
         <v>4035.48</v>
       </c>
       <c r="K18" s="19">
@@ -6543,18 +6676,18 @@
         <v>37002.400000000001</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" ref="G19" si="19">C19*(10-H19)/10</f>
+        <f t="shared" ref="G19" si="20">C19*(10-H19)/10</f>
         <v>64324.360000000008</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" ref="H19" si="20">F19/C19*10</f>
+        <f t="shared" ref="H19" si="21">F19/C19*10</f>
         <v>3.6517895173989574</v>
       </c>
       <c r="I19" s="19">
         <v>25</v>
       </c>
       <c r="J19" s="19">
-        <f>C19/I19</f>
+        <f t="shared" si="17"/>
         <v>4053.0704000000005</v>
       </c>
       <c r="K19" s="19">
@@ -6573,7 +6706,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="19">
-        <f t="shared" ref="C20" si="21">D20+E20</f>
+        <f t="shared" ref="C20" si="22">D20+E20</f>
         <v>101147.36</v>
       </c>
       <c r="D20" s="19">
@@ -6586,18 +6719,18 @@
         <v>36829.4</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" ref="G20" si="22">C20*(10-H20)/10</f>
+        <f t="shared" ref="G20" si="23">C20*(10-H20)/10</f>
         <v>64317.96</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" ref="H20" si="23">F20/C20*10</f>
+        <f t="shared" ref="H20" si="24">F20/C20*10</f>
         <v>3.6411627550140708</v>
       </c>
       <c r="I20" s="19">
         <v>25</v>
       </c>
       <c r="J20" s="19">
-        <f>C20/I20</f>
+        <f t="shared" si="17"/>
         <v>4045.8944000000001</v>
       </c>
       <c r="K20" s="19">
@@ -6608,53 +6741,97 @@
         <v>1.0114736</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62">
+    <row r="21" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="57">
         <v>20161031</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="62">
-        <f t="shared" ref="C21" si="24">D21+E21</f>
+      <c r="B21" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="57">
+        <f t="shared" ref="C21" si="25">D21+E21</f>
         <v>192147.36</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="57">
         <v>38715.360000000001</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="57">
         <f>拆借!F26</f>
         <v>153432</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="57">
         <v>36829.4</v>
       </c>
-      <c r="G21" s="62">
-        <f t="shared" ref="G21" si="25">C21*(10-H21)/10</f>
+      <c r="G21" s="57">
+        <f t="shared" ref="G21" si="26">C21*(10-H21)/10</f>
         <v>155317.95999999996</v>
       </c>
-      <c r="H21" s="62">
-        <f t="shared" ref="H21" si="26">F21/C21*10</f>
+      <c r="H21" s="57">
+        <f t="shared" ref="H21" si="27">F21/C21*10</f>
         <v>1.9167268288255432</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="57">
         <v>48</v>
       </c>
-      <c r="J21" s="62">
-        <f>C21/I21</f>
+      <c r="J21" s="57">
+        <f t="shared" si="17"/>
         <v>4003.0699999999997</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="57">
         <f>K20+N21</f>
         <v>189967.7460687061</v>
       </c>
-      <c r="L21" s="62">
-        <f t="shared" ref="L21:M21" si="27">C21/K21</f>
+      <c r="L21" s="57">
+        <f t="shared" ref="L21" si="28">C21/K21</f>
         <v>1.0114736</v>
       </c>
-      <c r="N21" s="62">
+      <c r="N21" s="57">
         <f>91000/L20</f>
         <v>89967.746068706096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>20161103</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="19">
+        <f t="shared" ref="C22" si="29">D22+E22</f>
+        <v>192321</v>
+      </c>
+      <c r="D22" s="19">
+        <v>38844</v>
+      </c>
+      <c r="E22" s="19">
+        <f>拆借!F27</f>
+        <v>153477</v>
+      </c>
+      <c r="F22" s="19">
+        <v>35658.400000000001</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" ref="G22" si="30">C22*(10-H22)/10</f>
+        <v>156662.59999999998</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" ref="H22" si="31">F22/C22*10</f>
+        <v>1.8541084956920981</v>
+      </c>
+      <c r="I22" s="19">
+        <v>48</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="17"/>
+        <v>4006.6875</v>
+      </c>
+      <c r="K22">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" ref="L22" si="32">C22/K22</f>
+        <v>1.012387649903699</v>
       </c>
     </row>
   </sheetData>
@@ -6664,6 +6841,274 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
+        <v>20161031</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2">
+        <v>1.0114736</v>
+      </c>
+      <c r="C2" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <f>C2*B2</f>
+        <v>101147.36</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>1147.3600000000006</v>
+      </c>
+      <c r="G2">
+        <f>(B2*C2)/E2*100 -100</f>
+        <v>1.1473599999999919</v>
+      </c>
+      <c r="H2">
+        <v>1147.3600000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3">
+        <v>1.0114736</v>
+      </c>
+      <c r="C3">
+        <v>89967.746068706096</v>
+      </c>
+      <c r="D3">
+        <f>C3*B3</f>
+        <v>91000</v>
+      </c>
+      <c r="E3">
+        <v>91000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">D3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">(B3*C3)/E3*100 -100</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>1.0114736</v>
+      </c>
+      <c r="C4">
+        <f>C3+C2</f>
+        <v>189967.7460687061</v>
+      </c>
+      <c r="D4">
+        <f>D2+D3</f>
+        <v>192147.36</v>
+      </c>
+      <c r="E4">
+        <v>191000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1147.359999999986</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.60071204188480465</v>
+      </c>
+      <c r="H4">
+        <f>H2</f>
+        <v>1147.3600000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>20161103</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6">
+        <v>1.012387649903699</v>
+      </c>
+      <c r="C6" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <f>C6*B6</f>
+        <v>101238.76499036991</v>
+      </c>
+      <c r="E6">
+        <v>100000</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>1238.7649903699057</v>
+      </c>
+      <c r="G6">
+        <f>(B6*C6)/E6*100 -100</f>
+        <v>1.2387649903699014</v>
+      </c>
+      <c r="H6">
+        <v>1238.7649903699057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7">
+        <v>1.012387649903699</v>
+      </c>
+      <c r="C7">
+        <v>89967.746068706096</v>
+      </c>
+      <c r="D7">
+        <f>C7*B7</f>
+        <v>91082.235009630123</v>
+      </c>
+      <c r="E7">
+        <v>91000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F8" si="2">D7-E7</f>
+        <v>82.235009630123386</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G8" si="3">(B7*C7)/E7*100 -100</f>
+        <v>9.0368142450685696E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>1.012387649903699</v>
+      </c>
+      <c r="C8">
+        <f>C7+C6</f>
+        <v>189967.7460687061</v>
+      </c>
+      <c r="D8">
+        <f>D6+D7</f>
+        <v>192321.00000000003</v>
+      </c>
+      <c r="E8">
+        <v>191000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1321.0000000000291</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.69162303664921865</v>
+      </c>
+      <c r="H8">
+        <f>H6</f>
+        <v>1238.7649903699057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <f>F15-G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="4">F16-G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6678,7 +7123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6699,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -6963,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="拆借" sheetId="8" r:id="rId10"/>
     <sheet name="仓" sheetId="14" r:id="rId11"/>
     <sheet name="权益" sheetId="17" r:id="rId12"/>
-    <sheet name="201609交易复盘" sheetId="15" r:id="rId13"/>
+    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId13"/>
     <sheet name="纪律" sheetId="9" r:id="rId14"/>
     <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId15"/>
     <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId16"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="272">
   <si>
     <t>时间</t>
   </si>
@@ -1502,6 +1502,31 @@
     <rPh sb="2" eb="3">
       <t>ying'kui</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆出还月供</t>
+    <rPh sb="0" eb="1">
+      <t>chai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yue'gong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>还月供</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1942,7 +1967,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2111,6 +2136,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,15 +2164,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="259">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2941,7 +2977,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2970,7 +3006,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4056,14 +4092,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="58" t="s">
+      <c r="K48" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4116,12 +4152,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4174,12 +4210,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4608,7 +4644,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="59" t="s">
+      <c r="I69" s="64" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4634,7 +4670,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="59"/>
+      <c r="I70" s="64"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4719,12 +4755,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="58"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5343,10 +5379,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5357,14 +5393,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5889,10 +5925,136 @@
         <v>7.5</v>
       </c>
       <c r="H27" s="19">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
+        <v>20161117</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
+        <v>153567</v>
+      </c>
+      <c r="G28" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H28" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
+        <v>20161117</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19">
+        <v>153597</v>
+      </c>
+      <c r="G29" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H29" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>20161129</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19">
+        <v>153687</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="57">
+        <v>20161129</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="57">
+        <f>153687-93300</f>
+        <v>60387</v>
+      </c>
+      <c r="G31" s="57">
+        <v>3</v>
+      </c>
+      <c r="H31" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="68">
+        <v>20161130</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="68">
+        <v>60340</v>
+      </c>
+      <c r="G32" s="68">
+        <v>3</v>
+      </c>
+      <c r="H32" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="68">
+        <v>20161130</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="68">
+        <f>F32-8333</f>
+        <v>52007</v>
+      </c>
+      <c r="G33" s="68">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="68">
+        <v>0</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5906,10 +6068,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6834,6 +6996,282 @@
         <v>1.012387649903699</v>
       </c>
     </row>
+    <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>20161117</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" ref="C23" si="33">D23+E23</f>
+        <v>193620.41</v>
+      </c>
+      <c r="D23" s="19">
+        <v>40053.410000000003</v>
+      </c>
+      <c r="E23" s="19">
+        <f>拆借!F28</f>
+        <v>153567</v>
+      </c>
+      <c r="F23" s="19">
+        <v>33319</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" ref="G23" si="34">C23*(10-H23)/10</f>
+        <v>160301.41</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" ref="H23" si="35">F23/C23*10</f>
+        <v>1.7208413100664335</v>
+      </c>
+      <c r="I23" s="19">
+        <v>48</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" ref="J23" si="36">C23/I23</f>
+        <v>4033.7585416666666</v>
+      </c>
+      <c r="K23">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" ref="L23" si="37">C23/K23</f>
+        <v>1.0192278110725852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>20161121</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="19">
+        <f t="shared" ref="C24" si="38">D24+E24</f>
+        <v>194741.21</v>
+      </c>
+      <c r="D24" s="19">
+        <v>41144.21</v>
+      </c>
+      <c r="E24" s="19">
+        <f>拆借!F29</f>
+        <v>153597</v>
+      </c>
+      <c r="F24" s="19">
+        <v>34409.800000000003</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" ref="G24" si="39">C24*(10-H24)/10</f>
+        <v>160331.40999999997</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" ref="H24" si="40">F24/C24*10</f>
+        <v>1.7669500975165966</v>
+      </c>
+      <c r="I24" s="19">
+        <v>48</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" ref="J24" si="41">C24/I24</f>
+        <v>4057.1085416666665</v>
+      </c>
+      <c r="K24">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" ref="L24" si="42">C24/K24</f>
+        <v>1.0251277600017819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>20161129</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" ref="C25" si="43">D25+E25</f>
+        <v>196539.61</v>
+      </c>
+      <c r="D25" s="19">
+        <v>42852.61</v>
+      </c>
+      <c r="E25" s="19">
+        <v>153687</v>
+      </c>
+      <c r="F25" s="19">
+        <v>36118.199999999997</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" ref="G25" si="44">C25*(10-H25)/10</f>
+        <v>160421.40999999997</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" ref="H25" si="45">F25/C25*10</f>
+        <v>1.8377058955189747</v>
+      </c>
+      <c r="I25" s="19">
+        <v>48</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" ref="J25" si="46">C25/I25</f>
+        <v>4094.5752083333332</v>
+      </c>
+      <c r="K25">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" ref="L25" si="47">C25/K25</f>
+        <v>1.0345946302322133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="57">
+        <v>20161129</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="57">
+        <f t="shared" ref="C26" si="48">D26+E26</f>
+        <v>196539.61</v>
+      </c>
+      <c r="D26" s="57">
+        <v>136152.60999999999</v>
+      </c>
+      <c r="E26" s="57">
+        <f>153687-93300</f>
+        <v>60387</v>
+      </c>
+      <c r="F26" s="57">
+        <v>36118.199999999997</v>
+      </c>
+      <c r="G26" s="57">
+        <f t="shared" ref="G26" si="49">C26*(10-H26)/10</f>
+        <v>160421.40999999997</v>
+      </c>
+      <c r="H26" s="57">
+        <f t="shared" ref="H26" si="50">F26/C26*10</f>
+        <v>1.8377058955189747</v>
+      </c>
+      <c r="I26" s="57">
+        <v>48</v>
+      </c>
+      <c r="J26" s="57">
+        <f t="shared" ref="J26" si="51">C26/I26</f>
+        <v>4094.5752083333332</v>
+      </c>
+      <c r="K26" s="61">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L26" s="57">
+        <f t="shared" ref="L26" si="52">C26/K26</f>
+        <v>1.0345946302322133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="68">
+        <v>20161130</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="68">
+        <f t="shared" ref="C27" si="53">D27+E27</f>
+        <v>196733.81</v>
+      </c>
+      <c r="D27" s="68">
+        <v>136393.81</v>
+      </c>
+      <c r="E27" s="68">
+        <v>60340</v>
+      </c>
+      <c r="F27" s="68">
+        <v>136362.4</v>
+      </c>
+      <c r="G27" s="68">
+        <f t="shared" ref="G27" si="54">C27*(10-H27)/10</f>
+        <v>60371.410000000011</v>
+      </c>
+      <c r="H27" s="68">
+        <f t="shared" ref="H27" si="55">F27/C27*10</f>
+        <v>6.9313149580135711</v>
+      </c>
+      <c r="I27" s="68">
+        <v>48</v>
+      </c>
+      <c r="J27" s="68">
+        <f t="shared" ref="J27" si="56">C27/I27</f>
+        <v>4098.6210416666663</v>
+      </c>
+      <c r="K27" s="70">
+        <v>189967.7460687061</v>
+      </c>
+      <c r="L27" s="68">
+        <f t="shared" ref="L27" si="57">C27/K27</f>
+        <v>1.035616909034899</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="N27" s="68">
+        <f>8333/L27</f>
+        <v>8046.4116868906667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="68">
+        <v>20161130</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="68">
+        <f t="shared" ref="C28" si="58">D28+E28</f>
+        <v>188400.81</v>
+      </c>
+      <c r="D28" s="68">
+        <v>136393.81</v>
+      </c>
+      <c r="E28" s="68">
+        <v>52007</v>
+      </c>
+      <c r="F28" s="68">
+        <v>136362.4</v>
+      </c>
+      <c r="G28" s="68">
+        <f t="shared" ref="G28" si="59">C28*(10-H28)/10</f>
+        <v>52038.41</v>
+      </c>
+      <c r="H28" s="68">
+        <f t="shared" ref="H28" si="60">F28/C28*10</f>
+        <v>7.2378882022853297</v>
+      </c>
+      <c r="I28" s="68">
+        <v>48</v>
+      </c>
+      <c r="J28" s="68">
+        <f t="shared" ref="J28" si="61">C28/I28</f>
+        <v>3925.0168749999998</v>
+      </c>
+      <c r="K28" s="70">
+        <f>K27-N27</f>
+        <v>181921.33438181542</v>
+      </c>
+      <c r="L28" s="68">
+        <f t="shared" ref="L28" si="62">C28/K28</f>
+        <v>1.035616909034899</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="N28" s="68">
+        <f>8333/L28</f>
+        <v>8046.4116868906667</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6844,8 +7282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6867,16 +7305,16 @@
       <c r="D1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="58" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6982,16 +7420,16 @@
       <c r="D5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="60" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7013,8 +7451,8 @@
         <v>100000</v>
       </c>
       <c r="F6">
-        <f>D6-E6</f>
-        <v>1238.7649903699057</v>
+        <f>D6-D2</f>
+        <v>91.404990369905136</v>
       </c>
       <c r="G6">
         <f>(B6*C6)/E6*100 -100</f>
@@ -7050,10 +7488,11 @@
         <v>9.0368142450685696E-2</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <f>D7-E7</f>
+        <v>82.235009630123386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -7084,21 +7523,243 @@
         <v>1238.7649903699057</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>20161117</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C10" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <f>C10*B10</f>
+        <v>101922.78110725852</v>
+      </c>
+      <c r="E10">
+        <v>100000</v>
+      </c>
+      <c r="F10">
+        <f>D10-D6</f>
+        <v>684.01611688861158</v>
+      </c>
+      <c r="G10">
+        <f>(B10*C10)/E10*100 -100</f>
+        <v>1.9227811072585155</v>
+      </c>
+      <c r="H10">
+        <f>D10-E10</f>
+        <v>1922.7811072585173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C11">
+        <v>89967.746068706096</v>
+      </c>
+      <c r="D11">
+        <f>C11*B11</f>
+        <v>91697.628892741501</v>
+      </c>
+      <c r="E11">
+        <v>91000</v>
+      </c>
+      <c r="F11">
+        <f>D11-D7</f>
+        <v>615.39388311137736</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="4">(B11*C11)/E11*100 -100</f>
+        <v>0.76662515685879384</v>
+      </c>
+      <c r="H11">
+        <f>D11-E11</f>
+        <v>697.62889274150075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C12">
+        <f>C11+C10</f>
+        <v>189967.7460687061</v>
+      </c>
+      <c r="D12">
+        <f>D10+D11</f>
+        <v>193620.41000000003</v>
+      </c>
+      <c r="E12">
+        <v>191000</v>
+      </c>
+      <c r="F12">
+        <f>D12-D8</f>
+        <v>1299.4100000000035</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>1.3719424083769667</v>
+      </c>
+      <c r="H12">
+        <f>H10</f>
+        <v>1922.7811072585173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>20161121</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C14" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <f>C14*B14</f>
+        <v>101922.78110725852</v>
+      </c>
+      <c r="E14">
+        <v>100000</v>
+      </c>
+      <c r="F14">
+        <f>D14-D10</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>(B14*C14)/E14*100 -100</f>
+        <v>1.9227811072585155</v>
+      </c>
+      <c r="H14">
+        <f>D14-E14</f>
+        <v>1922.7811072585173</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C15">
+        <v>89967.746068706096</v>
+      </c>
+      <c r="D15">
+        <f>C15*B15</f>
+        <v>91697.628892741501</v>
+      </c>
+      <c r="E15">
+        <v>91000</v>
+      </c>
+      <c r="F15">
+        <f>D15-D11</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G16" si="5">(B15*C15)/E15*100 -100</f>
+        <v>0.76662515685879384</v>
+      </c>
       <c r="H15">
-        <f>F15-G15</f>
+        <f>D15-E15</f>
+        <v>697.62889274150075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16">
+        <v>1.0192278110725852</v>
+      </c>
+      <c r="C16">
+        <f>C15+C14</f>
+        <v>189967.7460687061</v>
+      </c>
+      <c r="D16">
+        <f>D14+D15</f>
+        <v>193620.41000000003</v>
+      </c>
+      <c r="E16">
+        <v>191000</v>
+      </c>
+      <c r="F16">
+        <f>D16-D12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>1.3719424083769667</v>
+      </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="4">F16-G16</f>
-        <v>0</v>
+        <f>H14</f>
+        <v>1922.7811072585173</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H17" si="6">F17-G17</f>
         <v>0</v>
       </c>
     </row>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
   <si>
     <t>时间</t>
   </si>
@@ -1527,6 +1527,19 @@
   </si>
   <si>
     <t>还月供</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买西部证券</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'quan</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2149,6 +2162,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2164,13 +2184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="259">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2977,7 +2990,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="68" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3006,7 +3019,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4092,14 +4105,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="63" t="s">
+      <c r="K48" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4152,12 +4165,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="63"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4210,12 +4223,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="63"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="64"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4644,7 +4657,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="64" t="s">
+      <c r="I69" s="67" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4670,7 +4683,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="64"/>
+      <c r="I70" s="67"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4755,12 +4768,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="63"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="64"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="64"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5379,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5393,14 +5406,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -6012,49 +6025,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68">
+    <row r="32" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="63">
         <v>20161130</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="68">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="63">
         <v>60340</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="63">
         <v>3</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="63">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68">
+    <row r="33" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63">
         <v>20161130</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="68">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="63">
         <f>F32-8333</f>
         <v>52007</v>
       </c>
-      <c r="G33" s="68">
+      <c r="G33" s="63">
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="63">
+        <v>32.5</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63">
+        <v>20161215</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="63">
+        <v>52042.5</v>
+      </c>
+      <c r="G34" s="63">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="63">
         <v>0</v>
       </c>
-      <c r="I33" s="70" t="s">
-        <v>271</v>
+    </row>
+    <row r="35" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63">
+        <v>20161229</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="63">
+        <v>52077.5</v>
+      </c>
+      <c r="G35" s="63">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B36" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="63">
+        <v>46080</v>
+      </c>
+      <c r="G36" s="63">
+        <v>2</v>
+      </c>
+      <c r="H36" s="63">
+        <v>0</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6068,10 +6146,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7171,105 +7249,183 @@
         <v>1.0345946302322133</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68">
+    <row r="27" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="63">
         <v>20161130</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="63">
         <f t="shared" ref="C27" si="53">D27+E27</f>
         <v>196733.81</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="63">
         <v>136393.81</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="63">
         <v>60340</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="63">
         <v>136362.4</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="63">
         <f t="shared" ref="G27" si="54">C27*(10-H27)/10</f>
         <v>60371.410000000011</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="63">
         <f t="shared" ref="H27" si="55">F27/C27*10</f>
         <v>6.9313149580135711</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="63">
         <v>48</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="63">
         <f t="shared" ref="J27" si="56">C27/I27</f>
         <v>4098.6210416666663</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="65">
         <v>189967.7460687061</v>
       </c>
-      <c r="L27" s="68">
+      <c r="L27" s="63">
         <f t="shared" ref="L27" si="57">C27/K27</f>
         <v>1.035616909034899</v>
       </c>
-      <c r="M27" s="68" t="s">
+      <c r="M27" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="63">
         <f>8333/L27</f>
         <v>8046.4116868906667</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68">
-        <v>20161130</v>
-      </c>
-      <c r="B28" s="68" t="s">
+    <row r="28" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="63">
+        <v>20161215</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="63">
         <f t="shared" ref="C28" si="58">D28+E28</f>
-        <v>188400.81</v>
-      </c>
-      <c r="D28" s="68">
-        <v>136393.81</v>
-      </c>
-      <c r="E28" s="68">
-        <v>52007</v>
-      </c>
-      <c r="F28" s="68">
-        <v>136362.4</v>
-      </c>
-      <c r="G28" s="68">
-        <f t="shared" ref="G28" si="59">C28*(10-H28)/10</f>
-        <v>52038.41</v>
-      </c>
-      <c r="H28" s="68">
-        <f t="shared" ref="H28" si="60">F28/C28*10</f>
-        <v>7.2378882022853297</v>
-      </c>
-      <c r="I28" s="68">
+        <v>186193.7</v>
+      </c>
+      <c r="D28" s="63">
+        <v>134151.20000000001</v>
+      </c>
+      <c r="E28" s="63">
+        <v>52042.5</v>
+      </c>
+      <c r="F28" s="63">
+        <v>134021.4</v>
+      </c>
+      <c r="G28" s="63">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="H28" s="63">
+        <f t="shared" ref="H28" si="59">F28/C28*10</f>
+        <v>7.1979556773403175</v>
+      </c>
+      <c r="I28" s="63">
         <v>48</v>
       </c>
-      <c r="J28" s="68">
-        <f t="shared" ref="J28" si="61">C28/I28</f>
-        <v>3925.0168749999998</v>
-      </c>
-      <c r="K28" s="70">
+      <c r="J28" s="63">
+        <f t="shared" ref="J28" si="60">C28/I28</f>
+        <v>3879.0354166666671</v>
+      </c>
+      <c r="K28" s="65">
         <f>K27-N27</f>
         <v>181921.33438181542</v>
       </c>
-      <c r="L28" s="68">
-        <f t="shared" ref="L28" si="62">C28/K28</f>
-        <v>1.035616909034899</v>
-      </c>
-      <c r="M28" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="N28" s="68">
-        <f>8333/L28</f>
-        <v>8046.4116868906667</v>
+      <c r="L28" s="63">
+        <f t="shared" ref="L28" si="61">C28/K28</f>
+        <v>1.0234846871187619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="63">
+        <v>20161229</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="63">
+        <f>D29+E29</f>
+        <v>186040.16</v>
+      </c>
+      <c r="D29" s="63">
+        <v>133962.66</v>
+      </c>
+      <c r="E29" s="63">
+        <v>52077.5</v>
+      </c>
+      <c r="F29" s="63">
+        <v>133701.4</v>
+      </c>
+      <c r="G29" s="63">
+        <v>261.26</v>
+      </c>
+      <c r="H29" s="63">
+        <f>F29/C29*10</f>
+        <v>7.1866956037879124</v>
+      </c>
+      <c r="I29" s="63">
+        <v>30</v>
+      </c>
+      <c r="J29" s="63">
+        <f t="shared" ref="J29" si="62">C29/I29</f>
+        <v>6201.3386666666665</v>
+      </c>
+      <c r="K29" s="65">
+        <f>K28-N28</f>
+        <v>181921.33438181542</v>
+      </c>
+      <c r="L29" s="63">
+        <f t="shared" ref="L29" si="63">C29/K29</f>
+        <v>1.022640695947953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="63">
+        <f>D30+E30</f>
+        <v>186243.72</v>
+      </c>
+      <c r="D30" s="63">
+        <v>140163.72</v>
+      </c>
+      <c r="E30" s="63">
+        <v>46080</v>
+      </c>
+      <c r="F30" s="63">
+        <v>140117.20000000001</v>
+      </c>
+      <c r="G30" s="63">
+        <v>46.52</v>
+      </c>
+      <c r="H30" s="63">
+        <f>F30/C30*10</f>
+        <v>7.5233248133145114</v>
+      </c>
+      <c r="I30" s="63">
+        <v>30</v>
+      </c>
+      <c r="J30" s="63">
+        <f t="shared" ref="J30" si="64">C30/I30</f>
+        <v>6208.1239999999998</v>
+      </c>
+      <c r="K30" s="65">
+        <f>K29-N29</f>
+        <v>181921.33438181542</v>
+      </c>
+      <c r="L30" s="63">
+        <f t="shared" ref="L30" si="65">C30/K30</f>
+        <v>1.0237596411266023</v>
       </c>
     </row>
   </sheetData>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="282">
   <si>
     <t>时间</t>
   </si>
@@ -1539,6 +1539,93 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>zheng'quan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>还月供</t>
+    <rPh sb="0" eb="1">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue'gong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝信软件</t>
+    <rPh sb="0" eb="1">
+      <t>bao'xin'ruan'jian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金正大</t>
+    <rPh sb="0" eb="1">
+      <t>jin'zheng'da</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注之列的股票，发生急跌，买入或补仓</t>
+    <rPh sb="0" eb="1">
+      <t>guan'zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'lie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gu'piao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa'sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'die</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'cang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损 5%</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'sun</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金证股份</t>
+    <rPh sb="0" eb="1">
+      <t>jin'zheng'gu'fen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金证股份</t>
+    <rPh sb="0" eb="1">
+      <t>jin'zheng'gu'f</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国中水务</t>
+    <rPh sb="0" eb="1">
+      <t>guo'zhong'shui'wu</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5392,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6135,6 +6222,150 @@
         <v>272</v>
       </c>
     </row>
+    <row r="37" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B37" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="63">
+        <f>46080-8333</f>
+        <v>37747</v>
+      </c>
+      <c r="G37" s="63">
+        <v>2</v>
+      </c>
+      <c r="H37" s="63">
+        <v>0</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="63">
+        <v>20170103</v>
+      </c>
+      <c r="B38" s="63">
+        <v>3.95</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="63">
+        <f>46080-8333-5500+8</f>
+        <v>32255</v>
+      </c>
+      <c r="G38" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="63">
+        <v>0</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="63">
+        <v>20170109</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="63">
+        <f>32255-5500+9</f>
+        <v>26764</v>
+      </c>
+      <c r="G39" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="63">
+        <v>0</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="63">
+        <v>20170112</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="63">
+        <f>26764-4999+4.5</f>
+        <v>21769.5</v>
+      </c>
+      <c r="G40" s="63">
+        <v>1</v>
+      </c>
+      <c r="H40" s="63">
+        <v>0</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="63">
+        <v>20170113</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="63">
+        <f>21769.5-5000+1</f>
+        <v>16770.5</v>
+      </c>
+      <c r="G41" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="63">
+        <v>0</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="63">
+        <v>20170116</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="63">
+        <f>16770.5+0.75*3-5500</f>
+        <v>11272.75</v>
+      </c>
+      <c r="G42" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="63">
+        <v>0</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
@@ -6146,10 +6377,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6808,7 +7040,7 @@
         <v>1.0109710999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>20161018</v>
       </c>
@@ -6851,7 +7083,7 @@
         <v>1.01437</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>20161020</v>
       </c>
@@ -6894,7 +7126,7 @@
         <v>1.0088699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>20161026</v>
       </c>
@@ -6938,7 +7170,7 @@
         <v>1.0132676</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>20161031</v>
       </c>
@@ -6981,7 +7213,7 @@
         <v>1.0114736</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57">
         <v>20161031</v>
       </c>
@@ -7030,7 +7262,7 @@
         <v>89967.746068706096</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>20161103</v>
       </c>
@@ -7074,7 +7306,7 @@
         <v>1.012387649903699</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>20161117</v>
       </c>
@@ -7118,7 +7350,7 @@
         <v>1.0192278110725852</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>20161121</v>
       </c>
@@ -7162,7 +7394,7 @@
         <v>1.0251277600017819</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>20161129</v>
       </c>
@@ -7205,7 +7437,7 @@
         <v>1.0345946302322133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57">
         <v>20161129</v>
       </c>
@@ -7249,7 +7481,7 @@
         <v>1.0345946302322133</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="63">
         <v>20161130</v>
       </c>
@@ -7298,8 +7530,23 @@
         <f>8333/L27</f>
         <v>8046.4116868906667</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O27" s="63">
+        <f>N27*L27</f>
+        <v>8333</v>
+      </c>
+      <c r="P27" s="63">
+        <v>194.26700397862459</v>
+      </c>
+      <c r="Q27" s="63">
+        <f>P27/O27</f>
+        <v>2.3312972996354805E-2</v>
+      </c>
+      <c r="R27" s="63">
+        <f>Q27*12</f>
+        <v>0.27975567595625767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="63">
         <v>20161215</v>
       </c>
@@ -7342,7 +7589,7 @@
         <v>1.0234846871187619</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="63">
         <v>20161229</v>
       </c>
@@ -7350,7 +7597,7 @@
         <v>261</v>
       </c>
       <c r="C29" s="63">
-        <f>D29+E29</f>
+        <f t="shared" ref="C29:C35" si="62">D29+E29</f>
         <v>186040.16</v>
       </c>
       <c r="D29" s="63">
@@ -7366,14 +7613,14 @@
         <v>261.26</v>
       </c>
       <c r="H29" s="63">
-        <f>F29/C29*10</f>
+        <f t="shared" ref="H29:H35" si="63">F29/C29*10</f>
         <v>7.1866956037879124</v>
       </c>
       <c r="I29" s="63">
         <v>30</v>
       </c>
       <c r="J29" s="63">
-        <f t="shared" ref="J29" si="62">C29/I29</f>
+        <f t="shared" ref="J29" si="64">C29/I29</f>
         <v>6201.3386666666665</v>
       </c>
       <c r="K29" s="65">
@@ -7381,11 +7628,11 @@
         <v>181921.33438181542</v>
       </c>
       <c r="L29" s="63">
-        <f t="shared" ref="L29" si="63">C29/K29</f>
+        <f t="shared" ref="L29" si="65">C29/K29</f>
         <v>1.022640695947953</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="63">
         <v>20161230</v>
       </c>
@@ -7393,7 +7640,7 @@
         <v>261</v>
       </c>
       <c r="C30" s="63">
-        <f>D30+E30</f>
+        <f t="shared" si="62"/>
         <v>186243.72</v>
       </c>
       <c r="D30" s="63">
@@ -7409,14 +7656,14 @@
         <v>46.52</v>
       </c>
       <c r="H30" s="63">
-        <f>F30/C30*10</f>
+        <f t="shared" si="63"/>
         <v>7.5233248133145114</v>
       </c>
       <c r="I30" s="63">
         <v>30</v>
       </c>
       <c r="J30" s="63">
-        <f t="shared" ref="J30" si="64">C30/I30</f>
+        <f t="shared" ref="J30" si="66">C30/I30</f>
         <v>6208.1239999999998</v>
       </c>
       <c r="K30" s="65">
@@ -7424,8 +7671,294 @@
         <v>181921.33438181542</v>
       </c>
       <c r="L30" s="63">
-        <f t="shared" ref="L30" si="65">C30/K30</f>
+        <f t="shared" ref="L30" si="67">C30/K30</f>
         <v>1.0237596411266023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="63">
+        <f t="shared" si="62"/>
+        <v>177910.72</v>
+      </c>
+      <c r="D31" s="63">
+        <v>140163.72</v>
+      </c>
+      <c r="E31" s="63">
+        <f>46080-8333</f>
+        <v>37747</v>
+      </c>
+      <c r="F31" s="63">
+        <v>140117.20000000001</v>
+      </c>
+      <c r="G31" s="63">
+        <v>46.52</v>
+      </c>
+      <c r="H31" s="63">
+        <f t="shared" si="63"/>
+        <v>7.8757030492597648</v>
+      </c>
+      <c r="I31" s="63">
+        <v>35</v>
+      </c>
+      <c r="J31" s="63">
+        <f t="shared" ref="J31" si="68">C31/I31</f>
+        <v>5083.163428571429</v>
+      </c>
+      <c r="K31" s="65">
+        <f>181921.3344-N31</f>
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L31" s="63">
+        <f t="shared" ref="L31" si="69">C31/K31</f>
+        <v>1.0237483858329266</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="N31" s="63">
+        <f>8333/1.024</f>
+        <v>8137.6953125</v>
+      </c>
+      <c r="O31" s="63">
+        <f>N31*L31</f>
+        <v>8330.9524405720476</v>
+      </c>
+      <c r="P31" s="63">
+        <v>99.888467134548421</v>
+      </c>
+      <c r="Q31" s="63">
+        <f>P31/O31</f>
+        <v>1.1990041696563754E-2</v>
+      </c>
+      <c r="R31" s="63">
+        <f>Q31*6</f>
+        <v>7.194025017938252E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="63">
+        <v>20170103</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="63">
+        <f t="shared" si="62"/>
+        <v>178783.01</v>
+      </c>
+      <c r="D32" s="63">
+        <v>146528.01</v>
+      </c>
+      <c r="E32" s="63">
+        <v>32255</v>
+      </c>
+      <c r="F32" s="63">
+        <v>146350.6</v>
+      </c>
+      <c r="G32" s="63">
+        <v>177.41</v>
+      </c>
+      <c r="H32" s="63">
+        <f t="shared" si="63"/>
+        <v>8.1859344464555104</v>
+      </c>
+      <c r="I32" s="63">
+        <v>35</v>
+      </c>
+      <c r="J32" s="63">
+        <f t="shared" ref="J32" si="70">C32/I32</f>
+        <v>5108.0860000000002</v>
+      </c>
+      <c r="K32" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L32" s="63">
+        <f t="shared" ref="L32" si="71">C32/K32</f>
+        <v>1.0287677881459418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63">
+        <v>20170109</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="63">
+        <f t="shared" si="62"/>
+        <v>179205.2</v>
+      </c>
+      <c r="D33" s="63">
+        <v>152441.20000000001</v>
+      </c>
+      <c r="E33" s="63">
+        <v>26764</v>
+      </c>
+      <c r="F33" s="63">
+        <v>152281.20000000001</v>
+      </c>
+      <c r="G33" s="63">
+        <f>D33-F33</f>
+        <v>160</v>
+      </c>
+      <c r="H33" s="63">
+        <f t="shared" si="63"/>
+        <v>8.4975882396269746</v>
+      </c>
+      <c r="I33" s="63">
+        <v>35</v>
+      </c>
+      <c r="J33" s="63">
+        <f t="shared" ref="J33" si="72">C33/I33</f>
+        <v>5120.1485714285718</v>
+      </c>
+      <c r="K33" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L33" s="63">
+        <f t="shared" ref="L33" si="73">C33/K33</f>
+        <v>1.0311971883024631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63">
+        <v>20170112</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="63">
+        <f t="shared" si="62"/>
+        <v>178764.4</v>
+      </c>
+      <c r="D34" s="63">
+        <v>156994.9</v>
+      </c>
+      <c r="E34" s="63">
+        <v>21769.5</v>
+      </c>
+      <c r="F34" s="63">
+        <v>156815</v>
+      </c>
+      <c r="G34" s="63">
+        <f>D34-F34</f>
+        <v>179.89999999999418</v>
+      </c>
+      <c r="H34" s="63">
+        <f t="shared" si="63"/>
+        <v>8.7721604525285795</v>
+      </c>
+      <c r="I34" s="63">
+        <v>35</v>
+      </c>
+      <c r="J34" s="63">
+        <f t="shared" ref="J34" si="74">C34/I34</f>
+        <v>5107.5542857142855</v>
+      </c>
+      <c r="K34" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L34" s="63">
+        <f t="shared" ref="L34" si="75">C34/K34</f>
+        <v>1.0286607009650213</v>
+      </c>
+      <c r="M34" s="63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63">
+        <v>20170113</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="63">
+        <f t="shared" si="62"/>
+        <v>178684.2</v>
+      </c>
+      <c r="D35" s="63">
+        <v>161913.70000000001</v>
+      </c>
+      <c r="E35" s="63">
+        <v>16770.5</v>
+      </c>
+      <c r="F35" s="63">
+        <v>161817.79999999999</v>
+      </c>
+      <c r="G35" s="63">
+        <f>D35-F35</f>
+        <v>95.900000000023283</v>
+      </c>
+      <c r="H35" s="63">
+        <f t="shared" si="63"/>
+        <v>9.0560777058072279</v>
+      </c>
+      <c r="I35" s="63">
+        <v>35</v>
+      </c>
+      <c r="J35" s="63">
+        <f t="shared" ref="J35" si="76">C35/I35</f>
+        <v>5105.2628571428577</v>
+      </c>
+      <c r="K35" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L35" s="63">
+        <f t="shared" ref="L35" si="77">C35/K35</f>
+        <v>1.0281992075792163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63">
+        <v>20170116</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="63">
+        <f t="shared" ref="C36" si="78">D36+E36</f>
+        <v>176071.34</v>
+      </c>
+      <c r="D36" s="63">
+        <v>164798.59</v>
+      </c>
+      <c r="E36" s="63">
+        <v>11272.75</v>
+      </c>
+      <c r="F36" s="63">
+        <v>164729.79999999999</v>
+      </c>
+      <c r="G36" s="63">
+        <f>D36-F36</f>
+        <v>68.790000000008149</v>
+      </c>
+      <c r="H36" s="63">
+        <f t="shared" ref="H36" si="79">F36/C36*10</f>
+        <v>9.3558554163329468</v>
+      </c>
+      <c r="I36" s="63">
+        <v>35</v>
+      </c>
+      <c r="J36" s="63">
+        <f t="shared" ref="J36" si="80">C36/I36</f>
+        <v>5030.6097142857143</v>
+      </c>
+      <c r="K36" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L36" s="63">
+        <f t="shared" ref="L36" si="81">C36/K36</f>
+        <v>1.0131640753094608</v>
+      </c>
+      <c r="M36" s="63" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -9317,10 +9850,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9349,6 +9882,11 @@
         <v>227</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>228</v>
@@ -9378,6 +9916,11 @@
       </c>
       <c r="C11" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="283">
   <si>
     <t>时间</t>
   </si>
@@ -1629,6 +1629,10 @@
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>0.5W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1697,7 +1701,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,6 +1717,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2067,7 +2083,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2256,6 +2272,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2269,6 +2288,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3077,7 +3099,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3106,7 +3128,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="69"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4192,14 +4214,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="66" t="s">
+      <c r="K48" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4252,12 +4274,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="66"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4310,12 +4332,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4744,7 +4766,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="67" t="s">
+      <c r="I69" s="68" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4770,7 +4792,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="67"/>
+      <c r="I70" s="68"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4855,12 +4877,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="66"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5479,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I42"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5493,14 +5515,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -6363,6 +6385,78 @@
         <v>0</v>
       </c>
       <c r="I42" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="63">
+        <v>20170117</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="63">
+        <f>11272.75+0.25-5500</f>
+        <v>5773</v>
+      </c>
+      <c r="G43" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="63">
+        <v>0</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="63">
+        <v>20170118</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="63">
+        <f>5773+0.25-5500</f>
+        <v>273.25</v>
+      </c>
+      <c r="G44" s="63">
+        <v>-0.25</v>
+      </c>
+      <c r="H44" s="63">
+        <v>0</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="63">
+        <v>20170119</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="63">
+        <f>273.25-0.25-6000</f>
+        <v>-5727</v>
+      </c>
+      <c r="G45" s="63">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="63">
+        <v>0</v>
+      </c>
+      <c r="I45" s="65" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6377,11 +6471,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7958,6 +8052,99 @@
         <v>1.0131640753094608</v>
       </c>
       <c r="M36" s="63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="63">
+        <v>20170117</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="63">
+        <f t="shared" ref="C37" si="82">D37+E37</f>
+        <v>178282.89</v>
+      </c>
+      <c r="D37" s="63">
+        <v>172509.89</v>
+      </c>
+      <c r="E37" s="63">
+        <f>11272.75+0.25-5500</f>
+        <v>5773</v>
+      </c>
+      <c r="F37" s="63">
+        <v>171776.2</v>
+      </c>
+      <c r="G37" s="66">
+        <f>D37-F37</f>
+        <v>733.69000000000233</v>
+      </c>
+      <c r="H37" s="63">
+        <f t="shared" ref="H37" si="83">F37/C37*10</f>
+        <v>9.6350356447553658</v>
+      </c>
+      <c r="I37" s="63">
+        <v>35</v>
+      </c>
+      <c r="J37" s="63">
+        <f t="shared" ref="J37" si="84">C37/I37</f>
+        <v>5093.7968571428573</v>
+      </c>
+      <c r="K37" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L37" s="63">
+        <f t="shared" ref="L37" si="85">C37/K37</f>
+        <v>1.0258899568228896</v>
+      </c>
+      <c r="M37" s="63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="63">
+        <v>20170119</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="63">
+        <f t="shared" ref="C38" si="86">D38+E38</f>
+        <v>177681.89</v>
+      </c>
+      <c r="D38" s="63">
+        <v>183408.89</v>
+      </c>
+      <c r="E38" s="63">
+        <v>-5727</v>
+      </c>
+      <c r="F38" s="63">
+        <v>182628.2</v>
+      </c>
+      <c r="G38" s="72">
+        <f>D38-F38</f>
+        <v>780.69000000000233</v>
+      </c>
+      <c r="H38" s="63">
+        <f t="shared" ref="H38" si="87">F38/C38*10</f>
+        <v>10.27838008701956</v>
+      </c>
+      <c r="I38" s="63">
+        <v>35</v>
+      </c>
+      <c r="J38" s="63">
+        <f t="shared" ref="J38" si="88">C38/I38</f>
+        <v>5076.6254285714285</v>
+      </c>
+      <c r="K38" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L38" s="63">
+        <f>C38/K38</f>
+        <v>1.0224316335701618</v>
+      </c>
+      <c r="M38" s="63" t="s">
         <v>281</v>
       </c>
     </row>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="290">
   <si>
     <t>时间</t>
   </si>
@@ -1631,6 +1631,55 @@
   </si>
   <si>
     <t>0.5W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>车供盈利</t>
+    <rPh sb="2" eb="3">
+      <t>ying'li</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国元证券</t>
+    <rPh sb="0" eb="1">
+      <t>guo'yuan'zheng'quan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+    <rPh sb="0" eb="1">
+      <t>zi'guang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长生生物</t>
+    <rPh sb="0" eb="1">
+      <t>chang'sheng'sheng'wu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算估值</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>还月供</t>
+    <rPh sb="0" eb="1">
+      <t>huan'yue'gong</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2275,6 +2324,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,9 +2340,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3099,7 +3148,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="70" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3128,7 +3177,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4214,14 +4263,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="67" t="s">
+      <c r="K48" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4274,12 +4323,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4332,12 +4381,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -4766,7 +4815,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="68" t="s">
+      <c r="I69" s="69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4792,7 +4841,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="68"/>
+      <c r="I70" s="69"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -4877,12 +4926,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="67"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -5501,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5515,14 +5564,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -6154,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="63">
         <v>20161130</v>
       </c>
@@ -6179,7 +6228,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="63">
         <v>20161215</v>
       </c>
@@ -6197,10 +6246,11 @@
         <v>2.5</v>
       </c>
       <c r="H34" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+        <f>G34*15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="63">
         <v>20161229</v>
       </c>
@@ -6218,10 +6268,11 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+        <f>G35*14</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63">
         <v>20161230</v>
       </c>
@@ -6238,13 +6289,17 @@
         <v>2</v>
       </c>
       <c r="H36" s="63">
-        <v>0</v>
+        <f>G36*1</f>
+        <v>2</v>
       </c>
       <c r="I36" s="65" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63">
         <v>20161230</v>
       </c>
@@ -6268,7 +6323,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="63">
         <v>20170103</v>
       </c>
@@ -6286,13 +6341,17 @@
         <v>1.5</v>
       </c>
       <c r="H38" s="63">
-        <v>0</v>
+        <f>G38*4</f>
+        <v>6</v>
       </c>
       <c r="I38" s="65" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J38" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="63">
         <v>20170109</v>
       </c>
@@ -6310,13 +6369,17 @@
         <v>1.5</v>
       </c>
       <c r="H39" s="63">
-        <v>0</v>
+        <f>G39*6</f>
+        <v>9</v>
       </c>
       <c r="I39" s="65" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J39" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="63">
         <v>20170112</v>
       </c>
@@ -6334,13 +6397,17 @@
         <v>1</v>
       </c>
       <c r="H40" s="63">
-        <v>0</v>
+        <f>G40*3</f>
+        <v>3</v>
       </c>
       <c r="I40" s="65" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J40" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="63">
         <v>20170113</v>
       </c>
@@ -6358,13 +6425,17 @@
         <v>0.75</v>
       </c>
       <c r="H41" s="63">
+        <f>G41*1</f>
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" s="65">
         <v>0</v>
       </c>
-      <c r="I41" s="65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="63">
         <v>20170116</v>
       </c>
@@ -6382,13 +6453,17 @@
         <v>0.5</v>
       </c>
       <c r="H42" s="63">
-        <v>0</v>
+        <f>G42*3</f>
+        <v>1.5</v>
       </c>
       <c r="I42" s="65" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J42" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="63">
         <v>20170117</v>
       </c>
@@ -6406,13 +6481,17 @@
         <v>0.25</v>
       </c>
       <c r="H43" s="63">
-        <v>0</v>
+        <f>G43*1</f>
+        <v>0.25</v>
       </c>
       <c r="I43" s="65" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J43" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="63">
         <v>20170118</v>
       </c>
@@ -6423,20 +6502,24 @@
       <c r="D44" s="64"/>
       <c r="E44" s="64"/>
       <c r="F44" s="63">
-        <f>5773+0.25-5500</f>
-        <v>273.25</v>
+        <f>5773+0.25-6000</f>
+        <v>-226.75</v>
       </c>
       <c r="G44" s="63">
         <v>-0.25</v>
       </c>
       <c r="H44" s="63">
+        <f>G44*1</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" s="65">
         <v>0</v>
       </c>
-      <c r="I44" s="65" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="63">
         <v>20170119</v>
       </c>
@@ -6447,17 +6530,160 @@
       <c r="D45" s="64"/>
       <c r="E45" s="64"/>
       <c r="F45" s="63">
-        <f>273.25-0.25-6000</f>
-        <v>-5727</v>
+        <f>-226.75-0.25-5000</f>
+        <v>-5227</v>
       </c>
       <c r="G45" s="63">
         <v>-1</v>
       </c>
       <c r="H45" s="63">
+        <f>G45*1</f>
+        <v>-1</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45" s="65">
         <v>0</v>
       </c>
-      <c r="I45" s="65" t="s">
-        <v>281</v>
+    </row>
+    <row r="46" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="63">
+        <v>20170120</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="63">
+        <f>-5227-5000-1</f>
+        <v>-10228</v>
+      </c>
+      <c r="G46" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H46" s="63">
+        <f>G46*1</f>
+        <v>-2</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="63">
+        <v>20170123</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="63">
+        <f>-10228-6</f>
+        <v>-10234</v>
+      </c>
+      <c r="G47" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H47" s="63">
+        <f>G47*3</f>
+        <v>-6</v>
+      </c>
+      <c r="I47" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="63">
+        <v>20170124</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="63">
+        <f>-10228-6-2</f>
+        <v>-10236</v>
+      </c>
+      <c r="G48" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H48" s="63">
+        <f>G48</f>
+        <v>-2</v>
+      </c>
+      <c r="I48" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="63">
+        <f>-10228-6-2+H49</f>
+        <v>-10256</v>
+      </c>
+      <c r="G49" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H49" s="63">
+        <f>G49*10</f>
+        <v>-20</v>
+      </c>
+      <c r="I49" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="63">
+        <f>-10256-8333</f>
+        <v>-18589</v>
+      </c>
+      <c r="G50" s="63">
+        <v>-3.5</v>
+      </c>
+      <c r="H50" s="63">
+        <v>0</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="J50" s="65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6471,21 +6697,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="10" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6528,8 +6755,11 @@
       <c r="N1" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>20160831</v>
       </c>
@@ -6560,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>20160905</v>
       </c>
@@ -6595,7 +6825,7 @@
         <v>1.00115</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>20160905</v>
       </c>
@@ -6630,7 +6860,7 @@
         <v>1.001147</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>20160906</v>
       </c>
@@ -6672,7 +6902,7 @@
         <v>0.99649300000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>20160908</v>
       </c>
@@ -6714,7 +6944,7 @@
         <v>0.99871300000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>20160909</v>
       </c>
@@ -6756,7 +6986,7 @@
         <v>0.99830300000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>20160921</v>
       </c>
@@ -6798,7 +7028,7 @@
         <v>0.9909389999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>20160926</v>
       </c>
@@ -6840,7 +7070,7 @@
         <v>0.99641829999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>20160927</v>
       </c>
@@ -6882,7 +7112,7 @@
         <v>0.99582029999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>20160928</v>
       </c>
@@ -6924,7 +7154,7 @@
         <v>0.9951603</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>20160928</v>
       </c>
@@ -6966,7 +7196,7 @@
         <v>0.99880649999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>20161012</v>
       </c>
@@ -7008,7 +7238,7 @@
         <v>1.0127036999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>20161013</v>
       </c>
@@ -7050,7 +7280,7 @@
         <v>1.0129457000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>20161014</v>
       </c>
@@ -7092,7 +7322,7 @@
         <v>1.01278</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>20161017</v>
       </c>
@@ -7877,7 +8107,7 @@
         <v>1.0287677881459418</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="63">
         <v>20170109</v>
       </c>
@@ -7898,7 +8128,7 @@
         <v>152281.20000000001</v>
       </c>
       <c r="G33" s="63">
-        <f>D33-F33</f>
+        <f t="shared" ref="G33:G38" si="72">D33-F33</f>
         <v>160</v>
       </c>
       <c r="H33" s="63">
@@ -7909,18 +8139,18 @@
         <v>35</v>
       </c>
       <c r="J33" s="63">
-        <f t="shared" ref="J33" si="72">C33/I33</f>
+        <f t="shared" ref="J33" si="73">C33/I33</f>
         <v>5120.1485714285718</v>
       </c>
       <c r="K33" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L33" s="63">
-        <f t="shared" ref="L33" si="73">C33/K33</f>
+        <f t="shared" ref="L33" si="74">C33/K33</f>
         <v>1.0311971883024631</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" s="63" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="63">
         <v>20170112</v>
       </c>
@@ -7941,7 +8171,7 @@
         <v>156815</v>
       </c>
       <c r="G34" s="63">
-        <f>D34-F34</f>
+        <f t="shared" si="72"/>
         <v>179.89999999999418</v>
       </c>
       <c r="H34" s="63">
@@ -7952,21 +8182,21 @@
         <v>35</v>
       </c>
       <c r="J34" s="63">
-        <f t="shared" ref="J34" si="74">C34/I34</f>
+        <f t="shared" ref="J34" si="75">C34/I34</f>
         <v>5107.5542857142855</v>
       </c>
       <c r="K34" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L34" s="63">
-        <f t="shared" ref="L34" si="75">C34/K34</f>
+        <f t="shared" ref="L34" si="76">C34/K34</f>
         <v>1.0286607009650213</v>
       </c>
       <c r="M34" s="63" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="63">
         <v>20170113</v>
       </c>
@@ -7987,7 +8217,7 @@
         <v>161817.79999999999</v>
       </c>
       <c r="G35" s="63">
-        <f>D35-F35</f>
+        <f t="shared" si="72"/>
         <v>95.900000000023283</v>
       </c>
       <c r="H35" s="63">
@@ -7998,18 +8228,18 @@
         <v>35</v>
       </c>
       <c r="J35" s="63">
-        <f t="shared" ref="J35" si="76">C35/I35</f>
+        <f t="shared" ref="J35" si="77">C35/I35</f>
         <v>5105.2628571428577</v>
       </c>
       <c r="K35" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L35" s="63">
-        <f t="shared" ref="L35" si="77">C35/K35</f>
+        <f t="shared" ref="L35" si="78">C35/K35</f>
         <v>1.0281992075792163</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63">
         <v>20170116</v>
       </c>
@@ -8017,7 +8247,7 @@
         <v>261</v>
       </c>
       <c r="C36" s="63">
-        <f t="shared" ref="C36" si="78">D36+E36</f>
+        <f t="shared" ref="C36" si="79">D36+E36</f>
         <v>176071.34</v>
       </c>
       <c r="D36" s="63">
@@ -8030,32 +8260,32 @@
         <v>164729.79999999999</v>
       </c>
       <c r="G36" s="63">
-        <f>D36-F36</f>
+        <f t="shared" si="72"/>
         <v>68.790000000008149</v>
       </c>
       <c r="H36" s="63">
-        <f t="shared" ref="H36" si="79">F36/C36*10</f>
+        <f t="shared" ref="H36" si="80">F36/C36*10</f>
         <v>9.3558554163329468</v>
       </c>
       <c r="I36" s="63">
         <v>35</v>
       </c>
       <c r="J36" s="63">
-        <f t="shared" ref="J36" si="80">C36/I36</f>
+        <f t="shared" ref="J36" si="81">C36/I36</f>
         <v>5030.6097142857143</v>
       </c>
       <c r="K36" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L36" s="63">
-        <f t="shared" ref="L36" si="81">C36/K36</f>
+        <f t="shared" ref="L36" si="82">C36/K36</f>
         <v>1.0131640753094608</v>
       </c>
       <c r="M36" s="63" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63">
         <v>20170117</v>
       </c>
@@ -8063,7 +8293,7 @@
         <v>261</v>
       </c>
       <c r="C37" s="63">
-        <f t="shared" ref="C37" si="82">D37+E37</f>
+        <f t="shared" ref="C37" si="83">D37+E37</f>
         <v>178282.89</v>
       </c>
       <c r="D37" s="63">
@@ -8077,32 +8307,32 @@
         <v>171776.2</v>
       </c>
       <c r="G37" s="66">
-        <f>D37-F37</f>
+        <f t="shared" si="72"/>
         <v>733.69000000000233</v>
       </c>
       <c r="H37" s="63">
-        <f t="shared" ref="H37" si="83">F37/C37*10</f>
+        <f t="shared" ref="H37" si="84">F37/C37*10</f>
         <v>9.6350356447553658</v>
       </c>
       <c r="I37" s="63">
         <v>35</v>
       </c>
       <c r="J37" s="63">
-        <f t="shared" ref="J37" si="84">C37/I37</f>
+        <f t="shared" ref="J37" si="85">C37/I37</f>
         <v>5093.7968571428573</v>
       </c>
       <c r="K37" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L37" s="63">
-        <f t="shared" ref="L37" si="85">C37/K37</f>
+        <f t="shared" ref="L37" si="86">C37/K37</f>
         <v>1.0258899568228896</v>
       </c>
       <c r="M37" s="63" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="63">
         <v>20170119</v>
       </c>
@@ -8110,7 +8340,7 @@
         <v>261</v>
       </c>
       <c r="C38" s="63">
-        <f t="shared" ref="C38" si="86">D38+E38</f>
+        <f t="shared" ref="C38" si="87">D38+E38</f>
         <v>177681.89</v>
       </c>
       <c r="D38" s="63">
@@ -8122,19 +8352,19 @@
       <c r="F38" s="63">
         <v>182628.2</v>
       </c>
-      <c r="G38" s="72">
-        <f>D38-F38</f>
+      <c r="G38" s="67">
+        <f t="shared" si="72"/>
         <v>780.69000000000233</v>
       </c>
       <c r="H38" s="63">
-        <f t="shared" ref="H38" si="87">F38/C38*10</f>
+        <f t="shared" ref="H38" si="88">F38/C38*10</f>
         <v>10.27838008701956</v>
       </c>
       <c r="I38" s="63">
         <v>35</v>
       </c>
       <c r="J38" s="63">
-        <f t="shared" ref="J38" si="88">C38/I38</f>
+        <f t="shared" ref="J38" si="89">C38/I38</f>
         <v>5076.6254285714285</v>
       </c>
       <c r="K38" s="65">
@@ -8146,6 +8376,202 @@
       </c>
       <c r="M38" s="63" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="63">
+        <v>20170123</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="63">
+        <f t="shared" ref="C39" si="90">D39+E39</f>
+        <v>179417.2</v>
+      </c>
+      <c r="D39" s="63">
+        <v>189651.20000000001</v>
+      </c>
+      <c r="E39" s="63">
+        <v>-10234</v>
+      </c>
+      <c r="F39" s="63">
+        <v>188529.6</v>
+      </c>
+      <c r="G39" s="67">
+        <f t="shared" ref="G39:G40" si="91">D39-F39</f>
+        <v>1121.6000000000058</v>
+      </c>
+      <c r="H39" s="63">
+        <f t="shared" ref="H39" si="92">F39/C39*10</f>
+        <v>10.50788887575996</v>
+      </c>
+      <c r="I39" s="63">
+        <v>35</v>
+      </c>
+      <c r="J39" s="63">
+        <f t="shared" ref="J39" si="93">C39/I39</f>
+        <v>5126.2057142857147</v>
+      </c>
+      <c r="K39" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L39" s="63">
+        <f>C39/K39</f>
+        <v>1.0324170960055885</v>
+      </c>
+      <c r="Q39" s="63">
+        <f>(N21-N27-N31)*(L39-1)</f>
+        <v>2391.8513113516892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="63">
+        <v>20170124</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="63">
+        <f t="shared" ref="C40" si="94">D40+E40</f>
+        <v>178911.4</v>
+      </c>
+      <c r="D40" s="63">
+        <v>189147.4</v>
+      </c>
+      <c r="E40" s="63">
+        <v>-10236</v>
+      </c>
+      <c r="F40" s="63">
+        <v>188025.8</v>
+      </c>
+      <c r="G40" s="67">
+        <f t="shared" si="91"/>
+        <v>1121.6000000000058</v>
+      </c>
+      <c r="H40" s="63">
+        <f t="shared" ref="H40" si="95">F40/C40*10</f>
+        <v>10.509436514386451</v>
+      </c>
+      <c r="I40" s="63">
+        <v>35</v>
+      </c>
+      <c r="J40" s="63">
+        <f t="shared" ref="J40" si="96">C40/I40</f>
+        <v>5111.7542857142853</v>
+      </c>
+      <c r="K40" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L40" s="63">
+        <f>C40/K40</f>
+        <v>1.0295065803629431</v>
+      </c>
+      <c r="P40" s="63">
+        <f>(N22-N28-N32)*(L40-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="63">
+        <f t="shared" ref="C41" si="97">D41+E41</f>
+        <v>178989.52</v>
+      </c>
+      <c r="D41" s="63">
+        <v>189245.52</v>
+      </c>
+      <c r="E41" s="63">
+        <v>-10256</v>
+      </c>
+      <c r="F41" s="63">
+        <v>187810.4</v>
+      </c>
+      <c r="G41" s="67">
+        <f t="shared" ref="G41" si="98">D41-F41</f>
+        <v>1435.1199999999953</v>
+      </c>
+      <c r="H41" s="63">
+        <f t="shared" ref="H41" si="99">F41/C41*10</f>
+        <v>10.492815445284172</v>
+      </c>
+      <c r="I41" s="63">
+        <v>35</v>
+      </c>
+      <c r="J41" s="63">
+        <f t="shared" ref="J41" si="100">C41/I41</f>
+        <v>5113.9862857142853</v>
+      </c>
+      <c r="K41" s="65">
+        <v>173783.63908749999</v>
+      </c>
+      <c r="L41" s="63">
+        <f>C41/K41</f>
+        <v>1.0299561048429815</v>
+      </c>
+      <c r="M41" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="N41" s="63">
+        <f>8333/L41</f>
+        <v>8090.636058000141</v>
+      </c>
+      <c r="P41" s="63">
+        <f>N41*(L41-1)</f>
+        <v>242.36394199985878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="63">
+        <f t="shared" ref="C42" si="101">D42+E42</f>
+        <v>170656.52</v>
+      </c>
+      <c r="D42" s="63">
+        <v>189245.52</v>
+      </c>
+      <c r="E42" s="63">
+        <v>-18589</v>
+      </c>
+      <c r="F42" s="63">
+        <v>187810.4</v>
+      </c>
+      <c r="G42" s="67">
+        <f t="shared" ref="G42" si="102">D42-F42</f>
+        <v>1435.1199999999953</v>
+      </c>
+      <c r="H42" s="63">
+        <f t="shared" ref="H42" si="103">F42/C42*10</f>
+        <v>11.005169916742707</v>
+      </c>
+      <c r="I42" s="63">
+        <v>30</v>
+      </c>
+      <c r="J42" s="63">
+        <f t="shared" ref="J42" si="104">C42/I42</f>
+        <v>5688.5506666666661</v>
+      </c>
+      <c r="K42" s="65">
+        <f>K41-8090.63505</f>
+        <v>165693.00403749998</v>
+      </c>
+      <c r="L42" s="63">
+        <f>C42/K42</f>
+        <v>1.0299560985772016</v>
+      </c>
+      <c r="P42" s="63">
+        <f>N42*(L42-1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8156,10 +8582,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8631,12 +9057,6 @@
       <c r="H16">
         <f>H14</f>
         <v>1922.7811072585173</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H17">
-        <f t="shared" ref="H17" si="6">F17-G17</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="293">
   <si>
     <t>时间</t>
   </si>
@@ -1679,6 +1679,45 @@
     <t>还月供</t>
     <rPh sb="0" eb="1">
       <t>huan'yue'gong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利转入三分之一，50元</t>
+    <rPh sb="0" eb="1">
+      <t>ying'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>san'fen'zhi'yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买房</t>
+    <rPh sb="0" eb="1">
+      <t>mai'fang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买房&amp;卖出宝信软件</t>
+    <rPh sb="0" eb="1">
+      <t>mai'fang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao'xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ruan'jian</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5550,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J50"/>
+  <dimension ref="A2:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6677,12 +6716,67 @@
         <v>-3.5</v>
       </c>
       <c r="H50" s="63">
-        <v>0</v>
+        <f>G50*12</f>
+        <v>-42</v>
       </c>
       <c r="I50" s="65" t="s">
         <v>289</v>
       </c>
       <c r="J50" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="63">
+        <v>20170215</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="63">
+        <f>-18589-42+50</f>
+        <v>-18581</v>
+      </c>
+      <c r="G51" s="63">
+        <v>-3.5</v>
+      </c>
+      <c r="H51" s="63">
+        <v>0</v>
+      </c>
+      <c r="I51" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="63">
+        <v>20170220</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="63">
+        <f>-18581+103000-3.5*3</f>
+        <v>84408.5</v>
+      </c>
+      <c r="G52" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="H52" s="63">
+        <v>0</v>
+      </c>
+      <c r="I52" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" s="65">
         <v>0</v>
       </c>
     </row>
@@ -6697,11 +6791,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6709,6 +6803,7 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="10" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8528,38 +8623,38 @@
     </row>
     <row r="42" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="63">
-        <v>20170203</v>
+        <v>20170215</v>
       </c>
       <c r="B42" s="63" t="s">
         <v>261</v>
       </c>
       <c r="C42" s="63">
         <f t="shared" ref="C42" si="101">D42+E42</f>
-        <v>170656.52</v>
+        <v>173902.72</v>
       </c>
       <c r="D42" s="63">
-        <v>189245.52</v>
+        <v>192491.72</v>
       </c>
       <c r="E42" s="63">
         <v>-18589</v>
       </c>
       <c r="F42" s="63">
-        <v>187810.4</v>
+        <v>190051.6</v>
       </c>
       <c r="G42" s="67">
         <f t="shared" ref="G42" si="102">D42-F42</f>
-        <v>1435.1199999999953</v>
+        <v>2440.1199999999953</v>
       </c>
       <c r="H42" s="63">
         <f t="shared" ref="H42" si="103">F42/C42*10</f>
-        <v>11.005169916742707</v>
+        <v>10.928615722629296</v>
       </c>
       <c r="I42" s="63">
         <v>30</v>
       </c>
       <c r="J42" s="63">
         <f t="shared" ref="J42" si="104">C42/I42</f>
-        <v>5688.5506666666661</v>
+        <v>5796.757333333333</v>
       </c>
       <c r="K42" s="65">
         <f>K41-8090.63505</f>
@@ -8567,10 +8662,61 @@
       </c>
       <c r="L42" s="63">
         <f>C42/K42</f>
-        <v>1.0299560985772016</v>
+        <v>1.049547752545074</v>
       </c>
       <c r="P42" s="63">
         <f>N42*(L42-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="63">
+        <v>20170220</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="63">
+        <f t="shared" ref="C43" si="105">D43+E43</f>
+        <v>174246.81</v>
+      </c>
+      <c r="D43" s="63">
+        <v>89838.31</v>
+      </c>
+      <c r="E43" s="63">
+        <v>84408.5</v>
+      </c>
+      <c r="F43" s="63">
+        <v>83589.8</v>
+      </c>
+      <c r="G43" s="67">
+        <f t="shared" ref="G43" si="106">D43-F43</f>
+        <v>6248.5099999999948</v>
+      </c>
+      <c r="H43" s="63">
+        <f t="shared" ref="H43" si="107">F43/C43*10</f>
+        <v>4.7972069043903875</v>
+      </c>
+      <c r="I43" s="63">
+        <v>30</v>
+      </c>
+      <c r="J43" s="63">
+        <f t="shared" ref="J43" si="108">C43/I43</f>
+        <v>5808.2269999999999</v>
+      </c>
+      <c r="K43" s="65">
+        <f>K42-8090.63505</f>
+        <v>157602.36898749997</v>
+      </c>
+      <c r="L43" s="63">
+        <f>C43/K43</f>
+        <v>1.1056103478610793</v>
+      </c>
+      <c r="M43" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="P43" s="63">
+        <f>N43*(L43-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8584,7 +8730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,25 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="HK" sheetId="2" r:id="rId2"/>
-    <sheet name="总" sheetId="3" r:id="rId3"/>
-    <sheet name="指数化" sheetId="16" r:id="rId4"/>
-    <sheet name="A股经验" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="操作系统" sheetId="13" r:id="rId6"/>
-    <sheet name="日志" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="规则" sheetId="6" r:id="rId8"/>
-    <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId9"/>
-    <sheet name="拆借" sheetId="8" r:id="rId10"/>
-    <sheet name="仓" sheetId="14" r:id="rId11"/>
-    <sheet name="权益" sheetId="17" r:id="rId12"/>
-    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId13"/>
-    <sheet name="纪律" sheetId="9" r:id="rId14"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId15"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId16"/>
+    <sheet name="HK" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="总" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="A股经验" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="操作系统" sheetId="13" r:id="rId5"/>
+    <sheet name="日志" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="规则" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="拆借" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="仓" sheetId="14" state="hidden" r:id="rId10"/>
+    <sheet name="止损" sheetId="18" r:id="rId11"/>
+    <sheet name="股票交易" sheetId="19" r:id="rId12"/>
+    <sheet name="逆回购交易" sheetId="23" r:id="rId13"/>
+    <sheet name="提取账户" sheetId="20" r:id="rId14"/>
+    <sheet name="交易账户" sheetId="22" r:id="rId15"/>
+    <sheet name="权益" sheetId="17" state="hidden" r:id="rId16"/>
+    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId17"/>
+    <sheet name="纪律" sheetId="9" r:id="rId18"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId19"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="318">
   <si>
     <t>时间</t>
   </si>
@@ -1721,6 +1725,196 @@
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>拆出还车贷</t>
+    <rPh sb="0" eb="1">
+      <t>chai'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>che'dai</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>H点</t>
+    <rPh sb="1" eb="2">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC高点</t>
+    <rPh sb="2" eb="3">
+      <t>gao'dian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>H止损点</t>
+    <rPh sb="1" eb="2">
+      <t>zhi'sun'dian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC止损点</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'shun'dian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入时间</t>
+    <rPh sb="0" eb="1">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股数</t>
+    <rPh sb="0" eb="1">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <rPh sb="0" eb="1">
+      <t>mai'ru'jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国元证券</t>
+    <rPh sb="0" eb="1">
+      <t>guo'yuan'zheng'q</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光国芯</t>
+    <rPh sb="0" eb="1">
+      <t>zi'guang'guo'x</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部证券</t>
+    <rPh sb="0" eb="1">
+      <t>xi'bu'zheng'q</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_PRICE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点盲目。虽然现在跌到18多，但确实不知对错</t>
+    <rPh sb="0" eb="1">
+      <t>you'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mang'mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sui'r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian'zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>die'dao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>que'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu'zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dui'cuo</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>ying'kui</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆回购市值</t>
+    <rPh sb="0" eb="1">
+      <t>ni'hui'gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1789,7 +1983,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,8 +2014,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1909,6 +2109,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2171,7 +2386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2379,6 +2594,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5589,1213 +5813,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J52"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
-        <v>20151207</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19">
-        <v>20000</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
-        <v>20151218</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19">
-        <v>30011</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
-        <v>20151231</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19">
-        <v>29930</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
-        <v>20160106</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19">
-        <v>24939</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>20160113</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19">
-        <v>19948</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
-        <v>20160119</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19">
-        <v>14954</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
-        <v>20160122</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19">
-        <v>4956</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
-        <v>20160126</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19">
-        <v>3957</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
-        <v>20160127</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19">
-        <v>-502.8</v>
-      </c>
-      <c r="G12" s="19">
-        <v>-0.05</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
-        <v>20160202</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19">
-        <v>9496.7999999999993</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>20160711</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="19">
-        <v>20000</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>20160823</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19">
-        <v>36042</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="H15" s="19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>20160908</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19">
-        <v>49311.5</v>
-      </c>
-      <c r="G16" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H16" s="19">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
-        <v>20160909</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19">
-        <v>49354</v>
-      </c>
-      <c r="G17" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="H17" s="19">
-        <f>F17-F16</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
-        <v>20160920</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19">
-        <v>47379</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
-        <v>20160926</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19">
-        <v>42391</v>
-      </c>
-      <c r="G19" s="19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
-        <v>20160927</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19">
-        <v>38393</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
-        <v>20160928</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19">
-        <v>34395</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="19">
-        <v>20160930</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19">
-        <v>29399</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H22" s="19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="19">
-        <v>20161012</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19">
-        <v>26417</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
-        <v>20161013</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19">
-        <v>23418</v>
-      </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
-        <v>20161031</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19">
-        <f>F24+H24+39000</f>
-        <v>62432</v>
-      </c>
-      <c r="G25" s="19">
-        <v>3</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="19">
-        <v>20161031</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="20">
-        <v>91000</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19">
-        <v>153432</v>
-      </c>
-      <c r="G26" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H26" s="19">
-        <v>45</v>
-      </c>
-      <c r="I26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="19">
-        <v>20161105</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="20">
-        <v>91000</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19">
-        <v>153477</v>
-      </c>
-      <c r="G27" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H27" s="19">
-        <v>90</v>
-      </c>
-      <c r="I27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="19">
-        <v>20161117</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
-        <v>153567</v>
-      </c>
-      <c r="G28" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H28" s="19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
-        <v>20161117</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19">
-        <v>153597</v>
-      </c>
-      <c r="G29" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H29" s="19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
-        <v>20161129</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19">
-        <v>153687</v>
-      </c>
-      <c r="G30" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="57">
-        <v>20161129</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="57">
-        <f>153687-93300</f>
-        <v>60387</v>
-      </c>
-      <c r="G31" s="57">
-        <v>3</v>
-      </c>
-      <c r="H31" s="57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63">
-        <v>20161130</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="63">
-        <v>60340</v>
-      </c>
-      <c r="G32" s="63">
-        <v>3</v>
-      </c>
-      <c r="H32" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63">
-        <v>20161130</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="63">
-        <f>F32-8333</f>
-        <v>52007</v>
-      </c>
-      <c r="G33" s="63">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H33" s="63">
-        <v>32.5</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63">
-        <v>20161215</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="63">
-        <v>52042.5</v>
-      </c>
-      <c r="G34" s="63">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H34" s="63">
-        <f>G34*15</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63">
-        <v>20161229</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="63">
-        <v>52077.5</v>
-      </c>
-      <c r="G35" s="63">
-        <f>0.5*5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H35" s="63">
-        <f>G35*14</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63">
-        <v>20161230</v>
-      </c>
-      <c r="B36" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="63">
-        <v>46080</v>
-      </c>
-      <c r="G36" s="63">
-        <v>2</v>
-      </c>
-      <c r="H36" s="63">
-        <f>G36*1</f>
-        <v>2</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="J36" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63">
-        <v>20161230</v>
-      </c>
-      <c r="B37" s="63">
-        <v>4.5</v>
-      </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="63">
-        <f>46080-8333</f>
-        <v>37747</v>
-      </c>
-      <c r="G37" s="63">
-        <v>2</v>
-      </c>
-      <c r="H37" s="63">
-        <v>0</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63">
-        <v>20170103</v>
-      </c>
-      <c r="B38" s="63">
-        <v>3.95</v>
-      </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="63">
-        <f>46080-8333-5500+8</f>
-        <v>32255</v>
-      </c>
-      <c r="G38" s="63">
-        <v>1.5</v>
-      </c>
-      <c r="H38" s="63">
-        <f>G38*4</f>
-        <v>6</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="J38" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63">
-        <v>20170109</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="63">
-        <f>32255-5500+9</f>
-        <v>26764</v>
-      </c>
-      <c r="G39" s="63">
-        <v>1.5</v>
-      </c>
-      <c r="H39" s="63">
-        <f>G39*6</f>
-        <v>9</v>
-      </c>
-      <c r="I39" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="J39" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63">
-        <v>20170112</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="63">
-        <f>26764-4999+4.5</f>
-        <v>21769.5</v>
-      </c>
-      <c r="G40" s="63">
-        <v>1</v>
-      </c>
-      <c r="H40" s="63">
-        <f>G40*3</f>
-        <v>3</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="J40" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63">
-        <v>20170113</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="63">
-        <f>21769.5-5000+1</f>
-        <v>16770.5</v>
-      </c>
-      <c r="G41" s="63">
-        <v>0.75</v>
-      </c>
-      <c r="H41" s="63">
-        <f>G41*1</f>
-        <v>0.75</v>
-      </c>
-      <c r="I41" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="J41" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63">
-        <v>20170116</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="63">
-        <f>16770.5+0.75*3-5500</f>
-        <v>11272.75</v>
-      </c>
-      <c r="G42" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="63">
-        <f>G42*3</f>
-        <v>1.5</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="J42" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63">
-        <v>20170117</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="63">
-        <f>11272.75+0.25-5500</f>
-        <v>5773</v>
-      </c>
-      <c r="G43" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="H43" s="63">
-        <f>G43*1</f>
-        <v>0.25</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="J43" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63">
-        <v>20170118</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="63">
-        <f>5773+0.25-6000</f>
-        <v>-226.75</v>
-      </c>
-      <c r="G44" s="63">
-        <v>-0.25</v>
-      </c>
-      <c r="H44" s="63">
-        <f>G44*1</f>
-        <v>-0.25</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="J44" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63">
-        <v>20170119</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="63">
-        <f>-226.75-0.25-5000</f>
-        <v>-5227</v>
-      </c>
-      <c r="G45" s="63">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="63">
-        <f>G45*1</f>
-        <v>-1</v>
-      </c>
-      <c r="I45" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="J45" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63">
-        <v>20170120</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="63">
-        <f>-5227-5000-1</f>
-        <v>-10228</v>
-      </c>
-      <c r="G46" s="63">
-        <v>-2</v>
-      </c>
-      <c r="H46" s="63">
-        <f>G46*1</f>
-        <v>-2</v>
-      </c>
-      <c r="I46" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="J46" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63">
-        <v>20170123</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="63">
-        <f>-10228-6</f>
-        <v>-10234</v>
-      </c>
-      <c r="G47" s="63">
-        <v>-2</v>
-      </c>
-      <c r="H47" s="63">
-        <f>G47*3</f>
-        <v>-6</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="J47" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63">
-        <v>20170124</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="63">
-        <f>-10228-6-2</f>
-        <v>-10236</v>
-      </c>
-      <c r="G48" s="63">
-        <v>-2</v>
-      </c>
-      <c r="H48" s="63">
-        <f>G48</f>
-        <v>-2</v>
-      </c>
-      <c r="I48" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="J48" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63">
-        <v>20170203</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="63">
-        <f>-10228-6-2+H49</f>
-        <v>-10256</v>
-      </c>
-      <c r="G49" s="63">
-        <v>-2</v>
-      </c>
-      <c r="H49" s="63">
-        <f>G49*10</f>
-        <v>-20</v>
-      </c>
-      <c r="I49" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="J49" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63">
-        <v>20170203</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="63">
-        <f>-10256-8333</f>
-        <v>-18589</v>
-      </c>
-      <c r="G50" s="63">
-        <v>-3.5</v>
-      </c>
-      <c r="H50" s="63">
-        <f>G50*12</f>
-        <v>-42</v>
-      </c>
-      <c r="I50" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="J50" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63">
-        <v>20170215</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="63">
-        <f>-18589-42+50</f>
-        <v>-18581</v>
-      </c>
-      <c r="G51" s="63">
-        <v>-3.5</v>
-      </c>
-      <c r="H51" s="63">
-        <v>0</v>
-      </c>
-      <c r="I51" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="J51" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="63">
-        <v>20170220</v>
-      </c>
-      <c r="B52" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="63">
-        <f>-18581+103000-3.5*3</f>
-        <v>84408.5</v>
-      </c>
-      <c r="G52" s="63">
-        <v>8.5</v>
-      </c>
-      <c r="H52" s="63">
-        <v>0</v>
-      </c>
-      <c r="I52" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="J52" s="65">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8466,7 +7488,7 @@
         <v>173783.63908749999</v>
       </c>
       <c r="L38" s="63">
-        <f>C38/K38</f>
+        <f t="shared" ref="L38:L44" si="90">C38/K38</f>
         <v>1.0224316335701618</v>
       </c>
       <c r="M38" s="63" t="s">
@@ -8481,7 +7503,7 @@
         <v>261</v>
       </c>
       <c r="C39" s="63">
-        <f t="shared" ref="C39" si="90">D39+E39</f>
+        <f t="shared" ref="C39" si="91">D39+E39</f>
         <v>179417.2</v>
       </c>
       <c r="D39" s="63">
@@ -8494,25 +7516,25 @@
         <v>188529.6</v>
       </c>
       <c r="G39" s="67">
-        <f t="shared" ref="G39:G40" si="91">D39-F39</f>
+        <f t="shared" ref="G39:G40" si="92">D39-F39</f>
         <v>1121.6000000000058</v>
       </c>
       <c r="H39" s="63">
-        <f t="shared" ref="H39" si="92">F39/C39*10</f>
+        <f t="shared" ref="H39" si="93">F39/C39*10</f>
         <v>10.50788887575996</v>
       </c>
       <c r="I39" s="63">
         <v>35</v>
       </c>
       <c r="J39" s="63">
-        <f t="shared" ref="J39" si="93">C39/I39</f>
+        <f t="shared" ref="J39" si="94">C39/I39</f>
         <v>5126.2057142857147</v>
       </c>
       <c r="K39" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L39" s="63">
-        <f>C39/K39</f>
+        <f t="shared" si="90"/>
         <v>1.0324170960055885</v>
       </c>
       <c r="Q39" s="63">
@@ -8528,7 +7550,7 @@
         <v>261</v>
       </c>
       <c r="C40" s="63">
-        <f t="shared" ref="C40" si="94">D40+E40</f>
+        <f t="shared" ref="C40" si="95">D40+E40</f>
         <v>178911.4</v>
       </c>
       <c r="D40" s="63">
@@ -8541,25 +7563,25 @@
         <v>188025.8</v>
       </c>
       <c r="G40" s="67">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1121.6000000000058</v>
       </c>
       <c r="H40" s="63">
-        <f t="shared" ref="H40" si="95">F40/C40*10</f>
+        <f t="shared" ref="H40" si="96">F40/C40*10</f>
         <v>10.509436514386451</v>
       </c>
       <c r="I40" s="63">
         <v>35</v>
       </c>
       <c r="J40" s="63">
-        <f t="shared" ref="J40" si="96">C40/I40</f>
+        <f t="shared" ref="J40" si="97">C40/I40</f>
         <v>5111.7542857142853</v>
       </c>
       <c r="K40" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L40" s="63">
-        <f>C40/K40</f>
+        <f t="shared" si="90"/>
         <v>1.0295065803629431</v>
       </c>
       <c r="P40" s="63">
@@ -8575,7 +7597,7 @@
         <v>261</v>
       </c>
       <c r="C41" s="63">
-        <f t="shared" ref="C41" si="97">D41+E41</f>
+        <f t="shared" ref="C41" si="98">D41+E41</f>
         <v>178989.52</v>
       </c>
       <c r="D41" s="63">
@@ -8588,25 +7610,25 @@
         <v>187810.4</v>
       </c>
       <c r="G41" s="67">
-        <f t="shared" ref="G41" si="98">D41-F41</f>
+        <f t="shared" ref="G41" si="99">D41-F41</f>
         <v>1435.1199999999953</v>
       </c>
       <c r="H41" s="63">
-        <f t="shared" ref="H41" si="99">F41/C41*10</f>
+        <f t="shared" ref="H41" si="100">F41/C41*10</f>
         <v>10.492815445284172</v>
       </c>
       <c r="I41" s="63">
         <v>35</v>
       </c>
       <c r="J41" s="63">
-        <f t="shared" ref="J41" si="100">C41/I41</f>
+        <f t="shared" ref="J41" si="101">C41/I41</f>
         <v>5113.9862857142853</v>
       </c>
       <c r="K41" s="65">
         <v>173783.63908749999</v>
       </c>
       <c r="L41" s="63">
-        <f>C41/K41</f>
+        <f t="shared" si="90"/>
         <v>1.0299561048429815</v>
       </c>
       <c r="M41" s="63" t="s">
@@ -8617,107 +7639,648 @@
         <v>8090.636058000141</v>
       </c>
       <c r="P41" s="63">
-        <f>N41*(L41-1)</f>
+        <f t="shared" ref="P41:P46" si="102">N41*(L41-1)</f>
         <v>242.36394199985878</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="63">
-        <v>20170215</v>
+        <v>20170203</v>
       </c>
       <c r="B42" s="63" t="s">
         <v>261</v>
       </c>
       <c r="C42" s="63">
-        <f t="shared" ref="C42" si="101">D42+E42</f>
+        <f t="shared" ref="C42" si="103">D42+E42</f>
+        <v>178989.52</v>
+      </c>
+      <c r="D42" s="63">
+        <v>189245.52</v>
+      </c>
+      <c r="E42" s="63">
+        <v>-10256</v>
+      </c>
+      <c r="F42" s="63">
+        <v>187810.4</v>
+      </c>
+      <c r="G42" s="67">
+        <f t="shared" ref="G42" si="104">D42-F42</f>
+        <v>1435.1199999999953</v>
+      </c>
+      <c r="H42" s="63">
+        <f t="shared" ref="H42" si="105">F42/C42*10</f>
+        <v>10.492815445284172</v>
+      </c>
+      <c r="I42" s="63">
+        <v>35</v>
+      </c>
+      <c r="J42" s="63">
+        <f t="shared" ref="J42" si="106">C42/I42</f>
+        <v>5113.9862857142853</v>
+      </c>
+      <c r="K42" s="65">
+        <f>K41-N41</f>
+        <v>165693.00302949984</v>
+      </c>
+      <c r="L42" s="63">
+        <f t="shared" ref="L42" si="107">C42/K42</f>
+        <v>1.0802479086466485</v>
+      </c>
+      <c r="M42" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" s="63">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="63">
+        <v>20170215</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="63">
+        <f t="shared" ref="C43" si="108">D43+E43</f>
         <v>173902.72</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D43" s="63">
         <v>192491.72</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E43" s="63">
         <v>-18589</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F43" s="63">
         <v>190051.6</v>
       </c>
-      <c r="G42" s="67">
-        <f t="shared" ref="G42" si="102">D42-F42</f>
+      <c r="G43" s="67">
+        <f t="shared" ref="G43" si="109">D43-F43</f>
         <v>2440.1199999999953</v>
       </c>
-      <c r="H42" s="63">
-        <f t="shared" ref="H42" si="103">F42/C42*10</f>
+      <c r="H43" s="63">
+        <f t="shared" ref="H43" si="110">F43/C43*10</f>
         <v>10.928615722629296</v>
       </c>
-      <c r="I42" s="63">
+      <c r="I43" s="63">
         <v>30</v>
       </c>
-      <c r="J42" s="63">
-        <f t="shared" ref="J42" si="104">C42/I42</f>
+      <c r="J43" s="63">
+        <f t="shared" ref="J43" si="111">C43/I43</f>
         <v>5796.757333333333</v>
       </c>
-      <c r="K42" s="65">
+      <c r="K43" s="65">
         <f>K41-8090.63505</f>
         <v>165693.00403749998</v>
       </c>
-      <c r="L42" s="63">
-        <f>C42/K42</f>
+      <c r="L43" s="63">
+        <f t="shared" si="90"/>
         <v>1.049547752545074</v>
       </c>
-      <c r="P42" s="63">
-        <f>N42*(L42-1)</f>
+      <c r="P43" s="63">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63">
+    <row r="44" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="63">
         <v>20170220</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B44" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="63">
-        <f t="shared" ref="C43" si="105">D43+E43</f>
+      <c r="C44" s="63">
+        <f t="shared" ref="C44" si="112">D44+E44</f>
         <v>174246.81</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D44" s="63">
         <v>89838.31</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E44" s="63">
         <v>84408.5</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F44" s="63">
         <v>83589.8</v>
       </c>
-      <c r="G43" s="67">
-        <f t="shared" ref="G43" si="106">D43-F43</f>
+      <c r="G44" s="67">
+        <f t="shared" ref="G44" si="113">D44-F44</f>
         <v>6248.5099999999948</v>
       </c>
-      <c r="H43" s="63">
-        <f t="shared" ref="H43" si="107">F43/C43*10</f>
+      <c r="H44" s="63">
+        <f t="shared" ref="H44" si="114">F44/C44*10</f>
         <v>4.7972069043903875</v>
       </c>
-      <c r="I43" s="63">
+      <c r="I44" s="63">
         <v>30</v>
       </c>
-      <c r="J43" s="63">
-        <f t="shared" ref="J43" si="108">C43/I43</f>
+      <c r="J44" s="63">
+        <f t="shared" ref="J44" si="115">C44/I44</f>
         <v>5808.2269999999999</v>
       </c>
-      <c r="K43" s="65">
-        <f>K42-8090.63505</f>
-        <v>157602.36898749997</v>
-      </c>
-      <c r="L43" s="63">
-        <f>C43/K43</f>
-        <v>1.1056103478610793</v>
-      </c>
-      <c r="M43" s="63" t="s">
+      <c r="K44" s="65">
+        <v>165693.00403749998</v>
+      </c>
+      <c r="L44" s="63">
+        <f t="shared" si="90"/>
+        <v>1.0516244244118123</v>
+      </c>
+      <c r="M44" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="P43" s="63">
-        <f>N43*(L43-1)</f>
+      <c r="P44" s="63">
+        <f t="shared" si="102"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="63">
+        <v>20170222</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="63">
+        <f t="shared" ref="C45" si="116">D45+E45</f>
+        <v>174809.61</v>
+      </c>
+      <c r="D45" s="63">
+        <v>90384.11</v>
+      </c>
+      <c r="E45" s="63">
+        <v>84425.5</v>
+      </c>
+      <c r="F45" s="63">
+        <v>84135.6</v>
+      </c>
+      <c r="G45" s="67">
+        <f t="shared" ref="G45" si="117">D45-F45</f>
+        <v>6248.5099999999948</v>
+      </c>
+      <c r="H45" s="63">
+        <f t="shared" ref="H45" si="118">F45/C45*10</f>
+        <v>4.8129848238892592</v>
+      </c>
+      <c r="I45" s="63">
+        <v>30</v>
+      </c>
+      <c r="J45" s="63">
+        <f t="shared" ref="J45" si="119">C45/I45</f>
+        <v>5826.9869999999992</v>
+      </c>
+      <c r="K45" s="65">
+        <v>165693.00403749998</v>
+      </c>
+      <c r="L45" s="63">
+        <f t="shared" ref="L45" si="120">C45/K45</f>
+        <v>1.0550210675185581</v>
+      </c>
+      <c r="M45" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="P45" s="63">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="63">
+        <v>20170222</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="63">
+        <f t="shared" ref="C46" si="121">D46+E46</f>
+        <v>174809.61</v>
+      </c>
+      <c r="D46" s="63">
+        <v>90384.11</v>
+      </c>
+      <c r="E46" s="63">
+        <v>84425.5</v>
+      </c>
+      <c r="F46" s="63">
+        <v>84135.6</v>
+      </c>
+      <c r="G46" s="67">
+        <f t="shared" ref="G46" si="122">D46-F46</f>
+        <v>6248.5099999999948</v>
+      </c>
+      <c r="H46" s="63">
+        <f t="shared" ref="H46" si="123">F46/C46*10</f>
+        <v>4.8129848238892592</v>
+      </c>
+      <c r="I46" s="63">
+        <v>30</v>
+      </c>
+      <c r="J46" s="63">
+        <f t="shared" ref="J46" si="124">C46/I46</f>
+        <v>5826.9869999999992</v>
+      </c>
+      <c r="K46" s="65">
+        <f>K45-N46</f>
+        <v>157794.58356368</v>
+      </c>
+      <c r="L46" s="63">
+        <f t="shared" ref="L46" si="125">C46/K46</f>
+        <v>1.1078302312541251</v>
+      </c>
+      <c r="M46" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="N46" s="63">
+        <f>8333/L45</f>
+        <v>7898.4204738199887</v>
+      </c>
+      <c r="P46" s="63">
+        <f t="shared" si="102"/>
+        <v>851.68850623432536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="12" width="10.83203125" style="67"/>
+    <col min="13" max="13" width="12.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C3" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C4" s="67">
+        <v>600187</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="67">
+        <v>20170116</v>
+      </c>
+      <c r="F4" s="67">
+        <v>1100</v>
+      </c>
+      <c r="G4" s="67">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H4" s="67">
+        <v>6.09</v>
+      </c>
+      <c r="I4" s="67">
+        <v>5.76</v>
+      </c>
+      <c r="J4" s="67">
+        <f>H4*0.9</f>
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="K4" s="67">
+        <f>I4*0.9</f>
+        <v>5.1840000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="67">
+        <v>600187</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="67">
+        <v>20170117</v>
+      </c>
+      <c r="F5" s="67">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="67">
+        <v>4.83</v>
+      </c>
+      <c r="H5" s="67">
+        <v>6.09</v>
+      </c>
+      <c r="I5" s="67">
+        <v>5.76</v>
+      </c>
+      <c r="J5" s="67">
+        <f>H5*0.9</f>
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="K5" s="67">
+        <f>I5*0.9</f>
+        <v>5.1840000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="67">
+        <v>728</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="67">
+        <v>20170118</v>
+      </c>
+      <c r="F6" s="67">
+        <v>300</v>
+      </c>
+      <c r="G6" s="67">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="H6" s="67">
+        <v>21.52</v>
+      </c>
+      <c r="I6" s="67">
+        <v>21.17</v>
+      </c>
+      <c r="J6" s="67">
+        <f>H6*0.9</f>
+        <v>19.367999999999999</v>
+      </c>
+      <c r="K6" s="67">
+        <f>I6*0.9</f>
+        <v>19.053000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="67">
+        <v>2049</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="67">
+        <v>20170119</v>
+      </c>
+      <c r="F7" s="67">
+        <v>200</v>
+      </c>
+      <c r="G7" s="67">
+        <v>29.93</v>
+      </c>
+      <c r="H7" s="67">
+        <v>31.94</v>
+      </c>
+      <c r="I7" s="67">
+        <v>31.5</v>
+      </c>
+      <c r="J7" s="67">
+        <f>H7*0.9</f>
+        <v>28.746000000000002</v>
+      </c>
+      <c r="K7" s="67">
+        <f>I7*0.9</f>
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="67">
+        <v>2680</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="67">
+        <v>20170113</v>
+      </c>
+      <c r="F8" s="67">
+        <v>300</v>
+      </c>
+      <c r="G8" s="67">
+        <v>16.93</v>
+      </c>
+      <c r="H8" s="67">
+        <v>17.5</v>
+      </c>
+      <c r="I8" s="67">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="J8" s="67">
+        <f>H8*0.9</f>
+        <v>15.75</v>
+      </c>
+      <c r="K8" s="67">
+        <f>I8*0.9</f>
+        <v>15.471000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="67">
+        <v>2470</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="67">
+        <v>20170109</v>
+      </c>
+      <c r="F9" s="67">
+        <v>700</v>
+      </c>
+      <c r="G9" s="67">
+        <v>7.88</v>
+      </c>
+      <c r="H9" s="67">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I9" s="67">
+        <v>7.95</v>
+      </c>
+      <c r="J9" s="67">
+        <f>H9*0.9</f>
+        <v>7.2359999999999998</v>
+      </c>
+      <c r="K9" s="67">
+        <f>I9*0.9</f>
+        <v>7.1550000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="67">
+        <v>600446</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="67">
+        <v>20170112</v>
+      </c>
+      <c r="F10" s="67">
+        <v>200</v>
+      </c>
+      <c r="G10" s="67">
+        <v>24.87</v>
+      </c>
+      <c r="H10" s="67">
+        <v>25.04</v>
+      </c>
+      <c r="I10" s="67">
+        <v>24.85</v>
+      </c>
+      <c r="J10" s="67">
+        <f>H10*0.9</f>
+        <v>22.536000000000001</v>
+      </c>
+      <c r="K10" s="67">
+        <f>I10*0.9</f>
+        <v>22.365000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="67">
+        <v>600446</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="67">
+        <v>20170120</v>
+      </c>
+      <c r="F11" s="67">
+        <v>200</v>
+      </c>
+      <c r="G11" s="67">
+        <v>23.27</v>
+      </c>
+      <c r="H11" s="67">
+        <v>24.57</v>
+      </c>
+      <c r="I11" s="67">
+        <v>24.01</v>
+      </c>
+      <c r="J11" s="67">
+        <f>H11*0.9</f>
+        <v>22.113</v>
+      </c>
+      <c r="K11" s="67">
+        <f>I11*0.9</f>
+        <v>21.609000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="67">
+        <v>2673</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="67">
+        <v>20161230</v>
+      </c>
+      <c r="F12" s="67">
+        <v>300</v>
+      </c>
+      <c r="G12" s="67">
+        <v>20.89</v>
+      </c>
+      <c r="H12" s="67">
+        <v>21.06</v>
+      </c>
+      <c r="I12" s="67">
+        <v>21.05</v>
+      </c>
+      <c r="J12" s="67">
+        <f>H12*0.9</f>
+        <v>18.954000000000001</v>
+      </c>
+      <c r="K12" s="67">
+        <f>I12*0.9</f>
+        <v>18.945</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C13" s="67">
+        <v>600845</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="67">
+        <v>20170103</v>
+      </c>
+      <c r="F13" s="67">
+        <v>300</v>
+      </c>
+      <c r="G13" s="67">
+        <v>17.88</v>
+      </c>
+      <c r="H13" s="67">
+        <v>21.45</v>
+      </c>
+      <c r="I13" s="67">
+        <v>20.56</v>
+      </c>
+      <c r="J13" s="67">
+        <f>H13*0.9</f>
+        <v>19.305</v>
+      </c>
+      <c r="K13" s="67">
+        <f>I13*0.9</f>
+        <v>18.503999999999998</v>
+      </c>
+      <c r="L13" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="M13" s="67">
+        <v>20170120</v>
+      </c>
+      <c r="N13" s="67">
+        <v>19.25</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8727,6 +8290,166 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20170214</v>
+      </c>
+      <c r="C3">
+        <v>728</v>
+      </c>
+      <c r="D3">
+        <v>19.96</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>177</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>20170220</v>
+      </c>
+      <c r="C4">
+        <v>600845</v>
+      </c>
+      <c r="D4">
+        <v>19.25</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <f>(19.25-17.88)*300</f>
+        <v>411.00000000000028</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>200000</v>
+      </c>
+      <c r="D5">
+        <f>36009.6+47311</f>
+        <v>83320.600000000006</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>D5/C5</f>
+        <v>0.41660300000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -9211,7 +8934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9226,7 +8949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9247,7 +8970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -9504,296 +9227,6 @@
         <f t="shared" si="0"/>
         <v>-821.00000000000011</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>20150707</v>
-      </c>
-      <c r="B2" s="1">
-        <v>600363</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>500</v>
-      </c>
-      <c r="F2" s="1">
-        <v>11.02</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-5510</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
-      </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>20150722</v>
-      </c>
-      <c r="B3" s="1">
-        <v>600363</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15.95</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3190</v>
-      </c>
-      <c r="H3" s="1">
-        <v>300</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>20150728</v>
-      </c>
-      <c r="B4" s="1">
-        <v>600363</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>200</v>
-      </c>
-      <c r="F4" s="1">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3270</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>20160113</v>
-      </c>
-      <c r="B5" s="42">
-        <v>600363</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>300</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15.82</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-4506</v>
-      </c>
-      <c r="H5" s="1">
-        <v>400</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>20160114</v>
-      </c>
-      <c r="B6" s="42">
-        <v>600363</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>300</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12.75</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-3825</v>
-      </c>
-      <c r="H6" s="1">
-        <v>700</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>20160120</v>
-      </c>
-      <c r="B7" s="42">
-        <v>600363</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>300</v>
-      </c>
-      <c r="F7" s="1">
-        <v>14.49</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4347</v>
-      </c>
-      <c r="H7" s="1">
-        <v>400</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>20160630</v>
-      </c>
-      <c r="B8" s="42">
-        <v>600363</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1760</v>
-      </c>
-      <c r="H8" s="1">
-        <v>300</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>20160705</v>
-      </c>
-      <c r="B9" s="42">
-        <v>600363</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1">
-        <v>18.23</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1823</v>
-      </c>
-      <c r="H9" s="1">
-        <v>200</v>
-      </c>
-      <c r="I9" s="45">
-        <v>-2.5089999999999999</v>
-      </c>
-      <c r="J9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -10341,6 +9774,296 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>20150707</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-5510</v>
+      </c>
+      <c r="H2" s="1">
+        <v>500</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20150722</v>
+      </c>
+      <c r="B3" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3190</v>
+      </c>
+      <c r="H3" s="1">
+        <v>300</v>
+      </c>
+      <c r="I3" s="45"/>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20150728</v>
+      </c>
+      <c r="B4" s="1">
+        <v>600363</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3270</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20160113</v>
+      </c>
+      <c r="B5" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>300</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.82</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-4506</v>
+      </c>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20160114</v>
+      </c>
+      <c r="B6" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-3825</v>
+      </c>
+      <c r="H6" s="1">
+        <v>700</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>20160120</v>
+      </c>
+      <c r="B7" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>300</v>
+      </c>
+      <c r="F7" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4347</v>
+      </c>
+      <c r="H7" s="1">
+        <v>400</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>20160630</v>
+      </c>
+      <c r="B8" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1760</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>20160705</v>
+      </c>
+      <c r="B9" s="42">
+        <v>600363</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18.23</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1823</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+      <c r="I9" s="45">
+        <v>-2.5089999999999999</v>
+      </c>
+      <c r="J9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
@@ -10562,19 +10285,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10601,12 +10311,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10682,7 +10392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -10713,7 +10423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D14"/>
   <sheetViews>
@@ -10820,7 +10530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G19"/>
   <sheetViews>
@@ -11027,4 +10737,1233 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>20151207</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19">
+        <v>20000</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
+        <v>20151218</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19">
+        <v>30011</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>20151231</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19">
+        <v>29930</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
+        <v>20160106</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19">
+        <v>24939</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>20160113</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19">
+        <v>19948</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>20160119</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19">
+        <v>14954</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
+        <v>20160122</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="19">
+        <v>4956</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
+        <v>20160126</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19">
+        <v>3957</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
+        <v>20160127</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19">
+        <v>-502.8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>-0.05</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>20160202</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19">
+        <v>9496.7999999999993</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>20160711</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19">
+        <v>20000</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>20160823</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19">
+        <v>36042</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="H15" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
+        <v>20160908</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19">
+        <v>49311.5</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="19">
+        <v>20160909</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19">
+        <v>49354</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="19">
+        <f>F17-F16</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>20160920</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19">
+        <v>47379</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
+        <v>20160926</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19">
+        <v>42391</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>20160927</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="19">
+        <v>38393</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>20160928</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19">
+        <v>34395</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>20160930</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19">
+        <v>29399</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>20161012</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="19">
+        <v>26417</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>20161013</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="19">
+        <v>23418</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>20161031</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19">
+        <f>F24+H24+39000</f>
+        <v>62432</v>
+      </c>
+      <c r="G25" s="19">
+        <v>3</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="19">
+        <v>20161031</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="20">
+        <v>91000</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19">
+        <v>153432</v>
+      </c>
+      <c r="G26" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H26" s="19">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>20161105</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="20">
+        <v>91000</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19">
+        <v>153477</v>
+      </c>
+      <c r="G27" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="19">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
+        <v>20161117</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
+        <v>153567</v>
+      </c>
+      <c r="G28" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H28" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
+        <v>20161117</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19">
+        <v>153597</v>
+      </c>
+      <c r="G29" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H29" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>20161129</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19">
+        <v>153687</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="57">
+        <v>20161129</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="57">
+        <f>153687-93300</f>
+        <v>60387</v>
+      </c>
+      <c r="G31" s="57">
+        <v>3</v>
+      </c>
+      <c r="H31" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="63">
+        <v>20161130</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="63">
+        <v>60340</v>
+      </c>
+      <c r="G32" s="63">
+        <v>3</v>
+      </c>
+      <c r="H32" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63">
+        <v>20161130</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="63">
+        <f>F32-8333</f>
+        <v>52007</v>
+      </c>
+      <c r="G33" s="63">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="63">
+        <v>32.5</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63">
+        <v>20161215</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="63">
+        <v>52042.5</v>
+      </c>
+      <c r="G34" s="63">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="63">
+        <f>G34*15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63">
+        <v>20161229</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="63">
+        <v>52077.5</v>
+      </c>
+      <c r="G35" s="63">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="63">
+        <f>G35*14</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B36" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="63">
+        <v>46080</v>
+      </c>
+      <c r="G36" s="63">
+        <v>2</v>
+      </c>
+      <c r="H36" s="63">
+        <f>G36*1</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="63">
+        <v>20161230</v>
+      </c>
+      <c r="B37" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="63">
+        <f>46080-8333</f>
+        <v>37747</v>
+      </c>
+      <c r="G37" s="63">
+        <v>2</v>
+      </c>
+      <c r="H37" s="63">
+        <v>0</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="63">
+        <v>20170103</v>
+      </c>
+      <c r="B38" s="63">
+        <v>3.95</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="63">
+        <f>46080-8333-5500+8</f>
+        <v>32255</v>
+      </c>
+      <c r="G38" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="H38" s="63">
+        <f>G38*4</f>
+        <v>6</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="63">
+        <v>20170109</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="63">
+        <f>32255-5500+9</f>
+        <v>26764</v>
+      </c>
+      <c r="G39" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="63">
+        <f>G39*6</f>
+        <v>9</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="63">
+        <v>20170112</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="63">
+        <f>26764-4999+4.5</f>
+        <v>21769.5</v>
+      </c>
+      <c r="G40" s="63">
+        <v>1</v>
+      </c>
+      <c r="H40" s="63">
+        <f>G40*3</f>
+        <v>3</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="63">
+        <v>20170113</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="63">
+        <f>21769.5-5000+1</f>
+        <v>16770.5</v>
+      </c>
+      <c r="G41" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="63">
+        <f>G41*1</f>
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="63">
+        <v>20170116</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="63">
+        <f>16770.5+0.75*3-5500</f>
+        <v>11272.75</v>
+      </c>
+      <c r="G42" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="63">
+        <f>G42*3</f>
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="J42" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="63">
+        <v>20170117</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="63">
+        <f>11272.75+0.25-5500</f>
+        <v>5773</v>
+      </c>
+      <c r="G43" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="63">
+        <f>G43*1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="63">
+        <v>20170118</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="63">
+        <f>5773+0.25-6000</f>
+        <v>-226.75</v>
+      </c>
+      <c r="G44" s="63">
+        <v>-0.25</v>
+      </c>
+      <c r="H44" s="63">
+        <f>G44*1</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="J44" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="63">
+        <v>20170119</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="63">
+        <f>-226.75-0.25-5000</f>
+        <v>-5227</v>
+      </c>
+      <c r="G45" s="63">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="63">
+        <f>G45*1</f>
+        <v>-1</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="63">
+        <v>20170120</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="63">
+        <f>-5227-5000-1</f>
+        <v>-10228</v>
+      </c>
+      <c r="G46" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H46" s="63">
+        <f>G46*1</f>
+        <v>-2</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="63">
+        <v>20170123</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="63">
+        <f>-10228-6</f>
+        <v>-10234</v>
+      </c>
+      <c r="G47" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H47" s="63">
+        <f>G47*3</f>
+        <v>-6</v>
+      </c>
+      <c r="I47" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="63">
+        <v>20170124</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="63">
+        <f>-10228-6-2</f>
+        <v>-10236</v>
+      </c>
+      <c r="G48" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H48" s="63">
+        <f>G48</f>
+        <v>-2</v>
+      </c>
+      <c r="I48" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="63">
+        <f>-10228-6-2+H49</f>
+        <v>-10256</v>
+      </c>
+      <c r="G49" s="63">
+        <v>-2</v>
+      </c>
+      <c r="H49" s="63">
+        <f>G49*10</f>
+        <v>-20</v>
+      </c>
+      <c r="I49" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="63">
+        <v>20170203</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="63">
+        <f>-10256-8333</f>
+        <v>-18589</v>
+      </c>
+      <c r="G50" s="63">
+        <v>-3.5</v>
+      </c>
+      <c r="H50" s="63">
+        <f>G50*12</f>
+        <v>-42</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="J50" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="63">
+        <v>20170215</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="63">
+        <f>-18589-42+50</f>
+        <v>-18581</v>
+      </c>
+      <c r="G51" s="63">
+        <v>-3.5</v>
+      </c>
+      <c r="H51" s="63">
+        <v>0</v>
+      </c>
+      <c r="I51" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="63">
+        <v>20170220</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="63">
+        <f>-18581+103000-3.5*3</f>
+        <v>84408.5</v>
+      </c>
+      <c r="G52" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="H52" s="63">
+        <v>0</v>
+      </c>
+      <c r="I52" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="63">
+        <v>20170222</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="63">
+        <f>84408.5+8.5*2</f>
+        <v>84425.5</v>
+      </c>
+      <c r="G53" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="H53" s="63">
+        <v>0</v>
+      </c>
+      <c r="I53" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="J53" s="65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="HK" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="总" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="A股经验" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="操作系统" sheetId="13" r:id="rId5"/>
+    <sheet name="操作系统" sheetId="13" state="hidden" r:id="rId5"/>
     <sheet name="日志" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="规则" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="拆借" sheetId="8" state="hidden" r:id="rId9"/>
     <sheet name="仓" sheetId="14" state="hidden" r:id="rId10"/>
     <sheet name="止损" sheetId="18" r:id="rId11"/>
-    <sheet name="股票交易" sheetId="19" r:id="rId12"/>
-    <sheet name="逆回购交易" sheetId="23" r:id="rId13"/>
-    <sheet name="提取账户" sheetId="20" r:id="rId14"/>
+    <sheet name="交易记录" sheetId="19" r:id="rId12"/>
+    <sheet name="逆回购交易记录" sheetId="23" r:id="rId13"/>
+    <sheet name="盈利提取" sheetId="20" r:id="rId14"/>
     <sheet name="交易账户" sheetId="22" r:id="rId15"/>
-    <sheet name="权益" sheetId="17" state="hidden" r:id="rId16"/>
-    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId17"/>
-    <sheet name="纪律" sheetId="9" r:id="rId18"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId19"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId20"/>
+    <sheet name="场外资金" sheetId="24" r:id="rId16"/>
+    <sheet name="权益" sheetId="17" state="hidden" r:id="rId17"/>
+    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId18"/>
+    <sheet name="纪律" sheetId="9" r:id="rId19"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId20"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="326">
   <si>
     <t>时间</t>
   </si>
@@ -1912,6 +1913,68 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外资金</t>
+    <rPh sb="0" eb="1">
+      <t>chang'wai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'jin</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝信软件</t>
+    <rPh sb="0" eb="1">
+      <t>bao'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ruan'jian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外资金到位前不提取</t>
+    <rPh sb="0" eb="1">
+      <t>chang'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'ti'qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'qu</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2581,6 +2644,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2594,15 +2666,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3411,7 +3474,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="73" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3440,7 +3503,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4526,14 +4589,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="68" t="s">
+      <c r="K48" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4586,12 +4649,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4644,12 +4707,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -5078,7 +5141,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="69" t="s">
+      <c r="I69" s="72" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5104,7 +5167,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="69"/>
+      <c r="I70" s="72"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -5189,12 +5252,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="68"/>
-      <c r="L73" s="69"/>
-      <c r="M73" s="69"/>
-      <c r="N73" s="69"/>
-      <c r="O73" s="69"/>
-      <c r="P73" s="69"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -7921,43 +7984,43 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="68" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="68" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7984,11 +8047,11 @@
         <v>5.76</v>
       </c>
       <c r="J4" s="67">
-        <f>H4*0.9</f>
+        <f t="shared" ref="J4:J13" si="0">H4*0.9</f>
         <v>5.4809999999999999</v>
       </c>
       <c r="K4" s="67">
-        <f>I4*0.9</f>
+        <f t="shared" ref="K4:K13" si="1">I4*0.9</f>
         <v>5.1840000000000002</v>
       </c>
     </row>
@@ -8015,11 +8078,11 @@
         <v>5.76</v>
       </c>
       <c r="J5" s="67">
-        <f>H5*0.9</f>
+        <f t="shared" si="0"/>
         <v>5.4809999999999999</v>
       </c>
       <c r="K5" s="67">
-        <f>I5*0.9</f>
+        <f t="shared" si="1"/>
         <v>5.1840000000000002</v>
       </c>
     </row>
@@ -8046,11 +8109,11 @@
         <v>21.17</v>
       </c>
       <c r="J6" s="67">
-        <f>H6*0.9</f>
+        <f t="shared" si="0"/>
         <v>19.367999999999999</v>
       </c>
       <c r="K6" s="67">
-        <f>I6*0.9</f>
+        <f t="shared" si="1"/>
         <v>19.053000000000001</v>
       </c>
     </row>
@@ -8077,11 +8140,11 @@
         <v>31.5</v>
       </c>
       <c r="J7" s="67">
-        <f>H7*0.9</f>
+        <f t="shared" si="0"/>
         <v>28.746000000000002</v>
       </c>
       <c r="K7" s="67">
-        <f>I7*0.9</f>
+        <f t="shared" si="1"/>
         <v>28.35</v>
       </c>
     </row>
@@ -8108,11 +8171,11 @@
         <v>17.190000000000001</v>
       </c>
       <c r="J8" s="67">
-        <f>H8*0.9</f>
+        <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
       <c r="K8" s="67">
-        <f>I8*0.9</f>
+        <f t="shared" si="1"/>
         <v>15.471000000000002</v>
       </c>
     </row>
@@ -8139,11 +8202,11 @@
         <v>7.95</v>
       </c>
       <c r="J9" s="67">
-        <f>H9*0.9</f>
+        <f t="shared" si="0"/>
         <v>7.2359999999999998</v>
       </c>
       <c r="K9" s="67">
-        <f>I9*0.9</f>
+        <f t="shared" si="1"/>
         <v>7.1550000000000002</v>
       </c>
     </row>
@@ -8170,11 +8233,11 @@
         <v>24.85</v>
       </c>
       <c r="J10" s="67">
-        <f>H10*0.9</f>
+        <f t="shared" si="0"/>
         <v>22.536000000000001</v>
       </c>
       <c r="K10" s="67">
-        <f>I10*0.9</f>
+        <f t="shared" si="1"/>
         <v>22.365000000000002</v>
       </c>
     </row>
@@ -8201,11 +8264,11 @@
         <v>24.01</v>
       </c>
       <c r="J11" s="67">
-        <f>H11*0.9</f>
+        <f t="shared" si="0"/>
         <v>22.113</v>
       </c>
       <c r="K11" s="67">
-        <f>I11*0.9</f>
+        <f t="shared" si="1"/>
         <v>21.609000000000002</v>
       </c>
     </row>
@@ -8232,11 +8295,11 @@
         <v>21.05</v>
       </c>
       <c r="J12" s="67">
-        <f>H12*0.9</f>
+        <f t="shared" si="0"/>
         <v>18.954000000000001</v>
       </c>
       <c r="K12" s="67">
-        <f>I12*0.9</f>
+        <f t="shared" si="1"/>
         <v>18.945</v>
       </c>
     </row>
@@ -8263,11 +8326,11 @@
         <v>20.56</v>
       </c>
       <c r="J13" s="67">
-        <f>H13*0.9</f>
+        <f t="shared" si="0"/>
         <v>19.305</v>
       </c>
       <c r="K13" s="67">
-        <f>I13*0.9</f>
+        <f t="shared" si="1"/>
         <v>18.503999999999998</v>
       </c>
       <c r="L13" s="67" t="s">
@@ -8291,15 +8354,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>311</v>
       </c>
@@ -8307,57 +8373,75 @@
         <v>312</v>
       </c>
       <c r="D2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" t="s">
         <v>313</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>299</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>314</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>20170214</v>
       </c>
       <c r="C3">
         <v>728</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3">
         <v>19.96</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>177</v>
       </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>20170220</v>
       </c>
       <c r="C4">
         <v>600845</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4">
         <v>19.25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>300</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>(19.25-17.88)*300</f>
         <v>411.00000000000028</v>
       </c>
-      <c r="G4">
-        <v>100</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8402,44 +8486,58 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F5"/>
+  <dimension ref="B4:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
       <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
         <v>316</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>207</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>317</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20170306</v>
+      </c>
       <c r="C5">
-        <v>200000</v>
+        <f>场外资金!C3</f>
+        <v>116430.89</v>
       </c>
       <c r="D5">
+        <v>83569.11</v>
+      </c>
+      <c r="E5">
         <f>36009.6+47311</f>
         <v>83320.600000000006</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <f>D5/C5</f>
+      <c r="G5">
+        <f>E5/(D5+C5)</f>
         <v>0.41660300000000006</v>
       </c>
     </row>
@@ -8450,6 +8548,45 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20170306</v>
+      </c>
+      <c r="C3">
+        <f>200000-83569.11</f>
+        <v>116430.89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -8934,7 +9071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8949,12 +9086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8967,270 +9104,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43">
-        <v>160304</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="43">
-        <v>-8.31</v>
-      </c>
-      <c r="E3" s="43">
-        <v>100</v>
-      </c>
-      <c r="F3" s="43">
-        <f>D3*E3</f>
-        <v>-831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>160309</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4">
-        <v>-8.26</v>
-      </c>
-      <c r="E4" s="43">
-        <v>100</v>
-      </c>
-      <c r="F4" s="43">
-        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
-        <v>-826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>160425</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5">
-        <v>-8.51</v>
-      </c>
-      <c r="E5" s="43">
-        <v>100</v>
-      </c>
-      <c r="F5" s="43">
-        <f t="shared" si="0"/>
-        <v>-851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>160629</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6">
-        <v>-10.38</v>
-      </c>
-      <c r="E6" s="43">
-        <v>100</v>
-      </c>
-      <c r="F6" s="43">
-        <f t="shared" si="0"/>
-        <v>-1038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>160704</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7">
-        <v>-8.44</v>
-      </c>
-      <c r="E7" s="43">
-        <v>100</v>
-      </c>
-      <c r="F7" s="43">
-        <f t="shared" si="0"/>
-        <v>-844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>160815</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8">
-        <v>-8.99</v>
-      </c>
-      <c r="E8" s="43">
-        <v>100</v>
-      </c>
-      <c r="F8" s="43">
-        <f t="shared" si="0"/>
-        <v>-899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>160907</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9">
-        <v>-9.17</v>
-      </c>
-      <c r="E9" s="43">
-        <v>100</v>
-      </c>
-      <c r="F9" s="43">
-        <f t="shared" si="0"/>
-        <v>-917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>160128</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10">
-        <v>7.59</v>
-      </c>
-      <c r="E10" s="43">
-        <v>300</v>
-      </c>
-      <c r="F10" s="43">
-        <f t="shared" si="0"/>
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>160407</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11">
-        <v>8.1</v>
-      </c>
-      <c r="E11" s="43">
-        <v>300</v>
-      </c>
-      <c r="F11" s="43">
-        <f t="shared" si="0"/>
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>160217</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12">
-        <v>7.75</v>
-      </c>
-      <c r="E12" s="43">
-        <v>300</v>
-      </c>
-      <c r="F12" s="43">
-        <f t="shared" si="0"/>
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>160324</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13">
-        <v>-8.2100000000000009</v>
-      </c>
-      <c r="E13" s="43">
-        <v>100</v>
-      </c>
-      <c r="F13" s="43">
-        <f t="shared" si="0"/>
-        <v>-821.00000000000011</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9775,6 +9648,270 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43">
+        <v>160304</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="43">
+        <v>-8.31</v>
+      </c>
+      <c r="E3" s="43">
+        <v>100</v>
+      </c>
+      <c r="F3" s="43">
+        <f>D3*E3</f>
+        <v>-831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>160309</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>-8.26</v>
+      </c>
+      <c r="E4" s="43">
+        <v>100</v>
+      </c>
+      <c r="F4" s="43">
+        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
+        <v>-826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>160425</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>-8.51</v>
+      </c>
+      <c r="E5" s="43">
+        <v>100</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="0"/>
+        <v>-851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>160629</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>-10.38</v>
+      </c>
+      <c r="E6" s="43">
+        <v>100</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="0"/>
+        <v>-1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>160704</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>-8.44</v>
+      </c>
+      <c r="E7" s="43">
+        <v>100</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="0"/>
+        <v>-844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>160815</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <v>-8.99</v>
+      </c>
+      <c r="E8" s="43">
+        <v>100</v>
+      </c>
+      <c r="F8" s="43">
+        <f t="shared" si="0"/>
+        <v>-899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>160907</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
+        <v>-9.17</v>
+      </c>
+      <c r="E9" s="43">
+        <v>100</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="0"/>
+        <v>-917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>160128</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10">
+        <v>7.59</v>
+      </c>
+      <c r="E10" s="43">
+        <v>300</v>
+      </c>
+      <c r="F10" s="43">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>160407</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11">
+        <v>8.1</v>
+      </c>
+      <c r="E11" s="43">
+        <v>300</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" si="0"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>160217</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12">
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="43">
+        <v>300</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" si="0"/>
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>160324</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="E13" s="43">
+        <v>100</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" si="0"/>
+        <v>-821.00000000000011</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -10315,7 +10452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -10755,14 +10892,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,12 +27,13 @@
     <sheet name="逆回购交易记录" sheetId="23" r:id="rId13"/>
     <sheet name="盈利提取" sheetId="20" r:id="rId14"/>
     <sheet name="交易账户" sheetId="22" r:id="rId15"/>
-    <sheet name="场外资金" sheetId="24" r:id="rId16"/>
-    <sheet name="权益" sheetId="17" state="hidden" r:id="rId17"/>
-    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId18"/>
-    <sheet name="纪律" sheetId="9" r:id="rId19"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId20"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId21"/>
+    <sheet name="指数看板" sheetId="25" r:id="rId16"/>
+    <sheet name="场外资金" sheetId="24" r:id="rId17"/>
+    <sheet name="权益" sheetId="17" state="hidden" r:id="rId18"/>
+    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId19"/>
+    <sheet name="纪律" sheetId="9" r:id="rId20"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId21"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="331">
   <si>
     <t>时间</t>
   </si>
@@ -1903,10 +1904,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TOTAL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>逆回购市值</t>
     <rPh sb="0" eb="1">
       <t>ni'hui'gou</t>
@@ -1975,6 +1972,66 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ti'qu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>户头总额</t>
+    <rPh sb="0" eb="1">
+      <t>hu'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'e</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘前</t>
+    <rPh sb="0" eb="1">
+      <t>kai'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘</t>
+    <rPh sb="0" eb="1">
+      <t>shou'pan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天涨停，今日不强势，建仓三分之一</t>
+    <rPh sb="0" eb="1">
+      <t>zuo't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'ting</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin'ri</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'qiang'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian'cang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>san'fen'zhi'yi</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -8354,18 +8411,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>311</v>
       </c>
@@ -8373,7 +8431,7 @@
         <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
         <v>313</v>
@@ -8391,7 +8449,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>20170214</v>
       </c>
@@ -8414,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>20170220</v>
       </c>
@@ -8425,7 +8483,7 @@
         <v>600845</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4">
         <v>19.25</v>
@@ -8441,7 +8499,37 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20170308</v>
+      </c>
+      <c r="C5">
+        <v>600187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>6.3</v>
+      </c>
+      <c r="F5">
+        <v>700</v>
+      </c>
+      <c r="G5">
+        <f>(6.3-5.02)*700</f>
+        <v>896.00000000000023</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -8486,59 +8574,97 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G5"/>
+  <dimension ref="B4:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
         <v>321</v>
       </c>
-      <c r="C4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
         <v>316</v>
       </c>
-      <c r="E4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>20170306</v>
       </c>
       <c r="C5">
+        <f>D5+E5</f>
+        <v>200000</v>
+      </c>
+      <c r="D5">
         <f>场外资金!C3</f>
         <v>116430.89</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>83569.11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>36009.6+47311</f>
         <v>83320.600000000006</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <f>E5/(D5+C5)</f>
+      <c r="H5">
+        <f>F5/(E5+D5)</f>
         <v>0.41660300000000006</v>
+      </c>
+      <c r="I5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>20170306</v>
+      </c>
+      <c r="C6">
+        <f>D6+E6</f>
+        <v>200694.39999999999</v>
+      </c>
+      <c r="D6">
+        <v>116430.89</v>
+      </c>
+      <c r="E6">
+        <v>84263.51</v>
+      </c>
+      <c r="F6">
+        <v>84015</v>
+      </c>
+      <c r="H6">
+        <f>F6/C6</f>
+        <v>0.41862154599231471</v>
+      </c>
+      <c r="I6" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -8549,35 +8675,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3">
         <v>20170306</v>
-      </c>
-      <c r="C3">
-        <f>200000-83569.11</f>
-        <v>116430.89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8587,6 +8698,45 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20170306</v>
+      </c>
+      <c r="C3">
+        <f>200000-83569.11</f>
+        <v>116430.89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -9071,7 +9221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9083,27 +9233,6 @@
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -9649,6 +9778,27 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9911,7 +10061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="353">
   <si>
     <t>时间</t>
   </si>
@@ -1755,20 +1755,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>H止损点</t>
-    <rPh sb="1" eb="2">
-      <t>zhi'sun'dian</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC止损点</t>
-    <rPh sb="2" eb="3">
-      <t>zhi'shun'dian</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>买入时间</t>
     <rPh sb="0" eb="1">
       <t>mai'ru</t>
@@ -1837,10 +1823,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>有点盲目。虽然现在跌到18多，但确实不知对错</t>
     <rPh sb="0" eb="1">
       <t>you'dian</t>
@@ -1890,13 +1872,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>盈亏</t>
-    <rPh sb="0" eb="1">
-      <t>ying'kui</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>提取</t>
     <rPh sb="0" eb="1">
       <t>ti'qu</t>
@@ -1918,18 +1893,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>amount</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>场外资金</t>
     <rPh sb="0" eb="1">
       <t>chang'wai</t>
@@ -2032,6 +1995,224 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>san'fen'zhi'yi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>户头现金</t>
+    <rPh sb="0" eb="1">
+      <t>hu'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'jin</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证指数</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng'zhi'shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证100</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <rPh sb="0" eb="1">
+      <t>hu'shen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证100</t>
+    <rPh sb="0" eb="1">
+      <t>shen'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证800</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证300</t>
+    <rPh sb="0" eb="1">
+      <t>shen'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证200</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证100</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证150</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证180</t>
+    <rPh sb="0" eb="1">
+      <t>shang'zheng</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证成指</t>
+    <rPh sb="0" eb="1">
+      <t>shen'zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小版综指</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'xiao'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zong'zhi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹仁超三论</t>
+    <rPh sb="0" eb="1">
+      <t>cao'ren'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>san'lun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lun</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan'ru</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利</t>
+    <rPh sb="0" eb="1">
+      <t>mao'li</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈后止损</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'sun</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未盈止损</t>
+    <rPh sb="2" eb="3">
+      <t>zhi'sun</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能买书</t>
+    <rPh sb="0" eb="1">
+      <t>bu'neng'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mai'shu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利提取210</t>
+    <rPh sb="0" eb="1">
+      <t>ying'li'ti'qu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利提取</t>
+    <rPh sb="0" eb="1">
+      <t>ying'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'qu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>触及盈后止损线</t>
+    <rPh sb="0" eb="1">
+      <t>chu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'sun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'xing</t>
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2040,7 +2221,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yy/m/d;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2102,8 +2286,21 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2136,7 +2333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,7 +2715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2704,10 +2913,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3531,7 +3758,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="81" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3560,7 +3787,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4646,14 +4873,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="71" t="s">
+      <c r="K48" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -4706,12 +4933,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -4764,12 +4991,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="71"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -5198,7 +5425,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="72" t="s">
+      <c r="I69" s="80" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5224,7 +5451,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="72"/>
+      <c r="I70" s="80"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -5309,12 +5536,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="71"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -8027,8 +8254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8042,19 +8269,19 @@
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C3" s="68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="68" t="s">
         <v>298</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>300</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>294</v>
@@ -8062,20 +8289,20 @@
       <c r="I3" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>297</v>
+      <c r="J3" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>347</v>
       </c>
       <c r="L3" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="N3" s="68" t="s">
         <v>306</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>308</v>
       </c>
       <c r="O3" s="68" t="s">
         <v>254</v>
@@ -8098,18 +8325,27 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="H4" s="67">
-        <v>6.09</v>
+        <v>6.48</v>
       </c>
       <c r="I4" s="67">
         <v>5.76</v>
       </c>
-      <c r="J4" s="67">
-        <f t="shared" ref="J4:J13" si="0">H4*0.9</f>
-        <v>5.4809999999999999</v>
+      <c r="J4" s="66">
+        <f>H4*0.92</f>
+        <v>5.9616000000000007</v>
       </c>
       <c r="K4" s="67">
-        <f t="shared" ref="K4:K13" si="1">I4*0.9</f>
+        <f t="shared" ref="K4:K13" si="0">I4*0.9</f>
         <v>5.1840000000000002</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" s="67">
+        <v>20170315</v>
+      </c>
+      <c r="N4" s="67">
+        <v>5.85</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.15">
@@ -8129,18 +8365,27 @@
         <v>4.83</v>
       </c>
       <c r="H5" s="67">
-        <v>6.09</v>
+        <v>6.48</v>
       </c>
       <c r="I5" s="67">
         <v>5.76</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="66">
+        <f t="shared" ref="J5:J13" si="1">H5*0.92</f>
+        <v>5.9616000000000007</v>
+      </c>
+      <c r="K5" s="67">
         <f t="shared" si="0"/>
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="K5" s="67">
-        <f t="shared" si="1"/>
         <v>5.1840000000000002</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="67">
+        <v>20170315</v>
+      </c>
+      <c r="N5" s="67">
+        <v>5.85</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.15">
@@ -8148,7 +8393,7 @@
         <v>728</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="67">
         <v>20170118</v>
@@ -8165,13 +8410,22 @@
       <c r="I6" s="67">
         <v>21.17</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="66">
+        <f t="shared" si="1"/>
+        <v>19.798400000000001</v>
+      </c>
+      <c r="K6" s="67">
         <f t="shared" si="0"/>
-        <v>19.367999999999999</v>
-      </c>
-      <c r="K6" s="67">
-        <f t="shared" si="1"/>
         <v>19.053000000000001</v>
+      </c>
+      <c r="L6" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="M6" s="67">
+        <v>20170315</v>
+      </c>
+      <c r="N6" s="67">
+        <v>19.91</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.15">
@@ -8179,7 +8433,7 @@
         <v>2049</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="67">
         <v>20170119</v>
@@ -8196,12 +8450,12 @@
       <c r="I7" s="67">
         <v>31.5</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="66">
+        <f t="shared" si="1"/>
+        <v>29.384800000000002</v>
+      </c>
+      <c r="K7" s="67">
         <f t="shared" si="0"/>
-        <v>28.746000000000002</v>
-      </c>
-      <c r="K7" s="67">
-        <f t="shared" si="1"/>
         <v>28.35</v>
       </c>
     </row>
@@ -8225,15 +8479,15 @@
         <v>17.5</v>
       </c>
       <c r="I8" s="67">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="J8" s="67">
+        <v>17.03</v>
+      </c>
+      <c r="J8" s="66">
+        <f t="shared" si="1"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K8" s="67">
         <f t="shared" si="0"/>
-        <v>15.75</v>
-      </c>
-      <c r="K8" s="67">
-        <f t="shared" si="1"/>
-        <v>15.471000000000002</v>
+        <v>15.327000000000002</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.15">
@@ -8258,12 +8512,12 @@
       <c r="I9" s="67">
         <v>7.95</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="66">
+        <f t="shared" si="1"/>
+        <v>7.3967999999999998</v>
+      </c>
+      <c r="K9" s="67">
         <f t="shared" si="0"/>
-        <v>7.2359999999999998</v>
-      </c>
-      <c r="K9" s="67">
-        <f t="shared" si="1"/>
         <v>7.1550000000000002</v>
       </c>
     </row>
@@ -8287,15 +8541,15 @@
         <v>25.04</v>
       </c>
       <c r="I10" s="67">
-        <v>24.85</v>
+        <v>24.84</v>
       </c>
       <c r="J10" s="67">
+        <f t="shared" si="1"/>
+        <v>23.036799999999999</v>
+      </c>
+      <c r="K10" s="74">
         <f t="shared" si="0"/>
-        <v>22.536000000000001</v>
-      </c>
-      <c r="K10" s="67">
-        <f t="shared" si="1"/>
-        <v>22.365000000000002</v>
+        <v>22.356000000000002</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.15">
@@ -8320,12 +8574,12 @@
       <c r="I11" s="67">
         <v>24.01</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="66">
+        <f t="shared" si="1"/>
+        <v>22.604400000000002</v>
+      </c>
+      <c r="K11" s="67">
         <f t="shared" si="0"/>
-        <v>22.113</v>
-      </c>
-      <c r="K11" s="67">
-        <f t="shared" si="1"/>
         <v>21.609000000000002</v>
       </c>
     </row>
@@ -8334,7 +8588,7 @@
         <v>2673</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E12" s="67">
         <v>20161230</v>
@@ -8349,15 +8603,15 @@
         <v>21.06</v>
       </c>
       <c r="I12" s="67">
-        <v>21.05</v>
+        <v>21.04</v>
       </c>
       <c r="J12" s="67">
+        <f t="shared" si="1"/>
+        <v>19.3752</v>
+      </c>
+      <c r="K12" s="74">
         <f t="shared" si="0"/>
-        <v>18.954000000000001</v>
-      </c>
-      <c r="K12" s="67">
-        <f t="shared" si="1"/>
-        <v>18.945</v>
+        <v>18.936</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.15">
@@ -8382,16 +8636,16 @@
       <c r="I13" s="67">
         <v>20.56</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="66">
+        <f t="shared" si="1"/>
+        <v>19.734000000000002</v>
+      </c>
+      <c r="K13" s="67">
         <f t="shared" si="0"/>
-        <v>19.305</v>
-      </c>
-      <c r="K13" s="67">
-        <f t="shared" si="1"/>
         <v>18.503999999999998</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="M13" s="67">
         <v>20170120</v>
@@ -8400,7 +8654,7 @@
         <v>19.25</v>
       </c>
       <c r="O13" s="67" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8411,45 +8665,48 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="39" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" t="s">
         <v>311</v>
       </c>
-      <c r="C2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>20170214</v>
       </c>
@@ -8466,16 +8723,21 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>177</v>
+        <f>E3*F3</f>
+        <v>1996</v>
       </c>
       <c r="H3">
+        <f>F3*(19.96-18.19)</f>
+        <v>176.99999999999994</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>20170220</v>
       </c>
@@ -8483,7 +8745,7 @@
         <v>600845</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E4">
         <v>19.25</v>
@@ -8492,17 +8754,21 @@
         <v>300</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G5" si="0">E4*F4</f>
+        <v>5775</v>
+      </c>
+      <c r="H4">
         <f>(19.25-17.88)*300</f>
         <v>411.00000000000028</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>20170308</v>
       </c>
@@ -8519,17 +8785,89 @@
         <v>700</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4410</v>
+      </c>
+      <c r="H5">
         <f>(6.3-5.02)*700</f>
         <v>896.00000000000023</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>324</v>
-      </c>
       <c r="J5" t="s">
-        <v>330</v>
+        <v>317</v>
+      </c>
+      <c r="K5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>20170315</v>
+      </c>
+      <c r="C6">
+        <v>600187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6">
+        <v>5.85</v>
+      </c>
+      <c r="F6">
+        <v>1400</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="1">E6*F6</f>
+        <v>8189.9999999999991</v>
+      </c>
+      <c r="H6">
+        <f>(6.3-5.02)*F6</f>
+        <v>1792.0000000000005</v>
+      </c>
+      <c r="I6">
+        <v>180</v>
+      </c>
+      <c r="J6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>20170315</v>
+      </c>
+      <c r="C7">
+        <v>728</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7">
+        <v>19.91</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3982</v>
+      </c>
+      <c r="H7">
+        <f>(E7-18.19)*F7</f>
+        <v>343.99999999999977</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -8553,17 +8891,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>150</v>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8574,98 +8915,340 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I6"/>
+  <dimension ref="B4:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="69"/>
+    <col min="2" max="2" width="19.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="69" customWidth="1"/>
+    <col min="4" max="4" width="17" style="69" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="69" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="69" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="69" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="G4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" s="70" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="71">
         <v>20170306</v>
       </c>
-      <c r="C5">
-        <f>D5+E5</f>
-        <v>200000</v>
-      </c>
-      <c r="D5">
-        <f>场外资金!C3</f>
-        <v>116430.89</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="71">
+        <f>I5+D5</f>
         <v>83569.11</v>
       </c>
-      <c r="F5">
+      <c r="D5" s="71">
+        <v>83569.11</v>
+      </c>
+      <c r="E5" s="71">
         <f>36009.6+47311</f>
         <v>83320.600000000006</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="71">
         <v>0</v>
       </c>
-      <c r="H5">
-        <f>F5/(E5+D5)</f>
-        <v>0.41660300000000006</v>
-      </c>
-      <c r="I5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6">
+      <c r="G5" s="71">
+        <f>D5-E5</f>
+        <v>248.50999999999476</v>
+      </c>
+      <c r="H5" s="71">
+        <f>E5/(D5+I5)</f>
+        <v>0.99702629356708483</v>
+      </c>
+      <c r="I5" s="71">
+        <f>场外资金!C3</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="71">
+        <v>37</v>
+      </c>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="71">
         <v>20170306</v>
       </c>
-      <c r="C6">
-        <f>D6+E6</f>
+      <c r="C6" s="71">
+        <f>I6+D6</f>
         <v>200694.39999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="71">
+        <v>84263.51</v>
+      </c>
+      <c r="E6" s="71">
+        <v>84015</v>
+      </c>
+      <c r="F6" s="71">
+        <v>0</v>
+      </c>
+      <c r="G6" s="71">
+        <f t="shared" ref="G6:G9" si="0">D6-E6</f>
+        <v>248.50999999999476</v>
+      </c>
+      <c r="H6" s="71">
+        <f>E6/C6</f>
+        <v>0.41862154599231471</v>
+      </c>
+      <c r="I6" s="71">
         <v>116430.89</v>
       </c>
-      <c r="E6">
-        <v>84263.51</v>
-      </c>
-      <c r="F6">
-        <v>84015</v>
-      </c>
-      <c r="H6">
-        <f>F6/C6</f>
-        <v>0.41862154599231471</v>
-      </c>
-      <c r="I6" t="s">
-        <v>328</v>
-      </c>
+      <c r="J6" s="71">
+        <v>37</v>
+      </c>
+      <c r="K6" s="71">
+        <f>C6/J6</f>
+        <v>5424.1729729729732</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="71">
+        <v>20170308</v>
+      </c>
+      <c r="C7" s="71">
+        <f>I7+D7</f>
+        <v>202053.8</v>
+      </c>
+      <c r="D7" s="71">
+        <v>85622.91</v>
+      </c>
+      <c r="E7" s="71">
+        <v>80967.8</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71">
+        <f t="shared" si="0"/>
+        <v>4655.1100000000006</v>
+      </c>
+      <c r="H7" s="71">
+        <f>E7/C7</f>
+        <v>0.40072396559728157</v>
+      </c>
+      <c r="I7" s="71">
+        <v>116430.89</v>
+      </c>
+      <c r="J7" s="71">
+        <v>37</v>
+      </c>
+      <c r="K7" s="71">
+        <f t="shared" ref="K7:K8" si="1">C7/J7</f>
+        <v>5460.913513513513</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="71">
+        <v>20170310</v>
+      </c>
+      <c r="C8" s="71">
+        <f>I8+D8</f>
+        <v>200202.8</v>
+      </c>
+      <c r="D8" s="71">
+        <v>83771.91</v>
+      </c>
+      <c r="E8" s="71">
+        <v>79116.800000000003</v>
+      </c>
+      <c r="F8" s="71">
+        <v>0</v>
+      </c>
+      <c r="G8" s="71">
+        <f t="shared" si="0"/>
+        <v>4655.1100000000006</v>
+      </c>
+      <c r="H8" s="71">
+        <f>E8/C8</f>
+        <v>0.39518328414987208</v>
+      </c>
+      <c r="I8" s="71">
+        <v>116430.89</v>
+      </c>
+      <c r="J8" s="71">
+        <v>37</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" si="1"/>
+        <v>5410.8864864864863</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="71">
+        <v>20170313</v>
+      </c>
+      <c r="C9" s="71">
+        <f>I9+D9</f>
+        <v>200801.2</v>
+      </c>
+      <c r="D9" s="71">
+        <v>84450.31</v>
+      </c>
+      <c r="E9" s="71">
+        <v>79795.199999999997</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0</v>
+      </c>
+      <c r="G9" s="71">
+        <f t="shared" si="0"/>
+        <v>4655.1100000000006</v>
+      </c>
+      <c r="H9" s="71">
+        <f>E9/C9</f>
+        <v>0.39738407937801162</v>
+      </c>
+      <c r="I9" s="71">
+        <v>116350.89</v>
+      </c>
+      <c r="J9" s="71">
+        <v>37</v>
+      </c>
+      <c r="K9" s="71">
+        <f t="shared" ref="K9" si="2">C9/J9</f>
+        <v>5427.0594594594595</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="71">
+        <v>20170315</v>
+      </c>
+      <c r="C10" s="71">
+        <f>I10+D10</f>
+        <v>200449.41</v>
+      </c>
+      <c r="D10" s="71">
+        <v>200369.41</v>
+      </c>
+      <c r="E10" s="71">
+        <f>200217.4-133000</f>
+        <v>67217.399999999994</v>
+      </c>
+      <c r="F10" s="71">
+        <v>0</v>
+      </c>
+      <c r="G10" s="71">
+        <f t="shared" ref="G10" si="3">D10-E10</f>
+        <v>133152.01</v>
+      </c>
+      <c r="H10" s="71">
+        <f>E10/C10</f>
+        <v>0.3353334888838036</v>
+      </c>
+      <c r="I10" s="71">
+        <v>80</v>
+      </c>
+      <c r="J10" s="71">
+        <v>37</v>
+      </c>
+      <c r="K10" s="71">
+        <f t="shared" ref="K10" si="4">C10/J10</f>
+        <v>5417.551621621622</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="71">
+        <v>20170315</v>
+      </c>
+      <c r="C11" s="71">
+        <f>I11+D11</f>
+        <v>200189.41</v>
+      </c>
+      <c r="D11" s="71">
+        <f>200369.41-180</f>
+        <v>200189.41</v>
+      </c>
+      <c r="E11" s="71">
+        <f>200217.4-133000</f>
+        <v>67217.399999999994</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0</v>
+      </c>
+      <c r="G11" s="71">
+        <f t="shared" ref="G11" si="5">D11-E11</f>
+        <v>132972.01</v>
+      </c>
+      <c r="H11" s="71">
+        <f>E11/C11</f>
+        <v>0.33576900995911818</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71">
+        <v>37</v>
+      </c>
+      <c r="K11" s="71">
+        <f t="shared" ref="K11" si="6">C11/J11</f>
+        <v>5410.5245945945944</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8675,20 +9258,309 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3:BB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <pane xSplit="4" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="32" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="54" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="76">
+        <v>42767</v>
+      </c>
+      <c r="F3" s="76">
+        <v>42768</v>
+      </c>
+      <c r="G3" s="76">
+        <v>42769</v>
+      </c>
+      <c r="H3" s="76">
+        <v>42770</v>
+      </c>
+      <c r="I3" s="76">
+        <v>42771</v>
+      </c>
+      <c r="J3" s="76">
+        <v>42772</v>
+      </c>
+      <c r="K3" s="76">
+        <v>42773</v>
+      </c>
+      <c r="L3" s="76">
+        <v>42774</v>
+      </c>
+      <c r="M3" s="76">
+        <v>42775</v>
+      </c>
+      <c r="N3" s="76">
+        <v>42776</v>
+      </c>
+      <c r="O3" s="76">
+        <v>42777</v>
+      </c>
+      <c r="P3" s="76">
+        <v>42778</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>42779</v>
+      </c>
+      <c r="R3" s="76">
+        <v>42780</v>
+      </c>
+      <c r="S3" s="76">
+        <v>42781</v>
+      </c>
+      <c r="T3" s="76">
+        <v>42782</v>
+      </c>
+      <c r="U3" s="76">
+        <v>42783</v>
+      </c>
+      <c r="V3" s="76">
+        <v>42784</v>
+      </c>
+      <c r="W3" s="76">
+        <v>42785</v>
+      </c>
+      <c r="X3" s="76">
+        <v>42786</v>
+      </c>
+      <c r="Y3" s="76">
+        <v>42787</v>
+      </c>
+      <c r="Z3" s="76">
+        <v>42788</v>
+      </c>
+      <c r="AA3" s="76">
+        <v>42789</v>
+      </c>
+      <c r="AB3" s="76">
+        <v>42790</v>
+      </c>
+      <c r="AC3" s="76">
+        <v>42791</v>
+      </c>
+      <c r="AD3" s="76">
+        <v>42792</v>
+      </c>
+      <c r="AE3" s="76">
+        <v>42793</v>
+      </c>
+      <c r="AF3" s="76">
+        <v>42794</v>
+      </c>
+      <c r="AG3" s="76">
+        <v>42795</v>
+      </c>
+      <c r="AH3" s="76">
+        <v>42796</v>
+      </c>
+      <c r="AI3" s="76">
+        <v>42797</v>
+      </c>
+      <c r="AJ3" s="76">
+        <v>42798</v>
+      </c>
+      <c r="AK3" s="76">
+        <v>42799</v>
+      </c>
+      <c r="AL3" s="76">
+        <v>42800</v>
+      </c>
+      <c r="AM3" s="78">
+        <v>42801</v>
+      </c>
+      <c r="AN3" s="76">
+        <v>42802</v>
+      </c>
+      <c r="AO3" s="76">
+        <v>42803</v>
+      </c>
+      <c r="AP3" s="76">
+        <v>42804</v>
+      </c>
+      <c r="AQ3" s="76">
+        <v>42805</v>
+      </c>
+      <c r="AR3" s="76">
+        <v>42806</v>
+      </c>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+    </row>
+    <row r="4" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>399001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AM4" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>329</v>
       </c>
-      <c r="C3">
-        <v>20170306</v>
+      <c r="D5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="Z5" s="77"/>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="N6" s="77"/>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>903</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>399330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="AB9" s="77"/>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="R10" s="66">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="77"/>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="Z11" s="77"/>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>904</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>399007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG15" s="77"/>
+      <c r="AM15" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:54" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>905</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>906</v>
+      </c>
+      <c r="C17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>399101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -8699,36 +9571,112 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B4:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="69"/>
+    <col min="2" max="2" width="19.5" style="69" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="69" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="69" customWidth="1"/>
+    <col min="5" max="5" width="17" style="69" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="69"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="71">
         <v>20170306</v>
       </c>
-      <c r="C3">
-        <f>200000-83569.11</f>
+      <c r="C5" s="71">
         <v>116430.89</v>
       </c>
-      <c r="D3" t="s">
-        <v>319</v>
-      </c>
+      <c r="D5" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="71">
+        <v>20170313</v>
+      </c>
+      <c r="C6" s="71">
+        <f>116430.89-80</f>
+        <v>116350.89</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="71">
+        <v>20170315</v>
+      </c>
+      <c r="C7" s="71">
+        <v>80</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="71">
+        <v>20170315</v>
+      </c>
+      <c r="C8" s="71">
+        <v>0</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -11042,14 +11990,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" firstSheet="10" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'19-买入'!$B$4:$O$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">工作表2!$D$2:$D$377</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">纪律!$H$1:$H$385</definedName>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1931">
   <si>
     <t>时间</t>
   </si>
@@ -7343,6 +7344,22 @@
     <rPh sb="0" eb="1">
       <t>ying'kui</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -7850,7 +7867,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8055,9 +8072,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8085,6 +8099,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8103,8 +8119,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="259">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8923,7 +8937,7 @@
         <v>-6252</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="87" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8952,7 +8966,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -10038,14 +10052,14 @@
       <c r="I48" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="84" t="s">
+      <c r="K48" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
@@ -10098,12 +10112,12 @@
       <c r="I50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
     </row>
     <row r="51" spans="1:16" ht="46" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -10156,12 +10170,12 @@
       <c r="I52" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="84"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
     </row>
     <row r="53" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
@@ -10590,7 +10604,7 @@
       <c r="G69" s="1">
         <v>3438</v>
       </c>
-      <c r="I69" s="85" t="s">
+      <c r="I69" s="86" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10616,7 +10630,7 @@
       <c r="G70" s="1">
         <v>4347</v>
       </c>
-      <c r="I70" s="85"/>
+      <c r="I70" s="86"/>
     </row>
     <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -10701,12 +10715,12 @@
       <c r="I73" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="K73" s="84"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
     </row>
     <row r="74" spans="1:16" s="38" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="38">
@@ -13463,13 +13477,13 @@
       <c r="K3" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>358</v>
       </c>
       <c r="O3" s="68" t="s">
@@ -13736,7 +13750,7 @@
         <f t="shared" si="1"/>
         <v>23.036799999999999</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="73">
         <f t="shared" si="0"/>
         <v>22.356000000000002</v>
       </c>
@@ -13812,7 +13826,7 @@
         <f t="shared" si="1"/>
         <v>19.3752</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="73">
         <f t="shared" si="0"/>
         <v>18.936</v>
       </c>
@@ -13865,7 +13879,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>1903</v>
       </c>
       <c r="C14" s="67">
@@ -13901,7 +13915,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="89"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="67">
         <v>600021</v>
       </c>
@@ -13935,7 +13949,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="89"/>
+      <c r="B16" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="O3:O13">
@@ -14556,10 +14570,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L20"/>
+  <dimension ref="B4:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -15213,6 +15227,42 @@
         <v>5407.8032432432428</v>
       </c>
       <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="71">
+        <v>20170427</v>
+      </c>
+      <c r="C21" s="71">
+        <v>200270.54</v>
+      </c>
+      <c r="D21" s="71">
+        <v>200270.54</v>
+      </c>
+      <c r="E21" s="71">
+        <f>D21-F21-G21</f>
+        <v>49544.80000000001</v>
+      </c>
+      <c r="F21" s="71">
+        <v>150000</v>
+      </c>
+      <c r="G21" s="71">
+        <v>725.74</v>
+      </c>
+      <c r="H21" s="71">
+        <f>E21/C21</f>
+        <v>0.24738935641757398</v>
+      </c>
+      <c r="I21" s="71">
+        <v>0</v>
+      </c>
+      <c r="J21" s="71">
+        <v>33</v>
+      </c>
+      <c r="K21" s="71">
+        <f t="shared" ref="K21" si="25">C21/J21</f>
+        <v>6068.8042424242431</v>
+      </c>
+      <c r="L21" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -15257,358 +15307,358 @@
       <c r="E3" t="s">
         <v>342</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="75">
         <v>42724</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="75">
         <v>42725</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="75">
         <v>42726</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="75">
         <v>42727</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="75">
         <v>42728</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="75">
         <v>42729</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="75">
         <v>42730</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="75">
         <v>42731</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="75">
         <v>42732</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="75">
         <v>42733</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="75">
         <v>42734</v>
       </c>
-      <c r="Q3" s="76">
+      <c r="Q3" s="75">
         <v>42735</v>
       </c>
-      <c r="R3" s="76">
+      <c r="R3" s="75">
         <v>42736</v>
       </c>
-      <c r="S3" s="76">
+      <c r="S3" s="75">
         <v>42737</v>
       </c>
-      <c r="T3" s="76">
+      <c r="T3" s="75">
         <v>42738</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="75">
         <v>42739</v>
       </c>
-      <c r="V3" s="76">
+      <c r="V3" s="75">
         <v>42740</v>
       </c>
-      <c r="W3" s="76">
+      <c r="W3" s="75">
         <v>42741</v>
       </c>
-      <c r="X3" s="76">
+      <c r="X3" s="75">
         <v>42742</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="Y3" s="75">
         <v>42743</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="75">
         <v>42744</v>
       </c>
-      <c r="AA3" s="76">
+      <c r="AA3" s="75">
         <v>42745</v>
       </c>
-      <c r="AB3" s="76">
+      <c r="AB3" s="75">
         <v>42746</v>
       </c>
-      <c r="AC3" s="76">
+      <c r="AC3" s="75">
         <v>42747</v>
       </c>
-      <c r="AD3" s="76">
+      <c r="AD3" s="75">
         <v>42748</v>
       </c>
-      <c r="AE3" s="76">
+      <c r="AE3" s="75">
         <v>42749</v>
       </c>
-      <c r="AF3" s="76">
+      <c r="AF3" s="75">
         <v>42750</v>
       </c>
-      <c r="AG3" s="76">
+      <c r="AG3" s="75">
         <v>42751</v>
       </c>
-      <c r="AH3" s="76">
+      <c r="AH3" s="75">
         <v>42752</v>
       </c>
-      <c r="AI3" s="76">
+      <c r="AI3" s="75">
         <v>42753</v>
       </c>
-      <c r="AJ3" s="76">
+      <c r="AJ3" s="75">
         <v>42754</v>
       </c>
-      <c r="AK3" s="76">
+      <c r="AK3" s="75">
         <v>42755</v>
       </c>
-      <c r="AL3" s="76">
+      <c r="AL3" s="75">
         <v>42756</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AM3" s="75">
         <v>42757</v>
       </c>
-      <c r="AN3" s="76">
+      <c r="AN3" s="75">
         <v>42758</v>
       </c>
-      <c r="AO3" s="76">
+      <c r="AO3" s="75">
         <v>42759</v>
       </c>
-      <c r="AP3" s="76">
+      <c r="AP3" s="75">
         <v>42760</v>
       </c>
-      <c r="AQ3" s="76">
+      <c r="AQ3" s="75">
         <v>42761</v>
       </c>
-      <c r="AR3" s="76">
+      <c r="AR3" s="75">
         <v>42762</v>
       </c>
-      <c r="AS3" s="76">
+      <c r="AS3" s="75">
         <v>42763</v>
       </c>
-      <c r="AT3" s="76">
+      <c r="AT3" s="75">
         <v>42764</v>
       </c>
-      <c r="AU3" s="76">
+      <c r="AU3" s="75">
         <v>42765</v>
       </c>
-      <c r="AV3" s="76">
+      <c r="AV3" s="75">
         <v>42766</v>
       </c>
-      <c r="AW3" s="76">
+      <c r="AW3" s="75">
         <v>42767</v>
       </c>
-      <c r="AX3" s="76">
+      <c r="AX3" s="75">
         <v>42768</v>
       </c>
-      <c r="AY3" s="76">
+      <c r="AY3" s="75">
         <v>42769</v>
       </c>
-      <c r="AZ3" s="76">
+      <c r="AZ3" s="75">
         <v>42770</v>
       </c>
-      <c r="BA3" s="76">
+      <c r="BA3" s="75">
         <v>42771</v>
       </c>
-      <c r="BB3" s="76">
+      <c r="BB3" s="75">
         <v>42772</v>
       </c>
-      <c r="BC3" s="76">
+      <c r="BC3" s="75">
         <v>42773</v>
       </c>
-      <c r="BD3" s="76">
+      <c r="BD3" s="75">
         <v>42774</v>
       </c>
-      <c r="BE3" s="76">
+      <c r="BE3" s="75">
         <v>42775</v>
       </c>
-      <c r="BF3" s="76">
+      <c r="BF3" s="75">
         <v>42776</v>
       </c>
-      <c r="BG3" s="76">
+      <c r="BG3" s="75">
         <v>42777</v>
       </c>
-      <c r="BH3" s="76">
+      <c r="BH3" s="75">
         <v>42778</v>
       </c>
-      <c r="BI3" s="76">
+      <c r="BI3" s="75">
         <v>42779</v>
       </c>
-      <c r="BJ3" s="76">
+      <c r="BJ3" s="75">
         <v>42780</v>
       </c>
-      <c r="BK3" s="76">
+      <c r="BK3" s="75">
         <v>42781</v>
       </c>
-      <c r="BL3" s="76">
+      <c r="BL3" s="75">
         <v>42782</v>
       </c>
-      <c r="BM3" s="76">
+      <c r="BM3" s="75">
         <v>42783</v>
       </c>
-      <c r="BN3" s="76">
+      <c r="BN3" s="75">
         <v>42784</v>
       </c>
-      <c r="BO3" s="76">
+      <c r="BO3" s="75">
         <v>42785</v>
       </c>
-      <c r="BP3" s="76">
+      <c r="BP3" s="75">
         <v>42786</v>
       </c>
-      <c r="BQ3" s="76">
+      <c r="BQ3" s="75">
         <v>42787</v>
       </c>
-      <c r="BR3" s="76">
+      <c r="BR3" s="75">
         <v>42788</v>
       </c>
-      <c r="BS3" s="76">
+      <c r="BS3" s="75">
         <v>42789</v>
       </c>
-      <c r="BT3" s="76">
+      <c r="BT3" s="75">
         <v>42790</v>
       </c>
-      <c r="BU3" s="76">
+      <c r="BU3" s="75">
         <v>42791</v>
       </c>
-      <c r="BV3" s="76">
+      <c r="BV3" s="75">
         <v>42792</v>
       </c>
-      <c r="BW3" s="76">
+      <c r="BW3" s="75">
         <v>42793</v>
       </c>
-      <c r="BX3" s="76">
+      <c r="BX3" s="75">
         <v>42794</v>
       </c>
-      <c r="BY3" s="76">
+      <c r="BY3" s="75">
         <v>42795</v>
       </c>
-      <c r="BZ3" s="76">
+      <c r="BZ3" s="75">
         <v>42796</v>
       </c>
-      <c r="CA3" s="76">
+      <c r="CA3" s="75">
         <v>42797</v>
       </c>
-      <c r="CB3" s="76">
+      <c r="CB3" s="75">
         <v>42798</v>
       </c>
-      <c r="CC3" s="76">
+      <c r="CC3" s="75">
         <v>42799</v>
       </c>
-      <c r="CD3" s="76">
+      <c r="CD3" s="75">
         <v>42800</v>
       </c>
-      <c r="CE3" s="78">
+      <c r="CE3" s="77">
         <v>42801</v>
       </c>
-      <c r="CF3" s="76">
+      <c r="CF3" s="75">
         <v>42802</v>
       </c>
-      <c r="CG3" s="76">
+      <c r="CG3" s="75">
         <v>42803</v>
       </c>
-      <c r="CH3" s="76">
+      <c r="CH3" s="75">
         <v>42804</v>
       </c>
-      <c r="CI3" s="76">
+      <c r="CI3" s="75">
         <v>42805</v>
       </c>
-      <c r="CJ3" s="76">
+      <c r="CJ3" s="75">
         <v>42806</v>
       </c>
-      <c r="CK3" s="76">
+      <c r="CK3" s="75">
         <v>42807</v>
       </c>
-      <c r="CL3" s="76">
+      <c r="CL3" s="75">
         <v>42808</v>
       </c>
-      <c r="CM3" s="76">
+      <c r="CM3" s="75">
         <v>42809</v>
       </c>
-      <c r="CN3" s="76">
+      <c r="CN3" s="75">
         <v>42810</v>
       </c>
-      <c r="CO3" s="76">
+      <c r="CO3" s="75">
         <v>42811</v>
       </c>
-      <c r="CP3" s="76">
+      <c r="CP3" s="75">
         <v>42812</v>
       </c>
-      <c r="CQ3" s="76">
+      <c r="CQ3" s="75">
         <v>42813</v>
       </c>
-      <c r="CR3" s="76">
+      <c r="CR3" s="75">
         <v>42814</v>
       </c>
-      <c r="CS3" s="76">
+      <c r="CS3" s="75">
         <v>42815</v>
       </c>
-      <c r="CT3" s="76">
+      <c r="CT3" s="75">
         <v>42816</v>
       </c>
-      <c r="CU3" s="76">
+      <c r="CU3" s="75">
         <v>42817</v>
       </c>
-      <c r="CV3" s="76">
+      <c r="CV3" s="75">
         <v>42818</v>
       </c>
-      <c r="CW3" s="76">
+      <c r="CW3" s="75">
         <v>42819</v>
       </c>
-      <c r="CX3" s="76">
+      <c r="CX3" s="75">
         <v>42820</v>
       </c>
-      <c r="CY3" s="76">
+      <c r="CY3" s="75">
         <v>42821</v>
       </c>
-      <c r="CZ3" s="76">
+      <c r="CZ3" s="75">
         <v>42822</v>
       </c>
-      <c r="DA3" s="76">
+      <c r="DA3" s="75">
         <v>42823</v>
       </c>
-      <c r="DB3" s="76">
+      <c r="DB3" s="75">
         <v>42824</v>
       </c>
-      <c r="DC3" s="76">
+      <c r="DC3" s="75">
         <v>42825</v>
       </c>
-      <c r="DD3" s="76">
+      <c r="DD3" s="75">
         <v>42826</v>
       </c>
-      <c r="DE3" s="76">
+      <c r="DE3" s="75">
         <v>42827</v>
       </c>
-      <c r="DF3" s="76">
+      <c r="DF3" s="75">
         <v>42828</v>
       </c>
-      <c r="DG3" s="76">
+      <c r="DG3" s="75">
         <v>42829</v>
       </c>
-      <c r="DH3" s="76">
+      <c r="DH3" s="75">
         <v>42830</v>
       </c>
-      <c r="DI3" s="76">
+      <c r="DI3" s="75">
         <v>42831</v>
       </c>
-      <c r="DJ3" s="76">
+      <c r="DJ3" s="75">
         <v>42832</v>
       </c>
-      <c r="DK3" s="76">
+      <c r="DK3" s="75">
         <v>42833</v>
       </c>
-      <c r="DL3" s="76">
+      <c r="DL3" s="75">
         <v>42834</v>
       </c>
-      <c r="DM3" s="76">
+      <c r="DM3" s="75">
         <v>42835</v>
       </c>
-      <c r="DN3" s="76">
+      <c r="DN3" s="75">
         <v>42836</v>
       </c>
-      <c r="DO3" s="76">
+      <c r="DO3" s="75">
         <v>42837</v>
       </c>
-      <c r="DP3" s="76">
+      <c r="DP3" s="75">
         <v>42838</v>
       </c>
-      <c r="DQ3" s="76">
+      <c r="DQ3" s="75">
         <v>42839</v>
       </c>
-      <c r="DR3" s="76">
+      <c r="DR3" s="75">
         <v>42840</v>
       </c>
-      <c r="DS3" s="76">
+      <c r="DS3" s="75">
         <v>42841</v>
       </c>
     </row>
@@ -15619,10 +15669,10 @@
       <c r="C4" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="O4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="BY4" s="77"/>
+      <c r="E4" s="76"/>
+      <c r="O4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="BY4" s="76"/>
       <c r="CE4" s="66">
         <v>2</v>
       </c>
@@ -15634,9 +15684,9 @@
       <c r="C5" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BR5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BR5" s="76"/>
     </row>
     <row r="6" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B6">
@@ -15648,9 +15698,9 @@
       <c r="D6" t="s">
         <v>357</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="BF6" s="77"/>
-      <c r="CM6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="CM6" s="76"/>
     </row>
     <row r="7" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B7">
@@ -15659,10 +15709,10 @@
       <c r="C7" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="79">
         <v>2</v>
       </c>
-      <c r="N7" s="80"/>
+      <c r="N7" s="79"/>
     </row>
     <row r="8" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B8">
@@ -15679,13 +15729,13 @@
       <c r="C9" t="s">
         <v>336</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="76"/>
       <c r="M9" s="66">
         <v>2</v>
       </c>
-      <c r="U9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="CV9" s="77"/>
+      <c r="U9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="CV9" s="76"/>
     </row>
     <row r="10" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B10">
@@ -15694,11 +15744,11 @@
       <c r="C10" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="76"/>
       <c r="BJ10" s="66">
         <v>2</v>
       </c>
-      <c r="BQ10" s="77"/>
+      <c r="BQ10" s="76"/>
     </row>
     <row r="11" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B11">
@@ -15707,11 +15757,11 @@
       <c r="C11" t="s">
         <v>339</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="I11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="AP11" s="77"/>
-      <c r="BR11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="I11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="AP11" s="76"/>
+      <c r="BR11" s="76"/>
     </row>
     <row r="12" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B12">
@@ -15720,11 +15770,11 @@
       <c r="C12" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="BQ12" s="77"/>
-      <c r="BR12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="BQ12" s="76"/>
+      <c r="BR12" s="76"/>
     </row>
     <row r="13" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B13">
@@ -15733,10 +15783,10 @@
       <c r="C13" t="s">
         <v>331</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="79">
         <v>2</v>
       </c>
-      <c r="CV13" s="77"/>
+      <c r="CV13" s="76"/>
     </row>
     <row r="14" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B14">
@@ -15753,11 +15803,11 @@
       <c r="C15" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="V15" s="77">
+      <c r="E15" s="76"/>
+      <c r="V15" s="76">
         <v>5</v>
       </c>
-      <c r="BY15" s="77"/>
+      <c r="BY15" s="76"/>
       <c r="CE15" s="66">
         <v>2</v>
       </c>
@@ -23659,386 +23709,418 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:Q20"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B4:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="81"/>
-    <col min="13" max="13" width="14.83203125" style="81" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" style="81" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="13" width="10.83203125" style="80"/>
+    <col min="14" max="14" width="14.83203125" style="80" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" style="80" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" s="82" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="82" t="s">
+    <row r="4" spans="2:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F4" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="H4" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="I4" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="J4" s="81" t="s">
         <v>353</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>1907</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="L4" s="81" t="s">
         <v>1904</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="M4" s="81" t="s">
         <v>1910</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="N4" s="81" t="s">
         <v>1918</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="81">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="80">
         <v>20170405</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="80">
         <v>600104</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>1898</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="80" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F5" s="80">
         <v>25.39</v>
       </c>
-      <c r="F5" s="81">
+      <c r="G5" s="80">
         <v>200</v>
       </c>
-      <c r="G5" s="81">
-        <f t="shared" ref="G5:G10" si="0">E5*F5</f>
+      <c r="H5" s="80">
+        <f t="shared" ref="H5:H10" si="0">F5*G5</f>
         <v>5078</v>
       </c>
-      <c r="H5" s="67">
-        <v>25.77</v>
-      </c>
       <c r="I5" s="67">
+        <v>28.05</v>
+      </c>
+      <c r="J5" s="67">
+        <v>20170427</v>
+      </c>
+      <c r="K5" s="80">
+        <f>I5*0.92</f>
+        <v>25.806000000000001</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M5" s="80">
+        <f>(K5-F5)*G5</f>
+        <v>83.200000000000074</v>
+      </c>
+      <c r="N5" s="80">
+        <f>M5/H5*100</f>
+        <v>1.6384403308389144</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="80">
         <v>20170406</v>
       </c>
-      <c r="J5" s="81">
-        <f>H5*0.92</f>
-        <v>23.708400000000001</v>
-      </c>
-      <c r="K5" s="81" t="s">
-        <v>1905</v>
-      </c>
-      <c r="L5" s="81">
-        <f>(J5-E5)*F5</f>
-        <v>-336.31999999999994</v>
-      </c>
-      <c r="M5" s="81">
-        <f>L5/G5*100</f>
-        <v>-6.6230799527372968</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="81">
-        <v>20170406</v>
-      </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>600021</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>1902</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F6" s="80">
         <v>12.63</v>
       </c>
-      <c r="F6" s="81">
+      <c r="G6" s="80">
         <v>400</v>
       </c>
-      <c r="G6" s="81">
+      <c r="H6" s="80">
         <f t="shared" si="0"/>
         <v>5052</v>
       </c>
-      <c r="H6" s="67">
+      <c r="I6" s="67">
         <v>12.9</v>
       </c>
-      <c r="I6" s="67">
+      <c r="J6" s="67">
         <v>20170413</v>
       </c>
-      <c r="J6" s="81">
-        <f>H6*0.92</f>
+      <c r="K6" s="80">
+        <f>I6*0.92</f>
         <v>11.868</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="L6" s="80" t="s">
         <v>1905</v>
       </c>
-      <c r="L6" s="81">
-        <f t="shared" ref="L6:L7" si="1">(J6-E6)*F6</f>
+      <c r="M6" s="80">
+        <f t="shared" ref="M6:M7" si="1">(K6-F6)*G6</f>
         <v>-304.80000000000018</v>
       </c>
-      <c r="M6" s="81">
-        <f t="shared" ref="M6:M11" si="2">L6/G6*100</f>
+      <c r="N6" s="80">
+        <f t="shared" ref="N6:N11" si="2">M6/H6*100</f>
         <v>-6.0332541567695994</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="O6" s="80" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="81">
+    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="80">
         <v>20170407</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="80">
         <v>600795</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>1852</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F7" s="80">
         <v>3.33</v>
       </c>
-      <c r="F7" s="81">
+      <c r="G7" s="80">
         <v>1500</v>
       </c>
-      <c r="G7" s="81">
+      <c r="H7" s="80">
         <f t="shared" si="0"/>
         <v>4995</v>
       </c>
-      <c r="H7" s="67">
+      <c r="I7" s="67">
         <v>3.48</v>
       </c>
-      <c r="I7" s="67">
+      <c r="J7" s="67">
         <v>20170407</v>
       </c>
-      <c r="J7" s="81">
-        <f>H7*0.92</f>
+      <c r="K7" s="80">
+        <f>I7*0.92</f>
         <v>3.2016</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="L7" s="80" t="s">
         <v>1905</v>
       </c>
-      <c r="L7" s="81">
+      <c r="M7" s="80">
         <f t="shared" si="1"/>
         <v>-192.60000000000011</v>
       </c>
-      <c r="M7" s="81">
+      <c r="N7" s="80">
         <f t="shared" si="2"/>
         <v>-3.8558558558558582</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="O7" s="80" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="83">
+    <row r="8" spans="2:15" s="82" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="82">
         <v>20170411</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>600104</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>1898</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="82" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F8" s="82">
         <v>25.46</v>
       </c>
-      <c r="F8" s="83">
+      <c r="G8" s="82">
         <v>200</v>
       </c>
-      <c r="G8" s="83">
+      <c r="H8" s="82">
         <f t="shared" si="0"/>
         <v>5092</v>
       </c>
-      <c r="H8" s="57">
-        <v>25.62</v>
-      </c>
-      <c r="I8" s="57">
-        <v>20170406</v>
-      </c>
-      <c r="J8" s="83">
-        <f>H8*0.92</f>
-        <v>23.570400000000003</v>
-      </c>
-      <c r="K8" s="83" t="s">
+      <c r="I8" s="67">
+        <v>28.05</v>
+      </c>
+      <c r="J8" s="67">
+        <v>20170427</v>
+      </c>
+      <c r="K8" s="82">
+        <f>I8*0.92</f>
+        <v>25.806000000000001</v>
+      </c>
+      <c r="L8" s="82" t="s">
         <v>1905</v>
       </c>
-      <c r="L8" s="83">
-        <f>(J8-E8)*F8</f>
-        <v>-377.91999999999962</v>
-      </c>
-      <c r="M8" s="81">
+      <c r="M8" s="82">
+        <f>(K8-F8)*G8</f>
+        <v>69.200000000000017</v>
+      </c>
+      <c r="N8" s="80">
         <f t="shared" si="2"/>
-        <v>-7.4218381775333784</v>
-      </c>
-      <c r="N8" s="83" t="s">
+        <v>1.3589945011783193</v>
+      </c>
+      <c r="O8" s="82" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="83">
+    <row r="9" spans="2:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="82">
         <v>20170410</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="82">
         <v>601166</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="82" t="s">
         <v>1917</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F9" s="82">
         <v>16.309999999999999</v>
       </c>
-      <c r="F9" s="83">
+      <c r="G9" s="82">
         <v>300</v>
       </c>
-      <c r="G9" s="83">
+      <c r="H9" s="82">
         <f t="shared" si="0"/>
         <v>4893</v>
       </c>
-      <c r="H9" s="57">
+      <c r="I9" s="57">
         <v>16.260000000000002</v>
       </c>
-      <c r="I9" s="83">
+      <c r="J9" s="82">
         <v>20170410</v>
       </c>
-      <c r="J9" s="83">
-        <f>E9*0.9</f>
+      <c r="K9" s="82">
+        <f>F9*0.9</f>
         <v>14.678999999999998</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="L9" s="80" t="s">
         <v>1906</v>
       </c>
-      <c r="L9" s="83">
-        <f>(J9-E9)*F9</f>
+      <c r="M9" s="82">
+        <f>(K9-F9)*G9</f>
         <v>-489.30000000000007</v>
       </c>
-      <c r="M9" s="81">
+      <c r="N9" s="80">
         <f t="shared" si="2"/>
         <v>-10.000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="83" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="83">
+    <row r="10" spans="2:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="82">
         <v>20170412</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="82">
         <v>601808</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="82" t="s">
         <v>1915</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F10" s="82">
         <v>13.04</v>
       </c>
-      <c r="F10" s="83">
+      <c r="G10" s="82">
         <v>400</v>
       </c>
-      <c r="G10" s="83">
+      <c r="H10" s="82">
         <f t="shared" si="0"/>
         <v>5216</v>
       </c>
-      <c r="H10" s="57">
+      <c r="I10" s="57">
         <v>13.04</v>
       </c>
-      <c r="I10" s="83">
+      <c r="J10" s="82">
         <v>20170412</v>
       </c>
-      <c r="J10" s="83">
-        <f>E10*0.9</f>
+      <c r="K10" s="82">
+        <f>F10*0.9</f>
         <v>11.735999999999999</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="L10" s="80" t="s">
         <v>1906</v>
       </c>
-      <c r="L10" s="83">
-        <f>(J10-E10)*F10</f>
+      <c r="M10" s="82">
+        <f>(K10-F10)*G10</f>
         <v>-521.60000000000014</v>
       </c>
-      <c r="M10" s="81">
+      <c r="N10" s="80">
         <f t="shared" si="2"/>
         <v>-10.000000000000002</v>
       </c>
-      <c r="N10" s="83" t="s">
+      <c r="O10" s="82" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="81">
+    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="80">
         <v>20170413</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="80">
         <v>600795</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>1852</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F11" s="80">
         <v>3.45</v>
       </c>
-      <c r="F11" s="81">
+      <c r="G11" s="80">
         <v>1500</v>
       </c>
-      <c r="G11" s="81">
-        <f t="shared" ref="G11" si="3">E11*F11</f>
+      <c r="H11" s="80">
+        <f t="shared" ref="H11" si="3">F11*G11</f>
         <v>5175</v>
       </c>
-      <c r="H11" s="67">
+      <c r="I11" s="67">
         <v>3.48</v>
       </c>
-      <c r="I11" s="67">
+      <c r="J11" s="67">
         <v>20170407</v>
       </c>
-      <c r="J11" s="81">
-        <f>H11*0.92</f>
+      <c r="K11" s="80">
+        <f>I11*0.92</f>
         <v>3.2016</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="L11" s="80" t="s">
         <v>1905</v>
       </c>
-      <c r="L11" s="81">
-        <f t="shared" ref="L11" si="4">(J11-E11)*F11</f>
+      <c r="M11" s="80">
+        <f t="shared" ref="M11" si="4">(K11-F11)*G11</f>
         <v>-372.60000000000025</v>
       </c>
-      <c r="M11" s="81">
+      <c r="N11" s="80">
         <f t="shared" si="2"/>
         <v>-7.2000000000000046</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="O11" s="80" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.15">
-      <c r="N19" s="67"/>
+    <row r="19" spans="15:18" x14ac:dyDescent="0.15">
       <c r="O19" s="67"/>
       <c r="P19" s="67"/>
       <c r="Q19" s="67"/>
-    </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.15">
-      <c r="N20" s="67"/>
+      <c r="R19" s="67"/>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.15">
       <c r="O20" s="67"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:O11">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ON"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24048,16 +24130,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="90"/>
-    <col min="9" max="9" width="17.33203125" style="90" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="90"/>
+    <col min="1" max="8" width="10.83203125" style="83"/>
+    <col min="9" max="9" width="17.33203125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
@@ -24085,7 +24167,7 @@
       <c r="I6" s="68" t="s">
         <v>1926</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="84" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -24128,10 +24210,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:K12"/>
+  <dimension ref="B4:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -24147,7 +24229,7 @@
     <col min="9" max="16384" width="10.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="s">
         <v>324</v>
       </c>
@@ -24163,7 +24245,7 @@
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="71">
         <v>20170306</v>
       </c>
@@ -24179,7 +24261,7 @@
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="71">
         <v>20170313</v>
       </c>
@@ -24196,7 +24278,7 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="71">
         <v>20170315</v>
       </c>
@@ -24214,7 +24296,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="71">
         <v>20170315</v>
       </c>
@@ -24232,7 +24314,7 @@
       <c r="H8" s="71"/>
       <c r="I8" s="71"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="71">
         <v>20170406</v>
       </c>
@@ -24250,7 +24332,7 @@
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="71">
         <v>20170410</v>
       </c>
@@ -24268,7 +24350,7 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="71">
         <v>20170412</v>
       </c>
@@ -24286,8 +24368,23 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K12" s="72"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="71">
+        <v>20170414</v>
+      </c>
+      <c r="C12" s="71">
+        <v>0</v>
+      </c>
+      <c r="D12" s="71">
+        <v>0</v>
+      </c>
+      <c r="E12" s="71">
+        <v>0</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -32362,14 +32459,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'19-买入'!$B$4:$O$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'19-买入'!$B$4:$O$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">工作表2!$D$2:$D$377</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">纪律!$H$1:$H$385</definedName>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="1942">
   <si>
     <t>时间</t>
   </si>
@@ -7360,6 +7360,119 @@
   </si>
   <si>
     <t>ON</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>首钢股份</t>
+    <rPh sb="0" eb="1">
+      <t>shou'gang'gu'f</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>入10日均线3天，白线穿越0轴</t>
+    <rPh sb="0" eb="1">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jun'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bai'xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuan'yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <rPh sb="0" eb="1">
+      <t>li'xi</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong'ji</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>众生药业</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'sheng'yao'ye</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈前止损</t>
+    <rPh sb="0" eb="1">
+      <t>ying'hou'zhi'sun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大荒</t>
+    <rPh sb="0" eb="1">
+      <t>bei'da'h</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>露笑科技</t>
+    <rPh sb="0" eb="1">
+      <t>lu'xiao'ke'ji</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深高速</t>
+    <rPh sb="0" eb="1">
+      <t>shen'gao'su</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三日在10日均线下，止损卖出</t>
+    <rPh sb="0" eb="1">
+      <t>san'ri</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jun'xian'xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'sun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mai'chu</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -13434,8 +13547,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14008,7 +14121,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14527,10 +14640,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14560,6 +14673,18 @@
       </c>
       <c r="D4">
         <v>222.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20170503</v>
+      </c>
+      <c r="C5">
+        <v>15.2</v>
+      </c>
+      <c r="D5">
+        <f>D4+C5</f>
+        <v>238.1</v>
       </c>
     </row>
   </sheetData>
@@ -14570,10 +14695,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L21"/>
+  <dimension ref="B4:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -15142,7 +15267,7 @@
         <v>52565.2</v>
       </c>
       <c r="H18" s="71">
-        <f>E18/C18</f>
+        <f t="shared" ref="H18:H23" si="22">E18/C18</f>
         <v>0.26578532299073049</v>
       </c>
       <c r="I18" s="71">
@@ -15152,7 +15277,7 @@
         <v>37</v>
       </c>
       <c r="K18" s="71">
-        <f t="shared" ref="K18" si="22">C18/J18</f>
+        <f t="shared" ref="K18" si="23">C18/J18</f>
         <v>5431.9189189189192</v>
       </c>
       <c r="L18" s="71"/>
@@ -15178,7 +15303,7 @@
         <v>52565.2</v>
       </c>
       <c r="H19" s="71">
-        <f>E19/C19</f>
+        <f t="shared" si="22"/>
         <v>1.0231321930729851</v>
       </c>
       <c r="I19" s="71">
@@ -15188,7 +15313,7 @@
         <v>37</v>
       </c>
       <c r="K19" s="71">
-        <f t="shared" ref="K19" si="23">C19/J19</f>
+        <f t="shared" ref="K19" si="24">C19/J19</f>
         <v>5419.1354054054054</v>
       </c>
       <c r="L19" s="71"/>
@@ -15213,7 +15338,7 @@
         <v>127188.32</v>
       </c>
       <c r="H20" s="71">
-        <f>E20/C20</f>
+        <f t="shared" si="22"/>
         <v>0.36434037860804946</v>
       </c>
       <c r="I20" s="71">
@@ -15223,7 +15348,7 @@
         <v>37</v>
       </c>
       <c r="K20" s="71">
-        <f t="shared" ref="K20" si="24">C20/J20</f>
+        <f t="shared" ref="K20" si="25">C20/J20</f>
         <v>5407.8032432432428</v>
       </c>
       <c r="L20" s="71"/>
@@ -15249,7 +15374,7 @@
         <v>725.74</v>
       </c>
       <c r="H21" s="71">
-        <f>E21/C21</f>
+        <f t="shared" si="22"/>
         <v>0.24738935641757398</v>
       </c>
       <c r="I21" s="71">
@@ -15259,10 +15384,80 @@
         <v>33</v>
       </c>
       <c r="K21" s="71">
-        <f t="shared" ref="K21" si="25">C21/J21</f>
+        <f t="shared" ref="K21" si="26">C21/J21</f>
         <v>6068.8042424242431</v>
       </c>
       <c r="L21" s="71"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="71">
+        <v>20170502</v>
+      </c>
+      <c r="C22" s="71">
+        <v>199863.83</v>
+      </c>
+      <c r="D22" s="71">
+        <v>199863.83</v>
+      </c>
+      <c r="E22" s="71">
+        <v>49931.4</v>
+      </c>
+      <c r="F22" s="71">
+        <v>0</v>
+      </c>
+      <c r="G22" s="71">
+        <v>149932.43</v>
+      </c>
+      <c r="H22" s="71">
+        <f t="shared" si="22"/>
+        <v>0.24982709477747927</v>
+      </c>
+      <c r="I22" s="71">
+        <v>0</v>
+      </c>
+      <c r="J22" s="71">
+        <v>37</v>
+      </c>
+      <c r="K22" s="71">
+        <f t="shared" ref="K22" si="27">C22/J22</f>
+        <v>5401.7251351351351</v>
+      </c>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="71">
+        <v>20170503</v>
+      </c>
+      <c r="C23" s="71">
+        <v>199555.92</v>
+      </c>
+      <c r="D23" s="71">
+        <v>199555.92</v>
+      </c>
+      <c r="E23" s="71">
+        <v>60074.6</v>
+      </c>
+      <c r="F23" s="71">
+        <v>0</v>
+      </c>
+      <c r="G23" s="71">
+        <v>149932.43</v>
+      </c>
+      <c r="H23" s="71">
+        <f t="shared" si="22"/>
+        <v>0.30104143239649317</v>
+      </c>
+      <c r="I23" s="71">
+        <v>0</v>
+      </c>
+      <c r="J23" s="71">
+        <v>37</v>
+      </c>
+      <c r="K23" s="71">
+        <f t="shared" ref="K23" si="28">C23/J23</f>
+        <v>5393.4032432432432</v>
+      </c>
+      <c r="L23" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -15272,11 +15467,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:DS18"/>
+  <dimension ref="B3:EC18"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="CM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV15" sqref="CV15"/>
+      <pane xSplit="5" topLeftCell="DU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DX10" sqref="DX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15294,7 +15489,7 @@
     <col min="86" max="98" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>328</v>
       </c>
@@ -15661,8 +15856,38 @@
       <c r="DS3" s="75">
         <v>42841</v>
       </c>
-    </row>
-    <row r="4" spans="2:123" x14ac:dyDescent="0.15">
+      <c r="DT3" s="75">
+        <v>42842</v>
+      </c>
+      <c r="DU3" s="75">
+        <v>42843</v>
+      </c>
+      <c r="DV3" s="75">
+        <v>42844</v>
+      </c>
+      <c r="DW3" s="75">
+        <v>42845</v>
+      </c>
+      <c r="DX3" s="75">
+        <v>42846</v>
+      </c>
+      <c r="DY3" s="75">
+        <v>42847</v>
+      </c>
+      <c r="DZ3" s="75">
+        <v>42848</v>
+      </c>
+      <c r="EA3" s="75">
+        <v>42849</v>
+      </c>
+      <c r="EB3" s="75">
+        <v>42850</v>
+      </c>
+      <c r="EC3" s="75">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="4" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>399001</v>
       </c>
@@ -15677,7 +15902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -15688,7 +15913,7 @@
       <c r="BE5" s="76"/>
       <c r="BR5" s="76"/>
     </row>
-    <row r="6" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>16</v>
       </c>
@@ -15702,7 +15927,7 @@
       <c r="BF6" s="76"/>
       <c r="CM6" s="76"/>
     </row>
-    <row r="7" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>903</v>
       </c>
@@ -15714,7 +15939,7 @@
       </c>
       <c r="N7" s="79"/>
     </row>
-    <row r="8" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>399330</v>
       </c>
@@ -15722,7 +15947,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>132</v>
       </c>
@@ -15737,7 +15962,7 @@
       <c r="BT9" s="76"/>
       <c r="CV9" s="76"/>
     </row>
-    <row r="10" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>133</v>
       </c>
@@ -15749,8 +15974,9 @@
         <v>2</v>
       </c>
       <c r="BQ10" s="76"/>
-    </row>
-    <row r="11" spans="2:123" x14ac:dyDescent="0.15">
+      <c r="DX10" s="78"/>
+    </row>
+    <row r="11" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>10</v>
       </c>
@@ -15763,7 +15989,7 @@
       <c r="AP11" s="76"/>
       <c r="BR11" s="76"/>
     </row>
-    <row r="12" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>904</v>
       </c>
@@ -15776,7 +16002,7 @@
       <c r="BQ12" s="76"/>
       <c r="BR12" s="76"/>
     </row>
-    <row r="13" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>300</v>
       </c>
@@ -15788,7 +16014,7 @@
       </c>
       <c r="CV13" s="76"/>
     </row>
-    <row r="14" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>399007</v>
       </c>
@@ -15796,7 +16022,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>9</v>
       </c>
@@ -15812,7 +16038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:123" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:133" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>905</v>
       </c>
@@ -23710,10 +23936,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B4:R20"/>
+  <dimension ref="A4:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -23724,7 +23950,7 @@
     <col min="16" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="81" t="s">
         <v>308</v>
       </c>
@@ -23768,7 +23994,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="80">
         <v>20170405</v>
       </c>
@@ -23788,35 +24014,35 @@
         <v>200</v>
       </c>
       <c r="H5" s="80">
-        <f t="shared" ref="H5:H10" si="0">F5*G5</f>
+        <f t="shared" ref="H5:H12" si="0">F5*G5</f>
         <v>5078</v>
       </c>
       <c r="I5" s="67">
-        <v>28.05</v>
+        <v>28.08</v>
       </c>
       <c r="J5" s="67">
         <v>20170427</v>
       </c>
       <c r="K5" s="80">
         <f>I5*0.92</f>
-        <v>25.806000000000001</v>
+        <v>25.833600000000001</v>
       </c>
       <c r="L5" s="80" t="s">
         <v>1905</v>
       </c>
       <c r="M5" s="80">
         <f>(K5-F5)*G5</f>
-        <v>83.200000000000074</v>
+        <v>88.72</v>
       </c>
       <c r="N5" s="80">
         <f>M5/H5*100</f>
-        <v>1.6384403308389144</v>
+        <v>1.7471445450964949</v>
       </c>
       <c r="O5" s="80" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="80">
         <v>20170406</v>
       </c>
@@ -23857,14 +24083,14 @@
         <v>-304.80000000000018</v>
       </c>
       <c r="N6" s="80">
-        <f t="shared" ref="N6:N11" si="2">M6/H6*100</f>
+        <f t="shared" ref="N6:N12" si="2">M6/H6*100</f>
         <v>-6.0332541567695994</v>
       </c>
       <c r="O6" s="80" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="80">
         <v>20170407</v>
       </c>
@@ -23912,7 +24138,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="82" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="82">
         <v>20170411</v>
       </c>
@@ -23936,31 +24162,31 @@
         <v>5092</v>
       </c>
       <c r="I8" s="67">
-        <v>28.05</v>
+        <v>28.08</v>
       </c>
       <c r="J8" s="67">
         <v>20170427</v>
       </c>
       <c r="K8" s="82">
         <f>I8*0.92</f>
-        <v>25.806000000000001</v>
+        <v>25.833600000000001</v>
       </c>
       <c r="L8" s="82" t="s">
         <v>1905</v>
       </c>
       <c r="M8" s="82">
         <f>(K8-F8)*G8</f>
-        <v>69.200000000000017</v>
+        <v>74.719999999999942</v>
       </c>
       <c r="N8" s="80">
         <f t="shared" si="2"/>
-        <v>1.3589945011783193</v>
+        <v>1.4673998428908079</v>
       </c>
       <c r="O8" s="82" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="82">
         <v>20170410</v>
       </c>
@@ -24005,7 +24231,7 @@
         <v>-10.000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" s="82" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="82">
         <v>20170412</v>
       </c>
@@ -24053,7 +24279,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="11" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="80">
         <v>20170413</v>
       </c>
@@ -24099,6 +24325,249 @@
       </c>
       <c r="O11" s="80" t="s">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="80">
+        <v>191</v>
+      </c>
+      <c r="B12" s="80">
+        <v>20170502</v>
+      </c>
+      <c r="C12" s="80">
+        <v>595</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F12" s="80">
+        <v>7.57</v>
+      </c>
+      <c r="G12" s="80">
+        <v>600</v>
+      </c>
+      <c r="H12" s="82">
+        <f t="shared" si="0"/>
+        <v>4542</v>
+      </c>
+      <c r="I12" s="80">
+        <v>7.7</v>
+      </c>
+      <c r="J12" s="80">
+        <v>20170502</v>
+      </c>
+      <c r="K12" s="82">
+        <f>I12*0.92</f>
+        <v>7.0840000000000005</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M12" s="82">
+        <f>(K12-F12)*G12</f>
+        <v>-291.59999999999985</v>
+      </c>
+      <c r="N12" s="80">
+        <f t="shared" si="2"/>
+        <v>-6.4200792602377783</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="C13" s="80">
+        <v>2317</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F13" s="80">
+        <v>12.39</v>
+      </c>
+      <c r="G13" s="80">
+        <v>400</v>
+      </c>
+      <c r="H13" s="82">
+        <f t="shared" ref="H13:H14" si="5">F13*G13</f>
+        <v>4956</v>
+      </c>
+      <c r="I13" s="80">
+        <v>0</v>
+      </c>
+      <c r="J13" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="K13" s="82">
+        <f>F13*0.9</f>
+        <v>11.151000000000002</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M13" s="82">
+        <f>(K13-F13)*G13</f>
+        <v>-495.59999999999957</v>
+      </c>
+      <c r="N13" s="80">
+        <f>M13/H13*100</f>
+        <v>-9.9999999999999911</v>
+      </c>
+      <c r="O13" s="80" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="C14" s="80">
+        <v>600598</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F14" s="80">
+        <v>10.97</v>
+      </c>
+      <c r="G14" s="80">
+        <v>500</v>
+      </c>
+      <c r="H14" s="82">
+        <f t="shared" si="5"/>
+        <v>5485</v>
+      </c>
+      <c r="I14" s="80">
+        <v>11.04</v>
+      </c>
+      <c r="J14" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="K14" s="82">
+        <f>I14*0.92</f>
+        <v>10.1568</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M14" s="82">
+        <f>(K14-F14)*G14</f>
+        <v>-406.60000000000008</v>
+      </c>
+      <c r="N14" s="80">
+        <f t="shared" ref="N13:N14" si="6">M14/H14*100</f>
+        <v>-7.4129443938012782</v>
+      </c>
+      <c r="O14" s="80" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="80">
+        <v>20170505</v>
+      </c>
+      <c r="C15" s="80">
+        <v>2617</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F15" s="80">
+        <v>14.56</v>
+      </c>
+      <c r="G15" s="80">
+        <v>400</v>
+      </c>
+      <c r="H15" s="82">
+        <f t="shared" ref="H15" si="7">F15*G15</f>
+        <v>5824</v>
+      </c>
+      <c r="I15" s="80">
+        <v>14.62</v>
+      </c>
+      <c r="J15" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="K15" s="82">
+        <f>I15*0.92</f>
+        <v>13.4504</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>1905</v>
+      </c>
+      <c r="M15" s="82">
+        <f>(K15-F15)*G15</f>
+        <v>-443.84000000000015</v>
+      </c>
+      <c r="N15" s="80">
+        <f t="shared" ref="N15" si="8">M15/H15*100</f>
+        <v>-7.6208791208791231</v>
+      </c>
+      <c r="O15" s="80" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="80">
+        <v>20170505</v>
+      </c>
+      <c r="C16" s="80">
+        <v>600548</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F16" s="80">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="G16" s="80">
+        <v>600</v>
+      </c>
+      <c r="H16" s="82">
+        <f t="shared" ref="H16" si="9">F16*G16</f>
+        <v>5232</v>
+      </c>
+      <c r="I16" s="80">
+        <v>0</v>
+      </c>
+      <c r="J16" s="80">
+        <v>20170503</v>
+      </c>
+      <c r="K16" s="82">
+        <f>F16*0.9</f>
+        <v>7.8480000000000008</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M16" s="82">
+        <f>(K16-F16)*G16</f>
+        <v>-523.19999999999993</v>
+      </c>
+      <c r="N16" s="80">
+        <f t="shared" ref="N16" si="10">M16/H16*100</f>
+        <v>-10</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="19" spans="15:18" x14ac:dyDescent="0.15">
@@ -24114,7 +24583,7 @@
       <c r="R20" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:O11">
+  <autoFilter ref="B4:O16">
     <filterColumn colId="3">
       <filters>
         <filter val="ON"/>
@@ -24131,7 +24600,7 @@
   <dimension ref="B6:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -24213,7 +24682,7 @@
   <dimension ref="B4:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -24240,8 +24709,12 @@
         <v>254</v>
       </c>
       <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="70" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>1934</v>
+      </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
     </row>
@@ -24345,7 +24818,9 @@
       <c r="E10" s="71" t="s">
         <v>1909</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="71">
+        <v>2</v>
+      </c>
       <c r="G10" s="71"/>
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
@@ -24373,16 +24848,20 @@
         <v>20170414</v>
       </c>
       <c r="C12" s="71">
-        <v>0</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0</v>
-      </c>
-      <c r="E12" s="71">
-        <v>0</v>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+        <v>5003</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F12" s="71">
+        <v>3</v>
+      </c>
+      <c r="G12" s="71">
+        <v>5</v>
+      </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
     </row>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="10" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,18 +22,18 @@
     <sheet name="安全资产" sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="拆借" sheetId="8" state="hidden" r:id="rId9"/>
     <sheet name="仓" sheetId="14" state="hidden" r:id="rId10"/>
-    <sheet name="止损" sheetId="18" r:id="rId11"/>
-    <sheet name="700" sheetId="26" r:id="rId12"/>
-    <sheet name="交易记录" sheetId="19" r:id="rId13"/>
+    <sheet name="止损" sheetId="18" state="hidden" r:id="rId11"/>
+    <sheet name="700" sheetId="26" state="hidden" r:id="rId12"/>
+    <sheet name="交易记录" sheetId="19" state="hidden" r:id="rId13"/>
     <sheet name="逆回购交易记录" sheetId="23" state="hidden" r:id="rId14"/>
-    <sheet name="盈利提取" sheetId="20" r:id="rId15"/>
+    <sheet name="盈利提取" sheetId="20" state="hidden" r:id="rId15"/>
     <sheet name="交易账户" sheetId="22" r:id="rId16"/>
     <sheet name="指数看板" sheetId="25" r:id="rId17"/>
     <sheet name="工作表2" sheetId="27" r:id="rId18"/>
     <sheet name="frost" sheetId="29" state="hidden" r:id="rId19"/>
     <sheet name="工作表3" sheetId="28" state="hidden" r:id="rId20"/>
-    <sheet name="19-买入" sheetId="30" r:id="rId21"/>
-    <sheet name="19-卖出" sheetId="31" r:id="rId22"/>
+    <sheet name="19-买入" sheetId="30" state="hidden" r:id="rId21"/>
+    <sheet name="19-卖出" sheetId="31" state="hidden" r:id="rId22"/>
     <sheet name="场外资金" sheetId="24" r:id="rId23"/>
     <sheet name="权益" sheetId="17" state="hidden" r:id="rId24"/>
     <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId25"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="1943">
   <si>
     <t>时间</t>
   </si>
@@ -7473,6 +7473,19 @@
   </si>
   <si>
     <t>OFF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利未提取</t>
+    <rPh sb="0" eb="1">
+      <t>ying'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'qu</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -14643,7 +14656,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14695,10 +14708,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L23"/>
+  <dimension ref="B4:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -15458,6 +15471,42 @@
         <v>5393.4032432432432</v>
       </c>
       <c r="L23" s="71"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="71">
+        <v>20170628</v>
+      </c>
+      <c r="C24" s="71">
+        <f>D24+I24</f>
+        <v>202005.88</v>
+      </c>
+      <c r="D24" s="71">
+        <v>202034.68</v>
+      </c>
+      <c r="E24" s="71">
+        <v>109755.4</v>
+      </c>
+      <c r="F24" s="71">
+        <v>0</v>
+      </c>
+      <c r="G24" s="71">
+        <v>92261.28</v>
+      </c>
+      <c r="H24" s="71">
+        <f t="shared" ref="H24" si="29">E24/C24</f>
+        <v>0.54332774867741473</v>
+      </c>
+      <c r="I24" s="71">
+        <v>-28.8</v>
+      </c>
+      <c r="J24" s="71">
+        <v>37</v>
+      </c>
+      <c r="K24" s="71">
+        <f t="shared" ref="K24" si="30">C24/J24</f>
+        <v>5459.6183783783781</v>
+      </c>
+      <c r="L24" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -23938,8 +23987,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -24467,7 +24516,7 @@
         <v>-406.60000000000008</v>
       </c>
       <c r="N14" s="80">
-        <f t="shared" ref="N13:N14" si="6">M14/H14*100</f>
+        <f t="shared" ref="N14" si="6">M14/H14*100</f>
         <v>-7.4129443938012782</v>
       </c>
       <c r="O14" s="80" t="s">
@@ -24679,10 +24728,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I12"/>
+  <dimension ref="B4:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.3"/>
@@ -24864,6 +24913,22 @@
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="71">
+        <v>20170623</v>
+      </c>
+      <c r="C13" s="71">
+        <v>28.8</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/蹦驼基金.xlsx
+++ b/蹦驼基金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,29 +27,30 @@
     <sheet name="交易记录" sheetId="19" state="hidden" r:id="rId13"/>
     <sheet name="逆回购交易记录" sheetId="23" state="hidden" r:id="rId14"/>
     <sheet name="盈利提取" sheetId="20" state="hidden" r:id="rId15"/>
-    <sheet name="交易账户" sheetId="22" r:id="rId16"/>
-    <sheet name="指数看板" sheetId="25" r:id="rId17"/>
-    <sheet name="工作表2" sheetId="27" r:id="rId18"/>
-    <sheet name="frost" sheetId="29" state="hidden" r:id="rId19"/>
-    <sheet name="工作表3" sheetId="28" state="hidden" r:id="rId20"/>
-    <sheet name="19-买入" sheetId="30" state="hidden" r:id="rId21"/>
-    <sheet name="19-卖出" sheetId="31" state="hidden" r:id="rId22"/>
-    <sheet name="场外资金" sheetId="24" r:id="rId23"/>
-    <sheet name="权益" sheetId="17" state="hidden" r:id="rId24"/>
-    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId25"/>
-    <sheet name="纪律" sheetId="9" r:id="rId26"/>
-    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId27"/>
-    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId28"/>
+    <sheet name="交易账户" sheetId="22" state="hidden" r:id="rId16"/>
+    <sheet name="29" sheetId="32" r:id="rId17"/>
+    <sheet name="指数看板" sheetId="25" state="hidden" r:id="rId18"/>
+    <sheet name="工作表2" sheetId="27" state="hidden" r:id="rId19"/>
+    <sheet name="frost" sheetId="29" state="hidden" r:id="rId20"/>
+    <sheet name="工作表3" sheetId="28" state="hidden" r:id="rId21"/>
+    <sheet name="19-买入" sheetId="30" state="hidden" r:id="rId22"/>
+    <sheet name="19-卖出" sheetId="31" state="hidden" r:id="rId23"/>
+    <sheet name="场外资金" sheetId="24" state="hidden" r:id="rId24"/>
+    <sheet name="权益" sheetId="17" state="hidden" r:id="rId25"/>
+    <sheet name="201609交易复盘" sheetId="15" state="hidden" r:id="rId26"/>
+    <sheet name="纪律" sheetId="9" state="hidden" r:id="rId27"/>
+    <sheet name="601169 北京银行" sheetId="11" state="hidden" r:id="rId28"/>
+    <sheet name="600363 联创光电" sheetId="12" state="hidden" r:id="rId29"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'19-买入'!$B$4:$O$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'19-买入'!$B$4:$O$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A!$C$1:$C$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">工作表2!$D$2:$D$377</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">纪律!$H$1:$H$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">工作表2!$D$2:$D$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">纪律!$H$1:$H$385</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">止损!$O$3:$O$13</definedName>
-    <definedName name="a" localSheetId="18">frost!$C$4:$E$12</definedName>
-    <definedName name="a" localSheetId="17">工作表2!$B$2:$F$377</definedName>
-    <definedName name="a" localSheetId="25">纪律!$F$10:$J$385</definedName>
+    <definedName name="a" localSheetId="19">frost!$C$4:$E$12</definedName>
+    <definedName name="a" localSheetId="18">工作表2!$B$2:$F$377</definedName>
+    <definedName name="a" localSheetId="26">纪律!$F$10:$J$385</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="1947">
   <si>
     <t>时间</t>
   </si>
@@ -7488,6 +7489,19 @@
     </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空动力</t>
+  </si>
+  <si>
+    <t>金宇车城</t>
+  </si>
+  <si>
+    <t>双成药业</t>
+  </si>
 </sst>
 </file>
 
@@ -7525,20 +7539,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Hiragino Sans GB W3"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Hiragino Sans GB W3"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Hiragino Sans GB W3"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -14710,7 +14724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -15515,6 +15529,60 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>20180111</v>
+      </c>
+      <c r="C3">
+        <v>600893</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>20180112</v>
+      </c>
+      <c r="C4">
+        <v>803</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>20180112</v>
+      </c>
+      <c r="C5">
+        <v>2693</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:EC18"/>
   <sheetViews>
@@ -16117,7 +16185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:F377"/>
@@ -22422,523 +22490,6 @@
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="9.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C3" s="19" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1849</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G12">
-        <v>327</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D13">
-        <v>600975</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D14">
-        <v>600410</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D15">
-        <v>600756</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D17">
-        <v>932</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" s="19">
-        <v>170327</v>
-      </c>
-      <c r="D18">
-        <v>600439</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" s="19">
-        <v>170328</v>
-      </c>
-      <c r="D19">
-        <v>600292</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" s="19">
-        <v>170328</v>
-      </c>
-      <c r="D20">
-        <v>2414</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="19">
-        <v>170328</v>
-      </c>
-      <c r="D21">
-        <v>601808</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46">
-        <v>43</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47">
-        <v>44</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48">
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50">
-        <v>47</v>
-      </c>
-      <c r="C50" s="19">
-        <v>170331</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -23484,6 +23035,523 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C3" s="19" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G12">
+        <v>327</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D13">
+        <v>600975</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D14">
+        <v>600410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D15">
+        <v>600756</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D17">
+        <v>932</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="19">
+        <v>170327</v>
+      </c>
+      <c r="D18">
+        <v>600439</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="19">
+        <v>170328</v>
+      </c>
+      <c r="D19">
+        <v>600292</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19">
+        <v>170328</v>
+      </c>
+      <c r="D20">
+        <v>2414</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="19">
+        <v>170328</v>
+      </c>
+      <c r="D21">
+        <v>601808</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" s="19">
+        <v>170331</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -23982,7 +24050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A4:R20"/>
@@ -24644,7 +24712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J7"/>
   <sheetViews>
@@ -24726,7 +24794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I13"/>
   <sheetViews>
@@ -24936,7 +25004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -25421,7 +25489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -25436,7 +25504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J385"/>
@@ -31758,7 +31826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -32022,7 +32090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
